--- a/etf_dfs/EWD.xlsx
+++ b/etf_dfs/EWD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWD</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>13.875</v>
       </c>
       <c r="F2">
-        <v>4.887098789215088</v>
+        <v>4.865952968597412</v>
       </c>
       <c r="G2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>13.9375</v>
       </c>
       <c r="F3">
-        <v>4.90911340713501</v>
+        <v>4.88787317276001</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -488,7 +494,7 @@
         <v>0.004504504504504458</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>14.4375</v>
       </c>
       <c r="F4">
-        <v>5.085225105285645</v>
+        <v>5.063222885131836</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>0.03587443946188351</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.02218189373374366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>14.6875</v>
       </c>
       <c r="F5">
-        <v>5.173279285430908</v>
+        <v>5.15089750289917</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.0173160173160174</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.01577245865580213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>14.1875</v>
       </c>
       <c r="F6">
-        <v>4.997169017791748</v>
+        <v>4.975547313690186</v>
       </c>
       <c r="G6">
         <v>3300</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.03404255319148941</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.02958685940804712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -583,7 +598,7 @@
         <v>14.625</v>
       </c>
       <c r="F7">
-        <v>5.298929691314697</v>
+        <v>5.276003837585449</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>0.03083700440528636</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.02794238481623767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -609,7 +627,7 @@
         <v>15.25</v>
       </c>
       <c r="F8">
-        <v>5.525379657745361</v>
+        <v>5.501473903656006</v>
       </c>
       <c r="G8">
         <v>3000</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.04273504273504281</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.0281701193469545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>15.875</v>
       </c>
       <c r="F9">
-        <v>5.751830101013184</v>
+        <v>5.726944446563721</v>
       </c>
       <c r="G9">
         <v>700</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.04098360655737698</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.02736812435363827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>16.875</v>
       </c>
       <c r="F10">
-        <v>6.114148616790771</v>
+        <v>6.087695598602295</v>
       </c>
       <c r="G10">
         <v>400</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.06299212598425208</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.02959412361254659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>17.125</v>
       </c>
       <c r="F11">
-        <v>6.211723804473877</v>
+        <v>6.184848308563232</v>
       </c>
       <c r="G11">
         <v>1500</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0.01481481481481484</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.02789631046510082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>17.4375</v>
       </c>
       <c r="F12">
-        <v>6.325075626373291</v>
+        <v>6.297711372375488</v>
       </c>
       <c r="G12">
         <v>6500</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>0.01824817518248167</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.02636374931465285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>17.3125</v>
       </c>
       <c r="F13">
-        <v>6.27973461151123</v>
+        <v>6.252564430236816</v>
       </c>
       <c r="G13">
         <v>3300</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>-0.007168458781361964</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.02665777799531608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>17.625</v>
       </c>
       <c r="F14">
-        <v>6.393088340759277</v>
+        <v>6.365429401397705</v>
       </c>
       <c r="G14">
         <v>1900</v>
@@ -774,13 +810,16 @@
         <v>0.01805054151624552</v>
       </c>
       <c r="I14">
-        <v>0.2702702702702702</v>
+        <v>0.02542822596897083</v>
       </c>
       <c r="J14">
         <v>0.2702702702702702</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.2702702702702702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>16.75</v>
       </c>
       <c r="F15">
-        <v>6.075699806213379</v>
+        <v>6.049412727355957</v>
       </c>
       <c r="G15">
         <v>700</v>
@@ -806,13 +845,16 @@
         <v>-0.04964539007092195</v>
       </c>
       <c r="I15">
-        <v>0.2017937219730941</v>
+        <v>0.03115178889864177</v>
       </c>
       <c r="J15">
         <v>0.2017937219730941</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.2017937219730941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>17.625</v>
       </c>
       <c r="F16">
-        <v>6.393088340759277</v>
+        <v>6.365429401397705</v>
       </c>
       <c r="G16">
         <v>1700</v>
@@ -838,13 +880,16 @@
         <v>0.05223880597014929</v>
       </c>
       <c r="I16">
-        <v>0.2207792207792207</v>
+        <v>0.03153779928510281</v>
       </c>
       <c r="J16">
         <v>0.2207792207792207</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.2207792207792207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -861,7 +906,7 @@
         <v>19.25</v>
       </c>
       <c r="F17">
-        <v>6.982522487640381</v>
+        <v>6.952311515808105</v>
       </c>
       <c r="G17">
         <v>26500</v>
@@ -870,13 +915,16 @@
         <v>0.09219858156028371</v>
       </c>
       <c r="I17">
-        <v>0.3106382978723403</v>
+        <v>0.03596711932969546</v>
       </c>
       <c r="J17">
         <v>0.3106382978723403</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.3106382978723403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>20.3125</v>
       </c>
       <c r="F18">
-        <v>7.367922306060791</v>
+        <v>7.33604097366333</v>
       </c>
       <c r="G18">
         <v>3900</v>
@@ -902,13 +950,16 @@
         <v>0.05519480519480524</v>
       </c>
       <c r="I18">
-        <v>0.4317180616740088</v>
+        <v>0.03568667011245306</v>
       </c>
       <c r="J18">
         <v>0.4317180616740088</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.4317180616740088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>18.1875</v>
       </c>
       <c r="F19">
-        <v>6.860568523406982</v>
+        <v>6.830886840820312</v>
       </c>
       <c r="G19">
         <v>6400</v>
@@ -934,13 +985,16 @@
         <v>-0.1046153846153847</v>
       </c>
       <c r="I19">
-        <v>0.2435897435897436</v>
+        <v>0.04666425082398101</v>
       </c>
       <c r="J19">
         <v>0.2435897435897436</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.2435897435897436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>20.5</v>
       </c>
       <c r="F20">
-        <v>7.732873439788818</v>
+        <v>7.699416160583496</v>
       </c>
       <c r="G20">
         <v>300</v>
@@ -966,13 +1020,16 @@
         <v>0.127147766323024</v>
       </c>
       <c r="I20">
-        <v>0.3442622950819672</v>
+        <v>0.0521766136878684</v>
       </c>
       <c r="J20">
         <v>0.3442622950819672</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.3442622950819672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>18.625</v>
       </c>
       <c r="F21">
-        <v>7.025600433349609</v>
+        <v>6.995203018188477</v>
       </c>
       <c r="G21">
         <v>13900</v>
@@ -998,13 +1055,16 @@
         <v>-0.09146341463414631</v>
       </c>
       <c r="I21">
-        <v>0.1732283464566928</v>
+        <v>0.05712426787159901</v>
       </c>
       <c r="J21">
         <v>0.1732283464566928</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.1732283464566928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>18.75</v>
       </c>
       <c r="F22">
-        <v>7.072751522064209</v>
+        <v>7.042150497436523</v>
       </c>
       <c r="G22">
         <v>100</v>
@@ -1030,13 +1090,16 @@
         <v>0.006711409395973256</v>
       </c>
       <c r="I22">
-        <v>0.1111111111111112</v>
+        <v>0.05564982543740447</v>
       </c>
       <c r="J22">
         <v>0.1111111111111112</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.1111111111111112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>18.125</v>
       </c>
       <c r="F23">
-        <v>6.853039264678955</v>
+        <v>6.823388576507568</v>
       </c>
       <c r="G23">
         <v>2400</v>
@@ -1062,13 +1125,16 @@
         <v>-0.03333333333333333</v>
       </c>
       <c r="I23">
-        <v>0.05839416058394153</v>
+        <v>0.05532635307882863</v>
       </c>
       <c r="J23">
         <v>0.05839416058394153</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.05839416058394153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>18.5625</v>
       </c>
       <c r="F24">
-        <v>7.01845645904541</v>
+        <v>6.988090038299561</v>
       </c>
       <c r="G24">
         <v>15500</v>
@@ -1094,13 +1160,16 @@
         <v>0.0241379310344827</v>
       </c>
       <c r="I24">
-        <v>0.06451612903225801</v>
+        <v>0.05403400090750474</v>
       </c>
       <c r="J24">
         <v>0.06451612903225801</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.06451612903225801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>20.25</v>
       </c>
       <c r="F25">
-        <v>7.656496524810791</v>
+        <v>7.623373508453369</v>
       </c>
       <c r="G25">
         <v>8400</v>
@@ -1126,13 +1195,16 @@
         <v>0.09090909090909083</v>
       </c>
       <c r="I25">
-        <v>0.1696750902527075</v>
+        <v>0.05513056772542887</v>
       </c>
       <c r="J25">
         <v>0.1696750902527075</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.1696750902527075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>21.75</v>
       </c>
       <c r="F26">
-        <v>8.223648071289062</v>
+        <v>8.188064575195312</v>
       </c>
       <c r="G26">
         <v>1900</v>
@@ -1158,13 +1230,16 @@
         <v>0.07407407407407418</v>
       </c>
       <c r="I26">
-        <v>0.2340425531914894</v>
+        <v>0.05511912517149045</v>
       </c>
       <c r="J26">
         <v>0.2340425531914894</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.2340425531914894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>23.25</v>
       </c>
       <c r="F27">
-        <v>8.790794372558594</v>
+        <v>8.752761840820312</v>
       </c>
       <c r="G27">
         <v>10100</v>
@@ -1190,13 +1265,16 @@
         <v>0.06896551724137923</v>
       </c>
       <c r="I27">
-        <v>0.3880597014925373</v>
+        <v>0.05482718130610674</v>
       </c>
       <c r="J27">
         <v>0.3880597014925373</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.3880597014925373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>23.75</v>
       </c>
       <c r="F28">
-        <v>8.979842185974121</v>
+        <v>8.940993309020996</v>
       </c>
       <c r="G28">
         <v>1200</v>
@@ -1222,13 +1300,16 @@
         <v>0.021505376344086</v>
       </c>
       <c r="I28">
-        <v>0.3475177304964538</v>
+        <v>0.05371967712199927</v>
       </c>
       <c r="J28">
         <v>0.3475177304964538</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.3475177304964538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>23.375</v>
       </c>
       <c r="F29">
-        <v>8.838057518005371</v>
+        <v>8.79981803894043</v>
       </c>
       <c r="G29">
         <v>77900</v>
@@ -1254,13 +1335,16 @@
         <v>-0.01578947368421058</v>
       </c>
       <c r="I29">
-        <v>0.2142857142857142</v>
+        <v>0.05318342471494435</v>
       </c>
       <c r="J29">
         <v>0.2142857142857142</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.2142857142857142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>22.5625</v>
       </c>
       <c r="F30">
-        <v>8.530851364135742</v>
+        <v>8.49394416809082</v>
       </c>
       <c r="G30">
         <v>1900</v>
@@ -1286,13 +1370,16 @@
         <v>-0.03475935828877008</v>
       </c>
       <c r="I30">
-        <v>0.1107692307692307</v>
+        <v>0.05323743663741026</v>
       </c>
       <c r="J30">
         <v>0.1107692307692307</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.1107692307692307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>18.1875</v>
       </c>
       <c r="F31">
-        <v>7.206823825836182</v>
+        <v>7.175645351409912</v>
       </c>
       <c r="G31">
         <v>12000</v>
@@ -1318,13 +1405,16 @@
         <v>-0.1939058171745153</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.06553088310723601</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>16.8125</v>
       </c>
       <c r="F32">
-        <v>6.661978721618652</v>
+        <v>6.633155822753906</v>
       </c>
       <c r="G32">
         <v>800</v>
@@ -1350,13 +1440,16 @@
         <v>-0.07560137457044669</v>
       </c>
       <c r="I32">
-        <v>-0.1798780487804879</v>
+        <v>0.06632759148996195</v>
       </c>
       <c r="J32">
         <v>-0.1798780487804879</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>-0.1798780487804879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>17.8125</v>
       </c>
       <c r="F33">
-        <v>7.058231353759766</v>
+        <v>7.027693271636963</v>
       </c>
       <c r="G33">
         <v>100</v>
@@ -1382,13 +1475,16 @@
         <v>0.05947955390334569</v>
       </c>
       <c r="I33">
-        <v>-0.0436241610738255</v>
+        <v>0.06584899266902505</v>
       </c>
       <c r="J33">
         <v>-0.0436241610738255</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>-0.0436241610738255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>19.3125</v>
       </c>
       <c r="F34">
-        <v>7.65260648727417</v>
+        <v>7.619495868682861</v>
       </c>
       <c r="G34">
         <v>2000</v>
@@ -1414,13 +1510,16 @@
         <v>0.08421052631578951</v>
       </c>
       <c r="I34">
-        <v>0.03000000000000003</v>
+        <v>0.06608352692177601</v>
       </c>
       <c r="J34">
         <v>0.03000000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.03000000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>19.3125</v>
       </c>
       <c r="F35">
-        <v>7.679500102996826</v>
+        <v>7.646274089813232</v>
       </c>
       <c r="G35">
         <v>9000</v>
@@ -1446,13 +1545,16 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.06551724137931036</v>
+        <v>0.06507967620578985</v>
       </c>
       <c r="J35">
         <v>0.06551724137931036</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.06551724137931036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>20.3125</v>
       </c>
       <c r="F36">
-        <v>8.077140808105469</v>
+        <v>8.042195320129395</v>
       </c>
       <c r="G36">
         <v>2500</v>
@@ -1478,13 +1580,16 @@
         <v>0.05177993527508096</v>
       </c>
       <c r="I36">
-        <v>0.09427609427609429</v>
+        <v>0.06444440267850628</v>
       </c>
       <c r="J36">
         <v>0.09427609427609429</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.09427609427609429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>20</v>
       </c>
       <c r="F37">
-        <v>7.952877998352051</v>
+        <v>7.918468952178955</v>
       </c>
       <c r="G37">
         <v>800</v>
@@ -1510,13 +1615,16 @@
         <v>-0.01538461538461533</v>
       </c>
       <c r="I37">
-        <v>-0.01234567901234573</v>
+        <v>0.06367539159412172</v>
       </c>
       <c r="J37">
         <v>-0.01234567901234573</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>-0.01234567901234573</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>20</v>
       </c>
       <c r="F38">
-        <v>7.952877998352051</v>
+        <v>7.918468952178955</v>
       </c>
       <c r="G38">
         <v>600</v>
@@ -1542,13 +1650,16 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>-0.08045977011494254</v>
+        <v>0.06279398963942874</v>
       </c>
       <c r="J38">
         <v>-0.08045977011494254</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.08045977011494254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>20.6875</v>
       </c>
       <c r="F39">
-        <v>8.226260185241699</v>
+        <v>8.190670013427734</v>
       </c>
       <c r="G39">
         <v>900</v>
@@ -1574,13 +1685,16 @@
         <v>0.03437500000000004</v>
       </c>
       <c r="I39">
-        <v>-0.1102150537634409</v>
+        <v>0.06202293925128789</v>
       </c>
       <c r="J39">
         <v>-0.1102150537634409</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>-0.1102150537634409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>20.125</v>
       </c>
       <c r="F40">
-        <v>8.002583503723145</v>
+        <v>7.967963218688965</v>
       </c>
       <c r="G40">
         <v>800</v>
@@ -1606,13 +1720,16 @@
         <v>-0.02719033232628398</v>
       </c>
       <c r="I40">
-        <v>-0.1526315789473685</v>
+        <v>0.06152202635748571</v>
       </c>
       <c r="J40">
         <v>-0.1526315789473685</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>-0.1526315789473685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>22.5</v>
       </c>
       <c r="F41">
-        <v>8.946988105773926</v>
+        <v>8.90827751159668</v>
       </c>
       <c r="G41">
         <v>4700</v>
@@ -1638,13 +1755,16 @@
         <v>0.1180124223602483</v>
       </c>
       <c r="I41">
-        <v>-0.03743315508021394</v>
+        <v>0.06304683042260896</v>
       </c>
       <c r="J41">
         <v>-0.03743315508021394</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>-0.03743315508021394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>23</v>
       </c>
       <c r="F42">
-        <v>9.145810127258301</v>
+        <v>9.106242179870605</v>
       </c>
       <c r="G42">
         <v>2600</v>
@@ -1670,13 +1790,16 @@
         <v>0.02222222222222214</v>
       </c>
       <c r="I42">
-        <v>0.01939058171745156</v>
+        <v>0.06224535318697532</v>
       </c>
       <c r="J42">
         <v>0.01939058171745156</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.01939058171745156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>22.125</v>
       </c>
       <c r="F43">
-        <v>9.061480522155762</v>
+        <v>9.022276878356934</v>
       </c>
       <c r="G43">
         <v>73000</v>
@@ -1702,13 +1825,16 @@
         <v>-0.03804347826086951</v>
       </c>
       <c r="I43">
-        <v>0.2164948453608246</v>
+        <v>0.06201115821238629</v>
       </c>
       <c r="J43">
         <v>0.2164948453608246</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.2164948453608246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>22.375</v>
       </c>
       <c r="F44">
-        <v>9.16386890411377</v>
+        <v>9.124221801757812</v>
       </c>
       <c r="G44">
         <v>800</v>
@@ -1734,13 +1860,16 @@
         <v>0.01129943502824848</v>
       </c>
       <c r="I44">
-        <v>0.3308550185873607</v>
+        <v>0.0612510975576785</v>
       </c>
       <c r="J44">
         <v>0.3308550185873607</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.3308550185873607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>24.125</v>
       </c>
       <c r="F45">
-        <v>9.880594253540039</v>
+        <v>9.837845802307129</v>
       </c>
       <c r="G45">
         <v>1700</v>
@@ -1766,13 +1895,16 @@
         <v>0.07821229050279332</v>
       </c>
       <c r="I45">
-        <v>0.3543859649122807</v>
+        <v>0.06132104021726768</v>
       </c>
       <c r="J45">
         <v>0.3543859649122807</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.3543859649122807</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>26.125</v>
       </c>
       <c r="F46">
-        <v>10.6997127532959</v>
+        <v>10.65341949462891</v>
       </c>
       <c r="G46">
         <v>9600</v>
@@ -1798,13 +1930,16 @@
         <v>0.08290155440414515</v>
       </c>
       <c r="I46">
-        <v>0.3527508090614886</v>
+        <v>0.06146629473704156</v>
       </c>
       <c r="J46">
         <v>0.3527508090614886</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.3527508090614886</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>29.5</v>
       </c>
       <c r="F47">
-        <v>12.51891803741455</v>
+        <v>12.46475601196289</v>
       </c>
       <c r="G47">
         <v>200</v>
@@ -1830,13 +1965,16 @@
         <v>0.1291866028708133</v>
       </c>
       <c r="I47">
-        <v>0.5275080906148868</v>
+        <v>0.06304755144370197</v>
       </c>
       <c r="J47">
         <v>0.5275080906148868</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.5275080906148868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>28.5625</v>
       </c>
       <c r="F48">
-        <v>12.12107086181641</v>
+        <v>12.06863021850586</v>
       </c>
       <c r="G48">
         <v>7000</v>
@@ -1862,13 +2000,16 @@
         <v>-0.03177966101694918</v>
       </c>
       <c r="I48">
-        <v>0.4061538461538461</v>
+        <v>0.06278917172884822</v>
       </c>
       <c r="J48">
         <v>0.4061538461538461</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.4061538461538461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>34.75</v>
       </c>
       <c r="F49">
-        <v>14.74686241149902</v>
+        <v>14.68305492401123</v>
       </c>
       <c r="G49">
         <v>11000</v>
@@ -1894,13 +2035,16 @@
         <v>0.2166301969365427</v>
       </c>
       <c r="I49">
-        <v>0.7375</v>
+        <v>0.06854185134096726</v>
       </c>
       <c r="J49">
         <v>0.7375</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.7375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>34.1875</v>
       </c>
       <c r="F50">
-        <v>14.50815200805664</v>
+        <v>14.44538021087646</v>
       </c>
       <c r="G50">
         <v>7200</v>
@@ -1926,13 +2070,16 @@
         <v>-0.01618705035971224</v>
       </c>
       <c r="I50">
-        <v>0.7093750000000001</v>
+        <v>0.0680326630609107</v>
       </c>
       <c r="J50">
         <v>0.7093750000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.7093750000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>33.125</v>
       </c>
       <c r="F51">
-        <v>14.05725860595703</v>
+        <v>13.99643802642822</v>
       </c>
       <c r="G51">
         <v>1500</v>
@@ -1958,13 +2105,16 @@
         <v>-0.03107861060329065</v>
       </c>
       <c r="I51">
-        <v>0.6012084592145015</v>
+        <v>0.0677336626762141</v>
       </c>
       <c r="J51">
         <v>0.6012084592145015</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0.6012084592145015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>32.4375</v>
       </c>
       <c r="F52">
-        <v>13.76550579071045</v>
+        <v>13.70594310760498</v>
       </c>
       <c r="G52">
         <v>2100</v>
@@ -1990,13 +2140,16 @@
         <v>-0.02075471698113207</v>
       </c>
       <c r="I52">
-        <v>0.6118012422360248</v>
+        <v>0.06728816487179491</v>
       </c>
       <c r="J52">
         <v>0.6118012422360248</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.6118012422360248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>31.125</v>
       </c>
       <c r="F53">
-        <v>13.20851612091064</v>
+        <v>13.15137195587158</v>
       </c>
       <c r="G53">
         <v>2200</v>
@@ -2022,13 +2175,16 @@
         <v>-0.04046242774566478</v>
       </c>
       <c r="I53">
-        <v>0.3833333333333333</v>
+        <v>0.06713618705042448</v>
       </c>
       <c r="J53">
         <v>0.3833333333333333</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.3833333333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>29.875</v>
       </c>
       <c r="F54">
-        <v>12.67805671691895</v>
+        <v>12.62320327758789</v>
       </c>
       <c r="G54">
         <v>1400</v>
@@ -2054,13 +2210,16 @@
         <v>-0.04016064257028118</v>
       </c>
       <c r="I54">
-        <v>0.298913043478261</v>
+        <v>0.06696503764322816</v>
       </c>
       <c r="J54">
         <v>0.298913043478261</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.298913043478261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>24.625</v>
       </c>
       <c r="F55">
-        <v>12.76882648468018</v>
+        <v>12.71358013153076</v>
       </c>
       <c r="G55">
         <v>2500</v>
@@ -2086,13 +2245,16 @@
         <v>-0.1757322175732218</v>
       </c>
       <c r="I55">
-        <v>0.1129943502824859</v>
+        <v>0.07140920947709138</v>
       </c>
       <c r="J55">
         <v>0.1129943502824859</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.1129943502824859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>21.875</v>
       </c>
       <c r="F56">
-        <v>11.34286499023438</v>
+        <v>11.29378890991211</v>
       </c>
       <c r="G56">
         <v>3200</v>
@@ -2118,13 +2280,16 @@
         <v>-0.1116751269035533</v>
       </c>
       <c r="I56">
-        <v>-0.02234636871508378</v>
+        <v>0.07275164362668446</v>
       </c>
       <c r="J56">
         <v>-0.02234636871508378</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.02234636871508378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>20.8125</v>
       </c>
       <c r="F57">
-        <v>10.79192543029785</v>
+        <v>10.7452335357666</v>
       </c>
       <c r="G57">
         <v>7600</v>
@@ -2150,13 +2315,16 @@
         <v>-0.0485714285714286</v>
       </c>
       <c r="I57">
-        <v>-0.1373056994818653</v>
+        <v>0.07252247507593503</v>
       </c>
       <c r="J57">
         <v>-0.1373056994818653</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.1373056994818653</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>17.1875</v>
       </c>
       <c r="F58">
-        <v>8.912250518798828</v>
+        <v>8.873691558837891</v>
       </c>
       <c r="G58">
         <v>2400</v>
@@ -2182,13 +2350,16 @@
         <v>-0.1741741741741741</v>
       </c>
       <c r="I58">
-        <v>-0.3421052631578947</v>
+        <v>0.07595819158019751</v>
       </c>
       <c r="J58">
         <v>-0.3421052631578947</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.3421052631578947</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>17.875</v>
       </c>
       <c r="F59">
-        <v>9.692150115966797</v>
+        <v>9.650218963623047</v>
       </c>
       <c r="G59">
         <v>18800</v>
@@ -2214,13 +2385,16 @@
         <v>0.04000000000000004</v>
       </c>
       <c r="I59">
-        <v>-0.3940677966101694</v>
+        <v>0.07540590281113671</v>
       </c>
       <c r="J59">
         <v>-0.3940677966101694</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.3940677966101694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>19.54000091552734</v>
       </c>
       <c r="F60">
-        <v>10.59494590759277</v>
+        <v>10.54910564422607</v>
       </c>
       <c r="G60">
         <v>59300</v>
@@ -2246,13 +2420,16 @@
         <v>0.09314690436516604</v>
       </c>
       <c r="I60">
-        <v>-0.3158861823885394</v>
+        <v>0.07558671696645856</v>
       </c>
       <c r="J60">
         <v>-0.3158861823885394</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.3158861823885394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>16.95000076293945</v>
       </c>
       <c r="F61">
-        <v>9.190601348876953</v>
+        <v>9.150835990905762</v>
       </c>
       <c r="G61">
         <v>79000</v>
@@ -2278,13 +2455,16 @@
         <v>-0.1325486198176051</v>
       </c>
       <c r="I61">
-        <v>-0.512230193872246</v>
+        <v>0.07715825085862775</v>
       </c>
       <c r="J61">
         <v>-0.512230193872246</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.512230193872246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>13.35000038146973</v>
       </c>
       <c r="F62">
-        <v>7.238615989685059</v>
+        <v>7.207295894622803</v>
       </c>
       <c r="G62">
         <v>27300</v>
@@ -2310,13 +2490,16 @@
         <v>-0.2123893934766654</v>
       </c>
       <c r="I62">
-        <v>-0.6095063873793133</v>
+        <v>0.0815488113200474</v>
       </c>
       <c r="J62">
         <v>-0.6095063873793133</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.6095063873793133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>15.14999961853027</v>
       </c>
       <c r="F63">
-        <v>8.214605331420898</v>
+        <v>8.179065704345703</v>
       </c>
       <c r="G63">
         <v>300</v>
@@ -2342,13 +2525,16 @@
         <v>0.1348313996723933</v>
       </c>
       <c r="I63">
-        <v>-0.5426415209500295</v>
+        <v>0.08261600349374711</v>
       </c>
       <c r="J63">
         <v>-0.5426415209500295</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.5426415209500295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>14.39999961853027</v>
       </c>
       <c r="F64">
-        <v>7.807942390441895</v>
+        <v>7.774162769317627</v>
       </c>
       <c r="G64">
         <v>4600</v>
@@ -2374,13 +2560,16 @@
         <v>-0.04950495174156044</v>
       </c>
       <c r="I64">
-        <v>-0.5560693759219955</v>
+        <v>0.08222690028330591</v>
       </c>
       <c r="J64">
         <v>-0.5560693759219955</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.5560693759219955</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>13.55000019073486</v>
       </c>
       <c r="F65">
-        <v>7.347060680389404</v>
+        <v>7.315271854400635</v>
       </c>
       <c r="G65">
         <v>4500</v>
@@ -2406,13 +2595,16 @@
         <v>-0.05902773960504903</v>
       </c>
       <c r="I65">
-        <v>-0.5646586284101249</v>
+        <v>0.08194707429490238</v>
       </c>
       <c r="J65">
         <v>-0.5646586284101249</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.5646586284101249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>13.89999961853027</v>
       </c>
       <c r="F66">
-        <v>7.536833763122559</v>
+        <v>7.504225254058838</v>
       </c>
       <c r="G66">
         <v>300</v>
@@ -2438,13 +2630,16 @@
         <v>0.02583021570986621</v>
       </c>
       <c r="I66">
-        <v>-0.5347280462416645</v>
+        <v>0.08134405282997539</v>
       </c>
       <c r="J66">
         <v>-0.5347280462416645</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.5347280462416645</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>12.77999973297119</v>
       </c>
       <c r="F67">
-        <v>6.954005718231201</v>
+        <v>6.923916816711426</v>
       </c>
       <c r="G67">
         <v>12300</v>
@@ -2470,13 +2665,16 @@
         <v>-0.08057553354648983</v>
       </c>
       <c r="I67">
-        <v>-0.4810152392702054</v>
+        <v>0.08137515306626178</v>
       </c>
       <c r="J67">
         <v>-0.4810152392702054</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.4810152392702054</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>10.94999980926514</v>
       </c>
       <c r="F68">
-        <v>5.958240985870361</v>
+        <v>5.932462692260742</v>
       </c>
       <c r="G68">
         <v>11300</v>
@@ -2502,13 +2700,16 @@
         <v>-0.1431924852850214</v>
       </c>
       <c r="I68">
-        <v>-0.4994285801478795</v>
+        <v>0.08270340144450648</v>
       </c>
       <c r="J68">
         <v>-0.4994285801478795</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.4994285801478795</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>11.46000003814697</v>
       </c>
       <c r="F69">
-        <v>6.235748767852783</v>
+        <v>6.208770275115967</v>
       </c>
       <c r="G69">
         <v>1000</v>
@@ -2534,13 +2735,16 @@
         <v>0.04657536417948682</v>
       </c>
       <c r="I69">
-        <v>-0.4493693675364818</v>
+        <v>0.08227239760651148</v>
       </c>
       <c r="J69">
         <v>-0.4493693675364818</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.4493693675364818</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>13.3100004196167</v>
       </c>
       <c r="F70">
-        <v>7.242392539978027</v>
+        <v>7.211060523986816</v>
       </c>
       <c r="G70">
         <v>800</v>
@@ -2566,13 +2770,16 @@
         <v>0.1614310973221309</v>
       </c>
       <c r="I70">
-        <v>-0.2255999755859375</v>
+        <v>0.08395338786221193</v>
       </c>
       <c r="J70">
         <v>-0.2255999755859375</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.2255999755859375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>13.71000003814697</v>
       </c>
       <c r="F71">
-        <v>7.460045337677002</v>
+        <v>7.427769660949707</v>
       </c>
       <c r="G71">
         <v>3400</v>
@@ -2598,13 +2805,16 @@
         <v>0.03005256242822818</v>
       </c>
       <c r="I71">
-        <v>-0.2330069908728967</v>
+        <v>0.08339763188902288</v>
       </c>
       <c r="J71">
         <v>-0.2330069908728967</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.2330069908728967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>12.64000034332275</v>
       </c>
       <c r="F72">
-        <v>6.877825260162354</v>
+        <v>6.848067283630371</v>
       </c>
       <c r="G72">
         <v>600</v>
@@ -2630,13 +2840,16 @@
         <v>-0.07804519998884252</v>
       </c>
       <c r="I72">
-        <v>-0.3531218141715411</v>
+        <v>0.08336066888893168</v>
       </c>
       <c r="J72">
         <v>-0.3531218141715411</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.3531218141715411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>12.84000015258789</v>
       </c>
       <c r="F73">
-        <v>6.986651420593262</v>
+        <v>6.956423759460449</v>
       </c>
       <c r="G73">
         <v>6800</v>
@@ -2662,13 +2875,16 @@
         <v>0.01582276929057125</v>
       </c>
       <c r="I73">
-        <v>-0.2424779012009206</v>
+        <v>0.08277892231511041</v>
       </c>
       <c r="J73">
         <v>-0.2424779012009206</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.2424779012009206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>13.27000045776367</v>
       </c>
       <c r="F74">
-        <v>7.220627784729004</v>
+        <v>7.189387798309326</v>
       </c>
       <c r="G74">
         <v>100</v>
@@ -2694,13 +2910,16 @@
         <v>0.03348911994281512</v>
       </c>
       <c r="I74">
-        <v>-0.005992503477160738</v>
+        <v>0.08227565580719838</v>
       </c>
       <c r="J74">
         <v>-0.005992503477160738</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>-0.005992503477160738</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>12.07999992370605</v>
       </c>
       <c r="F75">
-        <v>6.573111057281494</v>
+        <v>6.544673919677734</v>
       </c>
       <c r="G75">
         <v>22200</v>
@@ -2726,13 +2945,16 @@
         <v>-0.08967599796587811</v>
       </c>
       <c r="I75">
-        <v>-0.2026402489851709</v>
+        <v>0.08241621382257899</v>
       </c>
       <c r="J75">
         <v>-0.2026402489851709</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.2026402489851709</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>12.09000015258789</v>
       </c>
       <c r="F76">
-        <v>6.578552722930908</v>
+        <v>6.550090789794922</v>
       </c>
       <c r="G76">
         <v>6600</v>
@@ -2758,13 +2980,16 @@
         <v>0.0008278335219367161</v>
       </c>
       <c r="I76">
-        <v>-0.1604166338289217</v>
+        <v>0.08184981456728004</v>
       </c>
       <c r="J76">
         <v>-0.1604166338289217</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>-0.1604166338289217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>11.72999954223633</v>
       </c>
       <c r="F77">
-        <v>6.382664203643799</v>
+        <v>6.355050086975098</v>
       </c>
       <c r="G77">
         <v>5300</v>
@@ -2790,13 +3015,16 @@
         <v>-0.02977672504615347</v>
       </c>
       <c r="I77">
-        <v>-0.1343173891424004</v>
+        <v>0.081375233432548</v>
       </c>
       <c r="J77">
         <v>-0.1343173891424004</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.1343173891424004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>9.859999656677246</v>
       </c>
       <c r="F78">
-        <v>5.365139961242676</v>
+        <v>5.341926574707031</v>
       </c>
       <c r="G78">
         <v>94000</v>
@@ -2822,13 +3050,16 @@
         <v>-0.1594202863201959</v>
       </c>
       <c r="I78">
-        <v>-0.2906474872464925</v>
+        <v>0.08290192373944845</v>
       </c>
       <c r="J78">
         <v>-0.2906474872464925</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.2906474872464925</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>9.939999580383301</v>
       </c>
       <c r="F79">
-        <v>5.408668518066406</v>
+        <v>5.385267734527588</v>
       </c>
       <c r="G79">
         <v>23800</v>
@@ -2854,13 +3085,16 @@
         <v>0.008113582808481956</v>
       </c>
       <c r="I79">
-        <v>-0.2222222388049789</v>
+        <v>0.08236125746789001</v>
       </c>
       <c r="J79">
         <v>-0.2222222388049789</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.2222222388049789</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>8.220000267028809</v>
       </c>
       <c r="F80">
-        <v>4.472762107849121</v>
+        <v>4.453411102294922</v>
       </c>
       <c r="G80">
         <v>1100</v>
@@ -2886,13 +3120,16 @@
         <v>-0.1730381676020318</v>
       </c>
       <c r="I80">
-        <v>-0.2493150310309951</v>
+        <v>0.08411455426179124</v>
       </c>
       <c r="J80">
         <v>-0.2493150310309951</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.2493150310309951</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>9.430000305175781</v>
       </c>
       <c r="F81">
-        <v>5.131162643432617</v>
+        <v>5.108961582183838</v>
       </c>
       <c r="G81">
         <v>28300</v>
@@ -2918,13 +3155,16 @@
         <v>0.1472019463308774</v>
       </c>
       <c r="I81">
-        <v>-0.1771378469645654</v>
+        <v>0.08526699873368163</v>
       </c>
       <c r="J81">
         <v>-0.1771378469645654</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.1771378469645654</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="F82">
-        <v>6.088832855224609</v>
+        <v>6.062491416931152</v>
       </c>
       <c r="G82">
         <v>9100</v>
@@ -2950,13 +3190,16 @@
         <v>0.1866383052226965</v>
       </c>
       <c r="I82">
-        <v>-0.159278795822491</v>
+        <v>0.08728918288303766</v>
       </c>
       <c r="J82">
         <v>-0.159278795822491</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.159278795822491</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>9.550000190734863</v>
       </c>
       <c r="F83">
-        <v>5.260898590087891</v>
+        <v>5.238137245178223</v>
       </c>
       <c r="G83">
         <v>5200</v>
@@ -2982,13 +3225,16 @@
         <v>-0.146559379012261</v>
       </c>
       <c r="I83">
-        <v>-0.3034281426577129</v>
+        <v>0.08828115952813077</v>
       </c>
       <c r="J83">
         <v>-0.3034281426577129</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.3034281426577129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>9.479999542236328</v>
       </c>
       <c r="F84">
-        <v>5.222336292266846</v>
+        <v>5.199741840362549</v>
       </c>
       <c r="G84">
         <v>400</v>
@@ -3014,13 +3260,16 @@
         <v>-0.007329910691148189</v>
       </c>
       <c r="I84">
-        <v>-0.2500000565866866</v>
+        <v>0.08773761237338663</v>
       </c>
       <c r="J84">
         <v>-0.2500000565866866</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.2500000565866866</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>9.449999809265137</v>
       </c>
       <c r="F85">
-        <v>5.205810546875</v>
+        <v>5.18328857421875</v>
       </c>
       <c r="G85">
         <v>14500</v>
@@ -3046,13 +3295,16 @@
         <v>-0.003164528947236067</v>
       </c>
       <c r="I85">
-        <v>-0.2640187151897737</v>
+        <v>0.08720139107932401</v>
       </c>
       <c r="J85">
         <v>-0.2640187151897737</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.2640187151897737</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>9.220000267028809</v>
       </c>
       <c r="F86">
-        <v>5.079108715057373</v>
+        <v>5.057135105133057</v>
       </c>
       <c r="G86">
         <v>800</v>
@@ -3078,13 +3330,16 @@
         <v>-0.02433857638926384</v>
       </c>
       <c r="I86">
-        <v>-0.305199702413378</v>
+        <v>0.08671262299590424</v>
       </c>
       <c r="J86">
         <v>-0.305199702413378</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.305199702413378</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>11.11999988555908</v>
       </c>
       <c r="F87">
-        <v>6.125778198242188</v>
+        <v>6.099275588989258</v>
       </c>
       <c r="G87">
         <v>3500</v>
@@ -3110,13 +3365,16 @@
         <v>0.2060737053690518</v>
       </c>
       <c r="I87">
-        <v>-0.07947020233527058</v>
+        <v>0.08907460972348637</v>
       </c>
       <c r="J87">
         <v>-0.07947020233527058</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.07947020233527058</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>11.72999954223633</v>
       </c>
       <c r="F88">
-        <v>6.461814880371094</v>
+        <v>6.433858871459961</v>
       </c>
       <c r="G88">
         <v>8900</v>
@@ -3142,13 +3400,16 @@
         <v>0.05485608479811388</v>
       </c>
       <c r="I88">
-        <v>-0.02977672504615347</v>
+        <v>0.08873662298341627</v>
       </c>
       <c r="J88">
         <v>-0.02977672504615347</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.02977672504615347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>11.61999988555908</v>
       </c>
       <c r="F89">
-        <v>6.401218891143799</v>
+        <v>6.373523712158203</v>
       </c>
       <c r="G89">
         <v>1400</v>
@@ -3174,13 +3435,16 @@
         <v>-0.009377635206307522</v>
       </c>
       <c r="I89">
-        <v>-0.009377635206307522</v>
+        <v>0.08822764584486895</v>
       </c>
       <c r="J89">
         <v>-0.009377635206307522</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.009377635206307522</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="F90">
-        <v>6.715220928192139</v>
+        <v>6.686165332794189</v>
       </c>
       <c r="G90">
         <v>14100</v>
@@ -3206,13 +3470,16 @@
         <v>0.04905333050240346</v>
       </c>
       <c r="I90">
-        <v>0.2363083169204947</v>
+        <v>0.08786317554487492</v>
       </c>
       <c r="J90">
         <v>0.2363083169204947</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.2363083169204947</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>12.5</v>
       </c>
       <c r="F91">
-        <v>6.885995864868164</v>
+        <v>6.856201171875</v>
       </c>
       <c r="G91">
         <v>7300</v>
@@ -3238,13 +3505,16 @@
         <v>0.0254307161844014</v>
       </c>
       <c r="I91">
-        <v>0.2575453247170039</v>
+        <v>0.08739659503950899</v>
       </c>
       <c r="J91">
         <v>0.2575453247170039</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.2575453247170039</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>12.92000007629395</v>
       </c>
       <c r="F92">
-        <v>7.117362976074219</v>
+        <v>7.086567878723145</v>
       </c>
       <c r="G92">
         <v>5200</v>
@@ -3270,13 +3540,16 @@
         <v>0.03360000610351555</v>
       </c>
       <c r="I92">
-        <v>0.5717761139397131</v>
+        <v>0.08696535105277574</v>
       </c>
       <c r="J92">
         <v>0.5717761139397131</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.5717761139397131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="F93">
-        <v>7.745366096496582</v>
+        <v>7.711853504180908</v>
       </c>
       <c r="G93">
         <v>17100</v>
@@ -3302,13 +3575,16 @@
         <v>0.08823532016957691</v>
       </c>
       <c r="I93">
-        <v>0.4909862104563965</v>
+        <v>0.08694106779617498</v>
       </c>
       <c r="J93">
         <v>0.4909862104563965</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.4909862104563965</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>14.5</v>
       </c>
       <c r="F94">
-        <v>7.987752914428711</v>
+        <v>7.953191757202148</v>
       </c>
       <c r="G94">
         <v>9800</v>
@@ -3334,13 +3610,16 @@
         <v>0.03129442156839546</v>
       </c>
       <c r="I94">
-        <v>0.295799869860524</v>
+        <v>0.086509035871211</v>
       </c>
       <c r="J94">
         <v>0.295799869860524</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.295799869860524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>15.60000038146973</v>
       </c>
       <c r="F95">
-        <v>8.805594444274902</v>
+        <v>8.767497062683105</v>
       </c>
       <c r="G95">
         <v>14400</v>
@@ -3366,13 +3645,16 @@
         <v>0.0758620952737743</v>
       </c>
       <c r="I95">
-        <v>0.6335078607228093</v>
+        <v>0.08635747952348358</v>
       </c>
       <c r="J95">
         <v>0.6335078607228093</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.6335078607228093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>16.23999977111816</v>
       </c>
       <c r="F96">
-        <v>9.166847229003906</v>
+        <v>9.127188682556152</v>
       </c>
       <c r="G96">
         <v>54100</v>
@@ -3398,13 +3680,16 @@
         <v>0.0410256008973342</v>
       </c>
       <c r="I96">
-        <v>0.7130802273527488</v>
+        <v>0.08597219475900426</v>
       </c>
       <c r="J96">
         <v>0.7130802273527488</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.7130802273527488</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>17.03000068664551</v>
       </c>
       <c r="F97">
-        <v>9.612772941589355</v>
+        <v>9.571184158325195</v>
       </c>
       <c r="G97">
         <v>99100</v>
@@ -3430,13 +3715,16 @@
         <v>0.04864537725747464</v>
       </c>
       <c r="I97">
-        <v>0.8021165111504713</v>
+        <v>0.08562869644607564</v>
       </c>
       <c r="J97">
         <v>0.8021165111504713</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.8021165111504713</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>16.63999938964844</v>
       </c>
       <c r="F98">
-        <v>9.392630577087402</v>
+        <v>9.351997375488281</v>
       </c>
       <c r="G98">
         <v>139800</v>
@@ -3462,13 +3750,16 @@
         <v>-0.02290083859496839</v>
       </c>
       <c r="I98">
-        <v>0.8047721158050205</v>
+        <v>0.08522737730445083</v>
       </c>
       <c r="J98">
         <v>0.8047721158050205</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.8047721158050205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>16.57999992370605</v>
       </c>
       <c r="F99">
-        <v>9.358766555786133</v>
+        <v>9.318273544311523</v>
       </c>
       <c r="G99">
         <v>27100</v>
@@ -3494,13 +3785,16 @@
         <v>-0.003605737268218112</v>
       </c>
       <c r="I99">
-        <v>0.4910072027282633</v>
+        <v>0.08478742610432363</v>
       </c>
       <c r="J99">
         <v>0.4910072027282633</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.4910072027282633</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>16.93000030517578</v>
       </c>
       <c r="F100">
-        <v>9.556329727172852</v>
+        <v>9.514980316162109</v>
       </c>
       <c r="G100">
         <v>7000</v>
@@ -3526,13 +3820,16 @@
         <v>0.02110979391316503</v>
       </c>
       <c r="I100">
-        <v>0.4433078402275941</v>
+        <v>0.08436405477623979</v>
       </c>
       <c r="J100">
         <v>0.4433078402275941</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.4433078402275941</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>17.57999992370605</v>
       </c>
       <c r="F101">
-        <v>9.923227310180664</v>
+        <v>9.880292892456055</v>
       </c>
       <c r="G101">
         <v>13000</v>
@@ -3558,13 +3855,16 @@
         <v>0.03839336130026871</v>
       </c>
       <c r="I101">
-        <v>0.5129087863033326</v>
+        <v>0.08399712334842463</v>
       </c>
       <c r="J101">
         <v>0.5129087863033326</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.5129087863033326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>16.47999954223633</v>
       </c>
       <c r="F102">
-        <v>9.302318572998047</v>
+        <v>9.262073516845703</v>
       </c>
       <c r="G102">
         <v>97500</v>
@@ -3590,13 +3890,16 @@
         <v>-0.06257112549735633</v>
       </c>
       <c r="I102">
-        <v>0.3519278186651202</v>
+        <v>0.08385227358729394</v>
       </c>
       <c r="J102">
         <v>0.3519278186651202</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.3519278186651202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>16.89999961853027</v>
       </c>
       <c r="F103">
-        <v>9.539393424987793</v>
+        <v>9.49812126159668</v>
       </c>
       <c r="G103">
         <v>7600</v>
@@ -3622,13 +3925,16 @@
         <v>0.0254854422305979</v>
       </c>
       <c r="I103">
-        <v>0.3519999694824218</v>
+        <v>0.08345621016084387</v>
       </c>
       <c r="J103">
         <v>0.3519999694824218</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.3519999694824218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>18.39999961853027</v>
       </c>
       <c r="F104">
-        <v>10.38608551025391</v>
+        <v>10.34114933013916</v>
       </c>
       <c r="G104">
         <v>7300</v>
@@ -3654,13 +3960,16 @@
         <v>0.08875739845315156</v>
       </c>
       <c r="I104">
-        <v>0.4241485688758793</v>
+        <v>0.0834505309526906</v>
       </c>
       <c r="J104">
         <v>0.4241485688758793</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.4241485688758793</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>18.56999969482422</v>
       </c>
       <c r="F105">
-        <v>10.4820442199707</v>
+        <v>10.436692237854</v>
       </c>
       <c r="G105">
         <v>6000</v>
@@ -3686,13 +3995,16 @@
         <v>0.009239134772738966</v>
       </c>
       <c r="I105">
-        <v>0.3207680754344153</v>
+        <v>0.08304096264147384</v>
       </c>
       <c r="J105">
         <v>0.3207680754344153</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.3207680754344153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>21.14999961853027</v>
       </c>
       <c r="F106">
-        <v>11.9383544921875</v>
+        <v>11.88670063018799</v>
       </c>
       <c r="G106">
         <v>47400</v>
@@ -3718,13 +4030,16 @@
         <v>0.1389337623104616</v>
       </c>
       <c r="I106">
-        <v>0.4586206633469154</v>
+        <v>0.08365387381377427</v>
       </c>
       <c r="J106">
         <v>0.4586206633469154</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.4586206633469154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>20.95999908447266</v>
       </c>
       <c r="F107">
-        <v>11.91544246673584</v>
+        <v>11.86389064788818</v>
       </c>
       <c r="G107">
         <v>8900</v>
@@ -3750,13 +4065,16 @@
         <v>-0.008983476949623759</v>
       </c>
       <c r="I107">
-        <v>0.3435896520470436</v>
+        <v>0.08326642643540381</v>
       </c>
       <c r="J107">
         <v>0.3435896520470436</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.3435896520470436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>19.90999984741211</v>
       </c>
       <c r="F108">
-        <v>11.31853485107422</v>
+        <v>11.26956653594971</v>
       </c>
       <c r="G108">
         <v>40200</v>
@@ -3782,13 +4100,16 @@
         <v>-0.0500953856356986</v>
       </c>
       <c r="I108">
-        <v>0.22598522955775</v>
+        <v>0.08305711925616777</v>
       </c>
       <c r="J108">
         <v>0.22598522955775</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.22598522955775</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>21.04999923706055</v>
       </c>
       <c r="F109">
-        <v>11.9666051864624</v>
+        <v>11.91483211517334</v>
       </c>
       <c r="G109">
         <v>43800</v>
@@ -3814,13 +4135,16 @@
         <v>0.05725762925089195</v>
       </c>
       <c r="I109">
-        <v>0.236053927676434</v>
+        <v>0.08280770966027767</v>
       </c>
       <c r="J109">
         <v>0.236053927676434</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.236053927676434</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>20.35000038146973</v>
       </c>
       <c r="F110">
-        <v>11.56866550445557</v>
+        <v>11.5186128616333</v>
       </c>
       <c r="G110">
         <v>26900</v>
@@ -3846,13 +4170,16 @@
         <v>-0.03325410360863124</v>
       </c>
       <c r="I110">
-        <v>0.2229567985518821</v>
+        <v>0.08251244384094969</v>
       </c>
       <c r="J110">
         <v>0.2229567985518821</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.2229567985518821</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>20.06999969482422</v>
       </c>
       <c r="F111">
-        <v>11.40948963165283</v>
+        <v>11.36012554168701</v>
       </c>
       <c r="G111">
         <v>11500</v>
@@ -3878,13 +4205,16 @@
         <v>-0.01375924724308464</v>
       </c>
       <c r="I111">
-        <v>0.2104945589371305</v>
+        <v>0.08215357795296725</v>
       </c>
       <c r="J111">
         <v>0.2104945589371305</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.2104945589371305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>20.40999984741211</v>
       </c>
       <c r="F112">
-        <v>11.60277843475342</v>
+        <v>11.55257415771484</v>
       </c>
       <c r="G112">
         <v>31100</v>
@@ -3910,13 +4240,16 @@
         <v>0.01694071538404507</v>
       </c>
       <c r="I112">
-        <v>0.2055522433258572</v>
+        <v>0.08178158332786074</v>
       </c>
       <c r="J112">
         <v>0.2055522433258572</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.2055522433258572</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>20.20000076293945</v>
       </c>
       <c r="F113">
-        <v>11.48339462280273</v>
+        <v>11.43370819091797</v>
       </c>
       <c r="G113">
         <v>9400</v>
@@ -3942,13 +4275,16 @@
         <v>-0.01028902920346098</v>
       </c>
       <c r="I113">
-        <v>0.1490330404211444</v>
+        <v>0.08142531674348925</v>
       </c>
       <c r="J113">
         <v>0.1490330404211444</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.1490330404211444</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>21.38999938964844</v>
       </c>
       <c r="F114">
-        <v>12.15989208221436</v>
+        <v>12.10728073120117</v>
       </c>
       <c r="G114">
         <v>20600</v>
@@ -3974,13 +4310,16 @@
         <v>0.05891082087938582</v>
       </c>
       <c r="I114">
-        <v>0.2979368922206793</v>
+        <v>0.0812075327032028</v>
       </c>
       <c r="J114">
         <v>0.2979368922206793</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.2979368922206793</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>21.81999969482422</v>
       </c>
       <c r="F115">
-        <v>12.40433979034424</v>
+        <v>12.35067272186279</v>
       </c>
       <c r="G115">
         <v>36200</v>
@@ -4006,13 +4345,16 @@
         <v>0.0201028666407479</v>
       </c>
       <c r="I115">
-        <v>0.2911242714407718</v>
+        <v>0.08085330439079316</v>
       </c>
       <c r="J115">
         <v>0.2911242714407718</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.2911242714407718</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>22.53000068664551</v>
       </c>
       <c r="F116">
-        <v>12.80796146392822</v>
+        <v>12.7525520324707</v>
       </c>
       <c r="G116">
         <v>11800</v>
@@ -4038,13 +4380,16 @@
         <v>0.03253900099685625</v>
       </c>
       <c r="I116">
-        <v>0.2244565844423168</v>
+        <v>0.08052942674207933</v>
       </c>
       <c r="J116">
         <v>0.2244565844423168</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.2244565844423168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>21.31999969482422</v>
       </c>
       <c r="F117">
-        <v>12.12009811401367</v>
+        <v>12.06765842437744</v>
       </c>
       <c r="G117">
         <v>10400</v>
@@ -4070,13 +4415,16 @@
         <v>-0.05370621193715752</v>
       </c>
       <c r="I117">
-        <v>0.1480883169193843</v>
+        <v>0.08037854926103216</v>
       </c>
       <c r="J117">
         <v>0.1480883169193843</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.1480883169193843</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>21.48999977111816</v>
       </c>
       <c r="F118">
-        <v>12.21673679351807</v>
+        <v>12.16388511657715</v>
       </c>
       <c r="G118">
         <v>28200</v>
@@ -4102,13 +4450,16 @@
         <v>0.007973737276141479</v>
       </c>
       <c r="I118">
-        <v>0.01607565762270768</v>
+        <v>0.08002836550875481</v>
       </c>
       <c r="J118">
         <v>0.01607565762270768</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.01607565762270768</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>22.70000076293945</v>
       </c>
       <c r="F119">
-        <v>13.14678573608398</v>
+        <v>13.08990383148193</v>
       </c>
       <c r="G119">
         <v>60000</v>
@@ -4134,13 +4485,16 @@
         <v>0.05630530501203124</v>
       </c>
       <c r="I119">
-        <v>0.08301535088118417</v>
+        <v>0.07981290592794196</v>
       </c>
       <c r="J119">
         <v>0.08301535088118417</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.08301535088118417</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>24</v>
       </c>
       <c r="F120">
-        <v>13.89968204498291</v>
+        <v>13.83954334259033</v>
       </c>
       <c r="G120">
         <v>120100</v>
@@ -4166,13 +4520,16 @@
         <v>0.05726868693251119</v>
       </c>
       <c r="I120">
-        <v>0.2054244190825298</v>
+        <v>0.07960343096156663</v>
       </c>
       <c r="J120">
         <v>0.2054244190825298</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.2054244190825298</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>23.79000091552734</v>
       </c>
       <c r="F121">
-        <v>13.77805995941162</v>
+        <v>13.71845245361328</v>
       </c>
       <c r="G121">
         <v>84400</v>
@@ -4198,13 +4555,16 @@
         <v>-0.008749961853027344</v>
       </c>
       <c r="I121">
-        <v>0.1301663552387575</v>
+        <v>0.07928001684792106</v>
       </c>
       <c r="J121">
         <v>0.1301663552387575</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.1301663552387575</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>25.76000022888184</v>
       </c>
       <c r="F122">
-        <v>14.91899299621582</v>
+        <v>14.85444259643555</v>
       </c>
       <c r="G122">
         <v>99700</v>
@@ -4230,13 +4590,16 @@
         <v>0.08280787043050108</v>
       </c>
       <c r="I122">
-        <v>0.2658476533660579</v>
+        <v>0.07924329277847578</v>
       </c>
       <c r="J122">
         <v>0.2658476533660579</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.2658476533660579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>27.25</v>
       </c>
       <c r="F123">
-        <v>15.78193283081055</v>
+        <v>15.71365070343018</v>
       </c>
       <c r="G123">
         <v>73500</v>
@@ -4262,13 +4625,16 @@
         <v>0.05784160550773576</v>
       </c>
       <c r="I123">
-        <v>0.3577479030568897</v>
+        <v>0.07937109782179848</v>
       </c>
       <c r="J123">
         <v>0.3577479030568897</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.3577479030568897</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>25.32999992370605</v>
       </c>
       <c r="F124">
-        <v>14.66995811462402</v>
+        <v>14.60648727416992</v>
       </c>
       <c r="G124">
         <v>53500</v>
@@ -4294,13 +4660,16 @@
         <v>-0.07045871839610807</v>
       </c>
       <c r="I124">
-        <v>0.2410583102928234</v>
+        <v>0.07965912033375486</v>
       </c>
       <c r="J124">
         <v>0.2410583102928234</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.2410583102928234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>25.29999923706055</v>
       </c>
       <c r="F125">
-        <v>14.65258407592773</v>
+        <v>14.58918857574463</v>
       </c>
       <c r="G125">
         <v>121500</v>
@@ -4326,13 +4695,16 @@
         <v>-0.001184393475557433</v>
       </c>
       <c r="I125">
-        <v>0.2524751624503876</v>
+        <v>0.07965863680905902</v>
       </c>
       <c r="J125">
         <v>0.2524751624503876</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.2524751624503876</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>25.02000045776367</v>
       </c>
       <c r="F126">
-        <v>14.49042224884033</v>
+        <v>14.42772579193115</v>
       </c>
       <c r="G126">
         <v>38900</v>
@@ -4358,13 +4730,16 @@
         <v>-0.01106714576049161</v>
       </c>
       <c r="I126">
-        <v>0.1697055246234347</v>
+        <v>0.07958494194177572</v>
       </c>
       <c r="J126">
         <v>0.1697055246234347</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.1697055246234347</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>25.89999961853027</v>
       </c>
       <c r="F127">
-        <v>15.00007152557373</v>
+        <v>14.93517398834229</v>
       </c>
       <c r="G127">
         <v>91800</v>
@@ -4390,13 +4765,16 @@
         <v>0.03517182832398946</v>
       </c>
       <c r="I127">
-        <v>0.18698441708383</v>
+        <v>0.07959640862920708</v>
       </c>
       <c r="J127">
         <v>0.18698441708383</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.18698441708383</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>27.15999984741211</v>
       </c>
       <c r="F128">
-        <v>15.72980785369873</v>
+        <v>15.66175079345703</v>
       </c>
       <c r="G128">
         <v>83800</v>
@@ -4422,13 +4800,16 @@
         <v>0.04864865820230979</v>
       </c>
       <c r="I128">
-        <v>0.2055037292347266</v>
+        <v>0.07961994146482818</v>
       </c>
       <c r="J128">
         <v>0.2055037292347266</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.2055037292347266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>28.85000038146973</v>
       </c>
       <c r="F129">
-        <v>16.70857620239258</v>
+        <v>16.63628768920898</v>
       </c>
       <c r="G129">
         <v>231600</v>
@@ -4454,13 +4835,16 @@
         <v>0.06222387862857981</v>
       </c>
       <c r="I129">
-        <v>0.3531895306956097</v>
+        <v>0.07971739304362337</v>
       </c>
       <c r="J129">
         <v>0.3531895306956097</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.3531895306956097</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>30.07999992370605</v>
       </c>
       <c r="F130">
-        <v>17.42093467712402</v>
+        <v>17.34556579589844</v>
       </c>
       <c r="G130">
         <v>126000</v>
@@ -4486,13 +4870,16 @@
         <v>0.04263429899385218</v>
       </c>
       <c r="I130">
-        <v>0.3997208117299547</v>
+        <v>0.07962140182860471</v>
       </c>
       <c r="J130">
         <v>0.3997208117299547</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.3997208117299547</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>32.27999877929688</v>
       </c>
       <c r="F131">
-        <v>18.89590644836426</v>
+        <v>18.81415176391602</v>
       </c>
       <c r="G131">
         <v>323400</v>
@@ -4518,13 +4905,16 @@
         <v>0.07313826001232804</v>
       </c>
       <c r="I131">
-        <v>0.4220263301487615</v>
+        <v>0.07984090343530023</v>
       </c>
       <c r="J131">
         <v>0.4220263301487615</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.4220263301487615</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>32.79000091552734</v>
       </c>
       <c r="F132">
-        <v>19.19445037841797</v>
+        <v>19.11140251159668</v>
       </c>
       <c r="G132">
         <v>478400</v>
@@ -4550,13 +4940,16 @@
         <v>0.01579932328118816</v>
       </c>
       <c r="I132">
-        <v>0.3662500381469727</v>
+        <v>0.07983870671449195</v>
       </c>
       <c r="J132">
         <v>0.3662500381469727</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.3662500381469727</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>31.43000030517578</v>
       </c>
       <c r="F133">
-        <v>18.39833450317383</v>
+        <v>18.31873321533203</v>
       </c>
       <c r="G133">
         <v>419300</v>
@@ -4582,13 +4975,16 @@
         <v>-0.04147607723022506</v>
       </c>
       <c r="I133">
-        <v>0.3211432995221928</v>
+        <v>0.07995659225224977</v>
       </c>
       <c r="J133">
         <v>0.3211432995221928</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.3211432995221928</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>33.54000091552734</v>
       </c>
       <c r="F134">
-        <v>19.63347625732422</v>
+        <v>19.54853630065918</v>
       </c>
       <c r="G134">
         <v>110300</v>
@@ -4614,13 +5010,16 @@
         <v>0.06713333088972617</v>
       </c>
       <c r="I134">
-        <v>0.3020186575123807</v>
+        <v>0.08013273055532424</v>
       </c>
       <c r="J134">
         <v>0.3020186575123807</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.3020186575123807</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>37.08000183105469</v>
       </c>
       <c r="F135">
-        <v>21.70570182800293</v>
+        <v>21.61179542541504</v>
       </c>
       <c r="G135">
         <v>262100</v>
@@ -4646,13 +5045,16 @@
         <v>0.1055456415890705</v>
       </c>
       <c r="I135">
-        <v>0.3607340121487959</v>
+        <v>0.08043632007834296</v>
       </c>
       <c r="J135">
         <v>0.3607340121487959</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.3607340121487959</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>36.61000061035156</v>
       </c>
       <c r="F136">
-        <v>21.43058013916016</v>
+        <v>21.33786010742188</v>
       </c>
       <c r="G136">
         <v>261200</v>
@@ -4678,13 +5080,16 @@
         <v>-0.01267532895075252</v>
       </c>
       <c r="I136">
-        <v>0.4453217813115224</v>
+        <v>0.0803674899415984</v>
       </c>
       <c r="J136">
         <v>0.4453217813115224</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.4453217813115224</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>36.06999969482422</v>
       </c>
       <c r="F137">
-        <v>21.11447715759277</v>
+        <v>21.02312469482422</v>
       </c>
       <c r="G137">
         <v>376700</v>
@@ -4710,13 +5115,16 @@
         <v>-0.01475009304901942</v>
       </c>
       <c r="I137">
-        <v>0.425691730535205</v>
+        <v>0.08003351005430039</v>
       </c>
       <c r="J137">
         <v>0.425691730535205</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.425691730535205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>35.7599983215332</v>
       </c>
       <c r="F138">
-        <v>20.93301010131836</v>
+        <v>20.84244155883789</v>
       </c>
       <c r="G138">
         <v>212500</v>
@@ -4742,13 +5150,16 @@
         <v>-0.008594437923865494</v>
       </c>
       <c r="I138">
-        <v>0.4292565014896683</v>
+        <v>0.07993237072780733</v>
       </c>
       <c r="J138">
         <v>0.4292565014896683</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.4292565014896683</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>34.59999847412109</v>
       </c>
       <c r="F139">
-        <v>20.25397491455078</v>
+        <v>20.16634559631348</v>
       </c>
       <c r="G139">
         <v>252600</v>
@@ -4774,13 +5185,16 @@
         <v>-0.03243847600276883</v>
       </c>
       <c r="I139">
-        <v>0.3359072966690844</v>
+        <v>0.07934769150760197</v>
       </c>
       <c r="J139">
         <v>0.3359072966690844</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.3359072966690844</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>36.97999954223633</v>
       </c>
       <c r="F140">
-        <v>21.64716720581055</v>
+        <v>21.55351257324219</v>
       </c>
       <c r="G140">
         <v>179700</v>
@@ -4806,13 +5220,16 @@
         <v>0.06878616107151991</v>
       </c>
       <c r="I140">
-        <v>0.3615611100881468</v>
+        <v>0.07879153796022161</v>
       </c>
       <c r="J140">
         <v>0.3615611100881468</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.3615611100881468</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>36.02999877929688</v>
       </c>
       <c r="F141">
-        <v>21.09106063842773</v>
+        <v>20.99980926513672</v>
       </c>
       <c r="G141">
         <v>219800</v>
@@ -4838,13 +5255,16 @@
         <v>-0.0256895828745054</v>
       </c>
       <c r="I141">
-        <v>0.2488734247102069</v>
+        <v>0.07832076525113774</v>
       </c>
       <c r="J141">
         <v>0.2488734247102069</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.2488734247102069</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>33.02999877929688</v>
       </c>
       <c r="F142">
-        <v>19.33493423461914</v>
+        <v>19.25127983093262</v>
       </c>
       <c r="G142">
         <v>165400</v>
@@ -4870,13 +5290,16 @@
         <v>-0.08326394953207228</v>
       </c>
       <c r="I142">
-        <v>0.09807177071386652</v>
+        <v>0.07876846651579079</v>
       </c>
       <c r="J142">
         <v>0.09807177071386652</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.09807177071386652</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>30.71999931335449</v>
       </c>
       <c r="F143">
-        <v>18.64910125732422</v>
+        <v>18.56841659545898</v>
       </c>
       <c r="G143">
         <v>188900</v>
@@ -4902,13 +5325,16 @@
         <v>-0.06993640785086208</v>
       </c>
       <c r="I143">
-        <v>-0.04832712282947504</v>
+        <v>0.07899984490486389</v>
       </c>
       <c r="J143">
         <v>-0.04832712282947504</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>-0.04832712282947504</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>27.84000015258789</v>
       </c>
       <c r="F144">
-        <v>16.90075302124023</v>
+        <v>16.82762908935547</v>
       </c>
       <c r="G144">
         <v>353100</v>
@@ -4934,13 +5360,16 @@
         <v>-0.09374997477667968</v>
       </c>
       <c r="I144">
-        <v>-0.1509606777899001</v>
+        <v>0.07952311823818192</v>
       </c>
       <c r="J144">
         <v>-0.1509606777899001</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>-0.1509606777899001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4957,7 +5386,7 @@
         <v>28.97999954223633</v>
       </c>
       <c r="F145">
-        <v>17.59280776977539</v>
+        <v>17.51669120788574</v>
       </c>
       <c r="G145">
         <v>84700</v>
@@ -4966,13 +5395,16 @@
         <v>0.04094825371408861</v>
       </c>
       <c r="I145">
-        <v>-0.0779510257445335</v>
+        <v>0.07920801041727843</v>
       </c>
       <c r="J145">
         <v>-0.0779510257445335</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>-0.0779510257445335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>30.07999992370605</v>
       </c>
       <c r="F146">
-        <v>18.26058197021484</v>
+        <v>18.18157958984375</v>
       </c>
       <c r="G146">
         <v>143000</v>
@@ -4998,13 +5430,16 @@
         <v>0.0379572256330285</v>
       </c>
       <c r="I146">
-        <v>-0.1031604322413564</v>
+        <v>0.07901614213348854</v>
       </c>
       <c r="J146">
         <v>-0.1031604322413564</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>-0.1031604322413564</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>31.39999961853027</v>
       </c>
       <c r="F147">
-        <v>19.06191062927246</v>
+        <v>18.97944259643555</v>
       </c>
       <c r="G147">
         <v>505600</v>
@@ -5030,13 +5465,16 @@
         <v>0.04388296868923613</v>
       </c>
       <c r="I147">
-        <v>-0.1531823606267296</v>
+        <v>0.07888084505433983</v>
       </c>
       <c r="J147">
         <v>-0.1531823606267296</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>-0.1531823606267296</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5053,7 +5491,7 @@
         <v>32</v>
       </c>
       <c r="F148">
-        <v>19.42615127563477</v>
+        <v>19.34210586547852</v>
       </c>
       <c r="G148">
         <v>103200</v>
@@ -5062,13 +5500,16 @@
         <v>0.01910829263563563</v>
       </c>
       <c r="I148">
-        <v>-0.1259218938403425</v>
+        <v>0.07887709778696732</v>
       </c>
       <c r="J148">
         <v>-0.1259218938403425</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>-0.1259218938403425</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>25.6299991607666</v>
       </c>
       <c r="F149">
-        <v>16.28988456726074</v>
+        <v>16.21940422058105</v>
       </c>
       <c r="G149">
         <v>347300</v>
@@ -5094,13 +5535,16 @@
         <v>-0.1990625262260437</v>
       </c>
       <c r="I149">
-        <v>-0.2894372226888507</v>
+        <v>0.08103987012571903</v>
       </c>
       <c r="J149">
         <v>-0.2894372226888507</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.2894372226888507</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>25.3700008392334</v>
       </c>
       <c r="F150">
-        <v>16.1246395111084</v>
+        <v>16.05487632751465</v>
       </c>
       <c r="G150">
         <v>42900</v>
@@ -5126,13 +5570,16 @@
         <v>-0.01014429691949414</v>
       </c>
       <c r="I150">
-        <v>-0.2905480416659688</v>
+        <v>0.08097181841309306</v>
       </c>
       <c r="J150">
         <v>-0.2905480416659688</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.2905480416659688</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>24.29999923706055</v>
       </c>
       <c r="F151">
-        <v>15.44456577301025</v>
+        <v>15.37774658203125</v>
       </c>
       <c r="G151">
         <v>57200</v>
@@ -5158,13 +5605,16 @@
         <v>-0.04217585994392836</v>
       </c>
       <c r="I151">
-        <v>-0.2976878523496</v>
+        <v>0.0790116530947621</v>
       </c>
       <c r="J151">
         <v>-0.2976878523496</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.2976878523496</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>20.43000030517578</v>
       </c>
       <c r="F152">
-        <v>12.98487854003906</v>
+        <v>12.92869853973389</v>
       </c>
       <c r="G152">
         <v>137500</v>
@@ -5190,13 +5640,16 @@
         <v>-0.1592592203041114</v>
       </c>
       <c r="I152">
-        <v>-0.4475391952927997</v>
+        <v>0.08009547389998246</v>
       </c>
       <c r="J152">
         <v>-0.4475391952927997</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.4475391952927997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>15.21000003814697</v>
       </c>
       <c r="F153">
-        <v>9.667155265808105</v>
+        <v>9.625330924987793</v>
       </c>
       <c r="G153">
         <v>186900</v>
@@ -5222,13 +5675,16 @@
         <v>-0.2555066171832784</v>
       </c>
       <c r="I153">
-        <v>-0.5778517748136378</v>
+        <v>0.08338453952378086</v>
       </c>
       <c r="J153">
         <v>-0.5778517748136378</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.5778517748136378</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>14.26000022888184</v>
       </c>
       <c r="F154">
-        <v>9.0633544921875</v>
+        <v>9.024144172668457</v>
       </c>
       <c r="G154">
         <v>184600</v>
@@ -5254,13 +5710,16 @@
         <v>-0.0624588959160105</v>
       </c>
       <c r="I154">
-        <v>-0.5682712456586596</v>
+        <v>0.08324779731673447</v>
       </c>
       <c r="J154">
         <v>-0.5682712456586596</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.5682712456586596</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="F155">
-        <v>9.902353286743164</v>
+        <v>9.859514236450195</v>
       </c>
       <c r="G155">
         <v>147500</v>
@@ -5286,13 +5745,16 @@
         <v>0.09116410728394486</v>
       </c>
       <c r="I155">
-        <v>-0.4934895583525449</v>
+        <v>0.0836533840496419</v>
       </c>
       <c r="J155">
         <v>-0.4934895583525449</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.4934895583525449</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>13.13000011444092</v>
       </c>
       <c r="F156">
-        <v>8.355908393859863</v>
+        <v>8.319756507873535</v>
       </c>
       <c r="G156">
         <v>218000</v>
@@ -5318,13 +5780,16 @@
         <v>-0.1561696812110781</v>
       </c>
       <c r="I156">
-        <v>-0.5283764352558594</v>
+        <v>0.08475554800550597</v>
       </c>
       <c r="J156">
         <v>-0.5283764352558594</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.5283764352558594</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>12.60999965667725</v>
       </c>
       <c r="F157">
-        <v>8.024981498718262</v>
+        <v>7.990259647369385</v>
       </c>
       <c r="G157">
         <v>115200</v>
@@ -5350,13 +5815,16 @@
         <v>-0.03960399491480227</v>
       </c>
       <c r="I157">
-        <v>-0.5648723307155664</v>
+        <v>0.08482141745722011</v>
       </c>
       <c r="J157">
         <v>-0.5648723307155664</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.5648723307155664</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5373,7 +5841,7 @@
         <v>13.97000026702881</v>
       </c>
       <c r="F158">
-        <v>8.890483856201172</v>
+        <v>8.852019309997559</v>
       </c>
       <c r="G158">
         <v>50400</v>
@@ -5382,13 +5850,16 @@
         <v>0.1078509633131841</v>
       </c>
       <c r="I158">
-        <v>-0.53557179845539</v>
+        <v>0.08539252751429686</v>
       </c>
       <c r="J158">
         <v>-0.53557179845539</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.53557179845539</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>17.23999977111816</v>
       </c>
       <c r="F159">
-        <v>10.97150421142578</v>
+        <v>10.92403507232666</v>
       </c>
       <c r="G159">
         <v>347000</v>
@@ -5414,13 +5885,16 @@
         <v>0.2340729736281408</v>
       </c>
       <c r="I159">
-        <v>-0.4509554146317818</v>
+        <v>0.08796068954790813</v>
       </c>
       <c r="J159">
         <v>-0.4509554146317818</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.4509554146317818</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>19.06999969482422</v>
       </c>
       <c r="F160">
-        <v>12.13611316680908</v>
+        <v>12.08360767364502</v>
       </c>
       <c r="G160">
         <v>178700</v>
@@ -5446,13 +5920,16 @@
         <v>0.1061484888631969</v>
       </c>
       <c r="I160">
-        <v>-0.4040625095367432</v>
+        <v>0.08842460903828991</v>
       </c>
       <c r="J160">
         <v>-0.4040625095367432</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.4040625095367432</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5469,7 +5946,7 @@
         <v>18.52000045776367</v>
       </c>
       <c r="F161">
-        <v>12.09896373748779</v>
+        <v>12.04661464691162</v>
       </c>
       <c r="G161">
         <v>175500</v>
@@ -5478,13 +5955,16 @@
         <v>-0.0288410721479887</v>
       </c>
       <c r="I161">
-        <v>-0.2774092444718702</v>
+        <v>0.08784102908766503</v>
       </c>
       <c r="J161">
         <v>-0.2774092444718702</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.2774092444718702</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>22</v>
       </c>
       <c r="F162">
-        <v>14.37241744995117</v>
+        <v>14.31023502349854</v>
       </c>
       <c r="G162">
         <v>166300</v>
@@ -5510,13 +5990,16 @@
         <v>0.1879049382408355</v>
       </c>
       <c r="I162">
-        <v>-0.1328340846572565</v>
+        <v>0.08944432861725959</v>
       </c>
       <c r="J162">
         <v>-0.1328340846572565</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.1328340846572565</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>22.93000030517578</v>
       </c>
       <c r="F163">
-        <v>14.97997856140137</v>
+        <v>14.91517066955566</v>
       </c>
       <c r="G163">
         <v>146700</v>
@@ -5542,13 +6025,16 @@
         <v>0.04227274114435375</v>
       </c>
       <c r="I163">
-        <v>-0.05637855863778574</v>
+        <v>0.08943001249656181</v>
       </c>
       <c r="J163">
         <v>-0.05637855863778574</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.05637855863778574</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>23.17000007629395</v>
       </c>
       <c r="F164">
-        <v>15.13676834106445</v>
+        <v>15.0712776184082</v>
       </c>
       <c r="G164">
         <v>167300</v>
@@ -5574,13 +6060,16 @@
         <v>0.01046662747160942</v>
       </c>
       <c r="I164">
-        <v>0.1341164821433707</v>
+        <v>0.08942950069430457</v>
       </c>
       <c r="J164">
         <v>0.1341164821433707</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>0.1341164821433707</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>23.47999954223633</v>
       </c>
       <c r="F165">
-        <v>15.33928775787354</v>
+        <v>15.27292156219482</v>
       </c>
       <c r="G165">
         <v>656000</v>
@@ -5606,13 +6095,16 @@
         <v>0.01337934678125241</v>
       </c>
       <c r="I165">
-        <v>0.5437212020610149</v>
+        <v>0.08917493564624739</v>
       </c>
       <c r="J165">
         <v>0.5437212020610149</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.5437212020610149</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>24.22999954223633</v>
       </c>
       <c r="F166">
-        <v>15.82925605773926</v>
+        <v>15.76077079772949</v>
       </c>
       <c r="G166">
         <v>490000</v>
@@ -5638,13 +6130,16 @@
         <v>0.03194207898730506</v>
       </c>
       <c r="I166">
-        <v>0.6991584258997074</v>
+        <v>0.08891603642441928</v>
       </c>
       <c r="J166">
         <v>0.6991584258997074</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.6991584258997074</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>23.5</v>
       </c>
       <c r="F167">
-        <v>15.38986110687256</v>
+        <v>15.32327556610107</v>
       </c>
       <c r="G167">
         <v>83600</v>
@@ -5670,13 +6165,16 @@
         <v>-0.03012792224629779</v>
       </c>
       <c r="I167">
-        <v>0.5102827356208319</v>
+        <v>0.08820828757498775</v>
       </c>
       <c r="J167">
         <v>0.5102827356208319</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.5102827356208319</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>22.71999931335449</v>
       </c>
       <c r="F168">
-        <v>14.87904739379883</v>
+        <v>14.81466865539551</v>
       </c>
       <c r="G168">
         <v>233100</v>
@@ -5702,13 +6200,16 @@
         <v>-0.03319151858065994</v>
       </c>
       <c r="I168">
-        <v>0.7303883560797608</v>
+        <v>0.0882129314084384</v>
       </c>
       <c r="J168">
         <v>0.7303883560797608</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.7303883560797608</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>23.81999969482422</v>
       </c>
       <c r="F169">
-        <v>15.5994234085083</v>
+        <v>15.5319299697876</v>
       </c>
       <c r="G169">
         <v>119100</v>
@@ -5734,13 +6235,16 @@
         <v>0.04841551121100429</v>
       </c>
       <c r="I169">
-        <v>0.8889770296076935</v>
+        <v>0.08608503310585604</v>
       </c>
       <c r="J169">
         <v>0.8889770296076935</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.8889770296076935</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>25.38999938964844</v>
       </c>
       <c r="F170">
-        <v>16.62759590148926</v>
+        <v>16.55565643310547</v>
       </c>
       <c r="G170">
         <v>877200</v>
@@ -5766,13 +6270,16 @@
         <v>0.06591098719305855</v>
       </c>
       <c r="I170">
-        <v>0.817465920138345</v>
+        <v>0.0862762516494857</v>
       </c>
       <c r="J170">
         <v>0.817465920138345</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.817465920138345</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>26.53000068664551</v>
       </c>
       <c r="F171">
-        <v>17.3741626739502</v>
+        <v>17.29899597167969</v>
       </c>
       <c r="G171">
         <v>294000</v>
@@ -5798,13 +6305,16 @@
         <v>0.044899618920899</v>
       </c>
       <c r="I171">
-        <v>0.538863169307618</v>
+        <v>0.08631529036118839</v>
       </c>
       <c r="J171">
         <v>0.538863169307618</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.538863169307618</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>22.82999992370605</v>
       </c>
       <c r="F172">
-        <v>14.95108318328857</v>
+        <v>14.88639545440674</v>
       </c>
       <c r="G172">
         <v>138900</v>
@@ -5830,13 +6340,16 @@
         <v>-0.1394647820270104</v>
       </c>
       <c r="I172">
-        <v>0.1971683423729857</v>
+        <v>0.08725287031073653</v>
       </c>
       <c r="J172">
         <v>0.1971683423729857</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>0.1971683423729857</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>22.82999992370605</v>
       </c>
       <c r="F173">
-        <v>15.29025173187256</v>
+        <v>15.22409820556641</v>
       </c>
       <c r="G173">
         <v>523000</v>
@@ -5862,13 +6375,16 @@
         <v>0</v>
       </c>
       <c r="I173">
-        <v>0.2327213477003782</v>
+        <v>0.08716958705122255</v>
       </c>
       <c r="J173">
         <v>0.2327213477003782</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0.2327213477003782</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>26.07999992370605</v>
       </c>
       <c r="F174">
-        <v>17.4669189453125</v>
+        <v>17.39134979248047</v>
       </c>
       <c r="G174">
         <v>150500</v>
@@ -5894,13 +6410,16 @@
         <v>0.1423565488769576</v>
       </c>
       <c r="I174">
-        <v>0.1854545419866389</v>
+        <v>0.08802820308864835</v>
       </c>
       <c r="J174">
         <v>0.1854545419866389</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0.1854545419866389</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5917,7 +6436,7 @@
         <v>24.26000022888184</v>
       </c>
       <c r="F175">
-        <v>16.24798583984375</v>
+        <v>16.17768859863281</v>
       </c>
       <c r="G175">
         <v>141400</v>
@@ -5926,13 +6445,16 @@
         <v>-0.06978526457624279</v>
       </c>
       <c r="I175">
-        <v>0.0580026125601858</v>
+        <v>0.08674428612321278</v>
       </c>
       <c r="J175">
         <v>0.0580026125601858</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>0.0580026125601858</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>28.96999931335449</v>
       </c>
       <c r="F176">
-        <v>19.4024772644043</v>
+        <v>19.31853294372559</v>
       </c>
       <c r="G176">
         <v>199700</v>
@@ -5958,13 +6480,16 @@
         <v>0.1941467040410554</v>
       </c>
       <c r="I176">
-        <v>0.2503236606802921</v>
+        <v>0.08781194686957151</v>
       </c>
       <c r="J176">
         <v>0.2503236606802921</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>0.2503236606802921</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>29.20000076293945</v>
       </c>
       <c r="F177">
-        <v>19.55652236938477</v>
+        <v>19.4719066619873</v>
       </c>
       <c r="G177">
         <v>190000</v>
@@ -5990,13 +6515,16 @@
         <v>0.007939297723039251</v>
       </c>
       <c r="I177">
-        <v>0.2436116410655742</v>
+        <v>0.08766688143904079</v>
       </c>
       <c r="J177">
         <v>0.2436116410655742</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.2436116410655742</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>28.3700008392334</v>
       </c>
       <c r="F178">
-        <v>19.00063133239746</v>
+        <v>18.91842651367188</v>
       </c>
       <c r="G178">
         <v>156300</v>
@@ -6022,13 +6550,16 @@
         <v>-0.02842465417875906</v>
       </c>
       <c r="I178">
-        <v>0.1708626238221944</v>
+        <v>0.08613587311156097</v>
       </c>
       <c r="J178">
         <v>0.1708626238221944</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>0.1708626238221944</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>31.22999954223633</v>
       </c>
       <c r="F179">
-        <v>20.91610145568848</v>
+        <v>20.82560348510742</v>
       </c>
       <c r="G179">
         <v>114800</v>
@@ -6054,13 +6585,16 @@
         <v>0.1008106668452327</v>
       </c>
       <c r="I179">
-        <v>0.3289361507334607</v>
+        <v>0.08650418854919985</v>
       </c>
       <c r="J179">
         <v>0.3289361507334607</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.3289361507334607</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>32.22999954223633</v>
       </c>
       <c r="F180">
-        <v>21.58584403991699</v>
+        <v>21.49245262145996</v>
       </c>
       <c r="G180">
         <v>176400</v>
@@ -6086,13 +6620,16 @@
         <v>0.03202049358494463</v>
       </c>
       <c r="I180">
-        <v>0.4185739663861694</v>
+        <v>0.08618058114768838</v>
       </c>
       <c r="J180">
         <v>0.4185739663861694</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.4185739663861694</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>31.96999931335449</v>
       </c>
       <c r="F181">
-        <v>21.41170883178711</v>
+        <v>21.31906890869141</v>
       </c>
       <c r="G181">
         <v>542500</v>
@@ -6118,13 +6655,16 @@
         <v>-0.008067025522017546</v>
       </c>
       <c r="I181">
-        <v>0.3421494426089839</v>
+        <v>0.0852192229293313</v>
       </c>
       <c r="J181">
         <v>0.3421494426089839</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.3421494426089839</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>32.79000091552734</v>
       </c>
       <c r="F182">
-        <v>21.96089935302734</v>
+        <v>21.86588096618652</v>
       </c>
       <c r="G182">
         <v>170200</v>
@@ -6150,13 +6690,16 @@
         <v>0.0256490966463776</v>
       </c>
       <c r="I182">
-        <v>0.2914533951858189</v>
+        <v>0.08275818139341931</v>
       </c>
       <c r="J182">
         <v>0.2914533951858189</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.2914533951858189</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>35.70999908447266</v>
       </c>
       <c r="F183">
-        <v>23.91655158996582</v>
+        <v>23.81307411193848</v>
       </c>
       <c r="G183">
         <v>264000</v>
@@ -6182,13 +6725,16 @@
         <v>0.08905148177542688</v>
       </c>
       <c r="I183">
-        <v>0.3460233004233624</v>
+        <v>0.0822865095870587</v>
       </c>
       <c r="J183">
         <v>0.3460233004233624</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.3460233004233624</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>34.86000061035156</v>
       </c>
       <c r="F184">
-        <v>23.34727096557617</v>
+        <v>23.24625778198242</v>
       </c>
       <c r="G184">
         <v>276100</v>
@@ -6214,13 +6760,16 @@
         <v>-0.02380281422327701</v>
       </c>
       <c r="I184">
-        <v>0.5269382709963955</v>
+        <v>0.08216217335473819</v>
       </c>
       <c r="J184">
         <v>0.5269382709963955</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.5269382709963955</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6237,7 +6786,7 @@
         <v>31.78000068664551</v>
       </c>
       <c r="F185">
-        <v>21.99986839294434</v>
+        <v>21.90468597412109</v>
       </c>
       <c r="G185">
         <v>230100</v>
@@ -6246,13 +6795,16 @@
         <v>-0.08835340991908813</v>
       </c>
       <c r="I185">
-        <v>0.3920280680179071</v>
+        <v>0.08241479890349616</v>
       </c>
       <c r="J185">
         <v>0.3920280680179071</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.3920280680179071</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6269,7 +6821,7 @@
         <v>29.97999954223633</v>
       </c>
       <c r="F186">
-        <v>20.75380706787109</v>
+        <v>20.66401863098145</v>
       </c>
       <c r="G186">
         <v>399200</v>
@@ -6278,13 +6830,16 @@
         <v>-0.05663943063303867</v>
       </c>
       <c r="I186">
-        <v>0.149539863111168</v>
+        <v>0.08262982208009796</v>
       </c>
       <c r="J186">
         <v>0.149539863111168</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.149539863111168</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>26.75</v>
       </c>
       <c r="F187">
-        <v>18.517822265625</v>
+        <v>18.43770790100098</v>
       </c>
       <c r="G187">
         <v>179500</v>
@@ -6310,13 +6865,16 @@
         <v>-0.1077384787043059</v>
       </c>
       <c r="I187">
-        <v>0.1026380769837665</v>
+        <v>0.08291634214325602</v>
       </c>
       <c r="J187">
         <v>0.1026380769837665</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.1026380769837665</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>22.98999977111816</v>
       </c>
       <c r="F188">
-        <v>15.91494464874268</v>
+        <v>15.84609222412109</v>
       </c>
       <c r="G188">
         <v>121100</v>
@@ -6342,13 +6900,16 @@
         <v>-0.1405607562198817</v>
       </c>
       <c r="I188">
-        <v>-0.2064204240239553</v>
+        <v>0.08287591979020274</v>
       </c>
       <c r="J188">
         <v>-0.2064204240239553</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.2064204240239553</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>26.55999946594238</v>
       </c>
       <c r="F189">
-        <v>18.38629722595215</v>
+        <v>18.30674743652344</v>
       </c>
       <c r="G189">
         <v>148300</v>
@@ -6374,13 +6935,16 @@
         <v>0.155284894752767</v>
       </c>
       <c r="I189">
-        <v>-0.09041100095955312</v>
+        <v>0.08387109943867502</v>
       </c>
       <c r="J189">
         <v>-0.09041100095955312</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.09041100095955312</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6397,7 +6961,7 @@
         <v>25.51000022888184</v>
       </c>
       <c r="F190">
-        <v>17.65942764282227</v>
+        <v>17.58303070068359</v>
       </c>
       <c r="G190">
         <v>338100</v>
@@ -6406,13 +6970,16 @@
         <v>-0.039533104599906</v>
       </c>
       <c r="I190">
-        <v>-0.1008107340764127</v>
+        <v>0.08283316275281173</v>
       </c>
       <c r="J190">
         <v>-0.1008107340764127</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.1008107340764127</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>25.13999938964844</v>
       </c>
       <c r="F191">
-        <v>17.40329551696777</v>
+        <v>17.32799911499023</v>
       </c>
       <c r="G191">
         <v>129600</v>
@@ -6438,13 +7005,16 @@
         <v>-0.01450414880100592</v>
       </c>
       <c r="I191">
-        <v>-0.1950048108182519</v>
+        <v>0.08283733389124315</v>
       </c>
       <c r="J191">
         <v>-0.1950048108182519</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.1950048108182519</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>26.85000038146973</v>
       </c>
       <c r="F192">
-        <v>18.58704948425293</v>
+        <v>18.50663375854492</v>
       </c>
       <c r="G192">
         <v>146800</v>
@@ -6470,13 +7040,16 @@
         <v>0.06801913418205552</v>
       </c>
       <c r="I192">
-        <v>-0.1669252012776573</v>
+        <v>0.08262765493854463</v>
       </c>
       <c r="J192">
         <v>-0.1669252012776573</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.1669252012776573</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6493,7 +7066,7 @@
         <v>29.40999984741211</v>
       </c>
       <c r="F193">
-        <v>20.35922241210938</v>
+        <v>20.2711353302002</v>
       </c>
       <c r="G193">
         <v>207000</v>
@@ -6502,13 +7075,16 @@
         <v>0.09534448527267592</v>
       </c>
       <c r="I193">
-        <v>-0.08007505539335502</v>
+        <v>0.08299501076121439</v>
       </c>
       <c r="J193">
         <v>-0.08007505539335502</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.08007505539335502</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6525,7 +7101,7 @@
         <v>29.01000022888184</v>
       </c>
       <c r="F194">
-        <v>20.08232116699219</v>
+        <v>19.99543952941895</v>
       </c>
       <c r="G194">
         <v>112000</v>
@@ -6534,13 +7110,16 @@
         <v>-0.01360080314877898</v>
       </c>
       <c r="I194">
-        <v>-0.1152790662123931</v>
+        <v>0.08299620684634977</v>
       </c>
       <c r="J194">
         <v>-0.1152790662123931</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.1152790662123931</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>28.32999992370605</v>
       </c>
       <c r="F195">
-        <v>19.6115894317627</v>
+        <v>19.52673530578613</v>
       </c>
       <c r="G195">
         <v>258000</v>
@@ -6566,13 +7145,16 @@
         <v>-0.02344020337162167</v>
       </c>
       <c r="I195">
-        <v>-0.2066647815730569</v>
+        <v>0.08254678387140098</v>
       </c>
       <c r="J195">
         <v>-0.2066647815730569</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.2066647815730569</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>24.54000091552734</v>
       </c>
       <c r="F196">
-        <v>16.98794174194336</v>
+        <v>16.9144458770752</v>
       </c>
       <c r="G196">
         <v>188300</v>
@@ -6598,13 +7180,16 @@
         <v>-0.1337804101089074</v>
       </c>
       <c r="I196">
-        <v>-0.296041294151892</v>
+        <v>0.08358805416962686</v>
       </c>
       <c r="J196">
         <v>-0.296041294151892</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.296041294151892</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>25.75</v>
       </c>
       <c r="F197">
-        <v>18.46635437011719</v>
+        <v>18.38645935058594</v>
       </c>
       <c r="G197">
         <v>210300</v>
@@ -6630,13 +7215,16 @@
         <v>0.04930721431664842</v>
       </c>
       <c r="I197">
-        <v>-0.189741993592197</v>
+        <v>0.08358810732292722</v>
       </c>
       <c r="J197">
         <v>-0.189741993592197</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.189741993592197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>27.23999977111816</v>
       </c>
       <c r="F198">
-        <v>19.53489303588867</v>
+        <v>19.45037269592285</v>
       </c>
       <c r="G198">
         <v>827800</v>
@@ -6662,13 +7250,16 @@
         <v>0.05786406878128791</v>
       </c>
       <c r="I198">
-        <v>-0.09139425660290645</v>
+        <v>0.08222768420775631</v>
       </c>
       <c r="J198">
         <v>-0.09139425660290645</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.09139425660290645</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6685,7 +7276,7 @@
         <v>27.20999908447266</v>
       </c>
       <c r="F199">
-        <v>19.51337242126465</v>
+        <v>19.42895126342773</v>
       </c>
       <c r="G199">
         <v>220100</v>
@@ -6694,13 +7285,16 @@
         <v>-0.001101346802407699</v>
       </c>
       <c r="I199">
-        <v>0.01719622745692173</v>
+        <v>0.08223555130416439</v>
       </c>
       <c r="J199">
         <v>0.01719622745692173</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>0.01719622745692173</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>28.26000022888184</v>
       </c>
       <c r="F200">
-        <v>20.26637268066406</v>
+        <v>20.17869567871094</v>
       </c>
       <c r="G200">
         <v>175300</v>
@@ -6726,13 +7320,16 @@
         <v>0.03858879749130018</v>
       </c>
       <c r="I200">
-        <v>0.2292301222370718</v>
+        <v>0.08048850800900346</v>
       </c>
       <c r="J200">
         <v>0.2292301222370718</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.2292301222370718</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>27.68000030517578</v>
       </c>
       <c r="F201">
-        <v>19.85043334960938</v>
+        <v>19.76454925537109</v>
       </c>
       <c r="G201">
         <v>132000</v>
@@ -6758,13 +7355,16 @@
         <v>-0.02052370555585814</v>
       </c>
       <c r="I201">
-        <v>0.04216870714434928</v>
+        <v>0.07960011700499786</v>
       </c>
       <c r="J201">
         <v>0.04216870714434928</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0.04216870714434928</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6781,7 +7381,7 @@
         <v>28.61000061035156</v>
       </c>
       <c r="F202">
-        <v>20.51737403869629</v>
+        <v>20.42860221862793</v>
       </c>
       <c r="G202">
         <v>77500</v>
@@ -6790,13 +7390,16 @@
         <v>0.03359827655066483</v>
       </c>
       <c r="I202">
-        <v>0.1215209860311948</v>
+        <v>0.07799135477797704</v>
       </c>
       <c r="J202">
         <v>0.1215209860311948</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0.1215209860311948</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>30.20000076293945</v>
       </c>
       <c r="F203">
-        <v>21.65762710571289</v>
+        <v>21.56392478942871</v>
       </c>
       <c r="G203">
         <v>349500</v>
@@ -6822,13 +7425,16 @@
         <v>0.05557497793315669</v>
       </c>
       <c r="I203">
-        <v>0.2012729314295252</v>
+        <v>0.07673442021159561</v>
       </c>
       <c r="J203">
         <v>0.2012729314295252</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.2012729314295252</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6845,7 +7451,7 @@
         <v>32.06000137329102</v>
       </c>
       <c r="F204">
-        <v>22.99150657653809</v>
+        <v>22.89203453063965</v>
       </c>
       <c r="G204">
         <v>331300</v>
@@ -6854,13 +7460,16 @@
         <v>0.06158942262789946</v>
       </c>
       <c r="I204">
-        <v>0.1940410025251591</v>
+        <v>0.07684186415525034</v>
       </c>
       <c r="J204">
         <v>0.1940410025251591</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.1940410025251591</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>32.34000015258789</v>
       </c>
       <c r="F205">
-        <v>23.19230651855469</v>
+        <v>23.09196281433105</v>
       </c>
       <c r="G205">
         <v>209300</v>
@@ -6886,13 +7495,16 @@
         <v>0.008733586004464167</v>
       </c>
       <c r="I205">
-        <v>0.09962598845214221</v>
+        <v>0.07682828354403867</v>
       </c>
       <c r="J205">
         <v>0.09962598845214221</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.09962598845214221</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6909,7 +7521,7 @@
         <v>32.5099983215332</v>
       </c>
       <c r="F206">
-        <v>23.31421852111816</v>
+        <v>23.21335220336914</v>
       </c>
       <c r="G206">
         <v>200400</v>
@@ -6918,13 +7530,16 @@
         <v>0.005256591470105709</v>
       </c>
       <c r="I206">
-        <v>0.1206479856958715</v>
+        <v>0.07675400618739256</v>
       </c>
       <c r="J206">
         <v>0.1206479856958715</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.1206479856958715</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>33.15000152587891</v>
       </c>
       <c r="F207">
-        <v>23.77318954467773</v>
+        <v>23.67033576965332</v>
       </c>
       <c r="G207">
         <v>125900</v>
@@ -6950,13 +7565,16 @@
         <v>0.01968634996581331</v>
       </c>
       <c r="I207">
-        <v>0.1701377202666194</v>
+        <v>0.07468255583869425</v>
       </c>
       <c r="J207">
         <v>0.1701377202666194</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.1701377202666194</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>32.75</v>
       </c>
       <c r="F208">
-        <v>23.4863338470459</v>
+        <v>23.38472175598145</v>
       </c>
       <c r="G208">
         <v>280600</v>
@@ -6982,13 +7600,16 @@
         <v>-0.01206641048165991</v>
       </c>
       <c r="I208">
-        <v>0.3345557774318539</v>
+        <v>0.074609402966774</v>
       </c>
       <c r="J208">
         <v>0.3345557774318539</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.3345557774318539</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7005,7 +7626,7 @@
         <v>29.80999946594238</v>
       </c>
       <c r="F209">
-        <v>22.11312484741211</v>
+        <v>22.01744842529297</v>
       </c>
       <c r="G209">
         <v>521600</v>
@@ -7014,13 +7635,16 @@
         <v>-0.08977100867351506</v>
       </c>
       <c r="I209">
-        <v>0.1576698821725198</v>
+        <v>0.07515653073991685</v>
       </c>
       <c r="J209">
         <v>0.1576698821725198</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.1576698821725198</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>33.09999847412109</v>
       </c>
       <c r="F210">
-        <v>24.55365371704102</v>
+        <v>24.44742202758789</v>
       </c>
       <c r="G210">
         <v>184800</v>
@@ -7046,13 +7670,16 @@
         <v>0.1103656178168504</v>
       </c>
       <c r="I210">
-        <v>0.2151247706402746</v>
+        <v>0.07562615269938268</v>
       </c>
       <c r="J210">
         <v>0.2151247706402746</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.2151247706402746</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>31.95000076293945</v>
       </c>
       <c r="F211">
-        <v>23.70058059692383</v>
+        <v>23.5980396270752</v>
       </c>
       <c r="G211">
         <v>125400</v>
@@ -7078,13 +7705,16 @@
         <v>-0.0347431348699534</v>
       </c>
       <c r="I211">
-        <v>0.1742007290684429</v>
+        <v>0.07573073919025217</v>
       </c>
       <c r="J211">
         <v>0.1742007290684429</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.1742007290684429</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>34.25</v>
       </c>
       <c r="F212">
-        <v>25.4067268371582</v>
+        <v>25.29680252075195</v>
       </c>
       <c r="G212">
         <v>134400</v>
@@ -7110,13 +7740,16 @@
         <v>0.07198745484001501</v>
       </c>
       <c r="I212">
-        <v>0.2119603581954808</v>
+        <v>0.07590895656355465</v>
       </c>
       <c r="J212">
         <v>0.2119603581954808</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.2119603581954808</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7133,7 +7766,7 @@
         <v>34.18999862670898</v>
       </c>
       <c r="F213">
-        <v>25.36221885681152</v>
+        <v>25.25248718261719</v>
       </c>
       <c r="G213">
         <v>258100</v>
@@ -7142,13 +7775,16 @@
         <v>-0.001751864913606349</v>
       </c>
       <c r="I213">
-        <v>0.2351877980404473</v>
+        <v>0.07558399133199965</v>
       </c>
       <c r="J213">
         <v>0.2351877980404473</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.2351877980404473</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7165,7 +7801,7 @@
         <v>34.40000152587891</v>
       </c>
       <c r="F214">
-        <v>25.51800155639648</v>
+        <v>25.40759658813477</v>
       </c>
       <c r="G214">
         <v>75100</v>
@@ -7174,13 +7810,16 @@
         <v>0.006142231869113557</v>
       </c>
       <c r="I214">
-        <v>0.2023768190145521</v>
+        <v>0.07556019739035204</v>
       </c>
       <c r="J214">
         <v>0.2023768190145521</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.2023768190145521</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>35.83000183105469</v>
       </c>
       <c r="F215">
-        <v>26.75704956054688</v>
+        <v>26.64128494262695</v>
       </c>
       <c r="G215">
         <v>66800</v>
@@ -7206,13 +7845,16 @@
         <v>0.04156977446934129</v>
       </c>
       <c r="I215">
-        <v>0.18642387171805</v>
+        <v>0.0753740353401226</v>
       </c>
       <c r="J215">
         <v>0.18642387171805</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.18642387171805</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>34.11999893188477</v>
       </c>
       <c r="F216">
-        <v>25.48005676269531</v>
+        <v>25.36981773376465</v>
       </c>
       <c r="G216">
         <v>187200</v>
@@ -7238,13 +7880,16 @@
         <v>-0.04772544827747738</v>
       </c>
       <c r="I216">
-        <v>0.06425444386630375</v>
+        <v>0.07550058625830987</v>
       </c>
       <c r="J216">
         <v>0.06425444386630375</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0.06425444386630375</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>36.4900016784668</v>
       </c>
       <c r="F217">
-        <v>27.24991989135742</v>
+        <v>27.13201904296875</v>
       </c>
       <c r="G217">
         <v>173300</v>
@@ -7270,13 +7915,16 @@
         <v>0.06946080951858669</v>
       </c>
       <c r="I217">
-        <v>0.1283241034724243</v>
+        <v>0.07561607287932616</v>
       </c>
       <c r="J217">
         <v>0.1283241034724243</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.1283241034724243</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>36.61999893188477</v>
       </c>
       <c r="F218">
-        <v>27.34700012207031</v>
+        <v>27.22868347167969</v>
       </c>
       <c r="G218">
         <v>37300</v>
@@ -7302,13 +7950,16 @@
         <v>0.003562544462547335</v>
       </c>
       <c r="I218">
-        <v>0.1264226644893205</v>
+        <v>0.07556007572572727</v>
       </c>
       <c r="J218">
         <v>0.1264226644893205</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.1264226644893205</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>36.86999893188477</v>
       </c>
       <c r="F219">
-        <v>27.53369522094727</v>
+        <v>27.41456604003906</v>
       </c>
       <c r="G219">
         <v>177700</v>
@@ -7334,13 +7985,16 @@
         <v>0.006826870761657222</v>
       </c>
       <c r="I219">
-        <v>0.1122171111546346</v>
+        <v>0.07555090031699536</v>
       </c>
       <c r="J219">
         <v>0.1122171111546346</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0.1122171111546346</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>36.9900016784668</v>
       </c>
       <c r="F220">
-        <v>27.62330627441406</v>
+        <v>27.50379943847656</v>
       </c>
       <c r="G220">
         <v>188600</v>
@@ -7366,13 +8020,16 @@
         <v>0.003254753188459025</v>
       </c>
       <c r="I220">
-        <v>0.1294657001058563</v>
+        <v>0.07554554788172302</v>
       </c>
       <c r="J220">
         <v>0.1294657001058563</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.1294657001058563</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>35.27999877929688</v>
       </c>
       <c r="F221">
-        <v>27.09512710571289</v>
+        <v>26.97789573669434</v>
       </c>
       <c r="G221">
         <v>154200</v>
@@ -7398,13 +8055,16 @@
         <v>-0.04622878674172581</v>
       </c>
       <c r="I221">
-        <v>0.1834954515716751</v>
+        <v>0.07566761102979427</v>
       </c>
       <c r="J221">
         <v>0.1834954515716751</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.1834954515716751</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>34.11000061035156</v>
       </c>
       <c r="F222">
-        <v>26.19656181335449</v>
+        <v>26.08322525024414</v>
       </c>
       <c r="G222">
         <v>323100</v>
@@ -7430,13 +8090,16 @@
         <v>-0.0331632145529408</v>
       </c>
       <c r="I222">
-        <v>0.03051366111149911</v>
+        <v>0.07548221410400589</v>
       </c>
       <c r="J222">
         <v>0.03051366111149911</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.03051366111149911</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>34.04999923706055</v>
       </c>
       <c r="F223">
-        <v>26.15048217773438</v>
+        <v>26.0373420715332</v>
       </c>
       <c r="G223">
         <v>147900</v>
@@ -7462,13 +8125,16 @@
         <v>-0.001759055180808322</v>
       </c>
       <c r="I223">
-        <v>0.06572765020265647</v>
+        <v>0.07547304152657769</v>
       </c>
       <c r="J223">
         <v>0.06572765020265647</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.06572765020265647</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7485,7 +8151,7 @@
         <v>33.09000015258789</v>
       </c>
       <c r="F224">
-        <v>25.4132022857666</v>
+        <v>25.30324935913086</v>
       </c>
       <c r="G224">
         <v>228700</v>
@@ -7494,13 +8160,16 @@
         <v>-0.02819380634310786</v>
       </c>
       <c r="I224">
-        <v>-0.03386860868356523</v>
+        <v>0.07518545237495447</v>
       </c>
       <c r="J224">
         <v>-0.03386860868356523</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>-0.03386860868356523</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>32.91999816894531</v>
       </c>
       <c r="F225">
-        <v>25.28264045715332</v>
+        <v>25.17325401306152</v>
       </c>
       <c r="G225">
         <v>329600</v>
@@ -7526,13 +8195,16 @@
         <v>-0.005137563700775116</v>
       </c>
       <c r="I225">
-        <v>-0.03714537902237747</v>
+        <v>0.07519451520252443</v>
       </c>
       <c r="J225">
         <v>-0.03714537902237747</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>-0.03714537902237747</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7549,7 +8221,7 @@
         <v>33.52999877929688</v>
       </c>
       <c r="F226">
-        <v>25.75112533569336</v>
+        <v>25.63970947265625</v>
       </c>
       <c r="G226">
         <v>25800</v>
@@ -7558,13 +8230,16 @@
         <v>0.01852978870840283</v>
       </c>
       <c r="I226">
-        <v>-0.02529077639509791</v>
+        <v>0.07422480223961926</v>
       </c>
       <c r="J226">
         <v>-0.02529077639509791</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>-0.02529077639509791</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7581,7 +8256,7 @@
         <v>31.67000007629395</v>
       </c>
       <c r="F227">
-        <v>24.50284385681152</v>
+        <v>24.39682960510254</v>
       </c>
       <c r="G227">
         <v>383200</v>
@@ -7590,13 +8265,16 @@
         <v>-0.05547267434293457</v>
       </c>
       <c r="I227">
-        <v>-0.1161038666527551</v>
+        <v>0.07442801440908196</v>
       </c>
       <c r="J227">
         <v>-0.1161038666527551</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.1161038666527551</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>32.43999862670898</v>
       </c>
       <c r="F228">
-        <v>25.09858512878418</v>
+        <v>24.98999786376953</v>
       </c>
       <c r="G228">
         <v>218700</v>
@@ -7622,13 +8300,16 @@
         <v>0.02431318435617591</v>
       </c>
       <c r="I228">
-        <v>-0.0492379940729083</v>
+        <v>0.07426450215732733</v>
       </c>
       <c r="J228">
         <v>-0.0492379940729083</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>-0.0492379940729083</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>34.72000122070312</v>
       </c>
       <c r="F229">
-        <v>26.86260604858398</v>
+        <v>26.74638557434082</v>
       </c>
       <c r="G229">
         <v>128700</v>
@@ -7654,13 +8335,16 @@
         <v>0.0702836834313838</v>
       </c>
       <c r="I229">
-        <v>-0.04850645043428903</v>
+        <v>0.07434825787361789</v>
       </c>
       <c r="J229">
         <v>-0.04850645043428903</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>-0.04850645043428903</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>33.47999954223633</v>
       </c>
       <c r="F230">
-        <v>25.90322113037109</v>
+        <v>25.79115295410156</v>
       </c>
       <c r="G230">
         <v>207300</v>
@@ -7686,13 +8370,16 @@
         <v>-0.035714332801561</v>
       </c>
       <c r="I230">
-        <v>-0.08574548009924876</v>
+        <v>0.07435978116536984</v>
       </c>
       <c r="J230">
         <v>-0.08574548009924876</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.08574548009924876</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>34.02000045776367</v>
       </c>
       <c r="F231">
-        <v>26.32101821899414</v>
+        <v>26.20713996887207</v>
       </c>
       <c r="G231">
         <v>590300</v>
@@ -7718,13 +8405,16 @@
         <v>0.01612905982409329</v>
       </c>
       <c r="I231">
-        <v>-0.07729857761553793</v>
+        <v>0.07433988989830859</v>
       </c>
       <c r="J231">
         <v>-0.07729857761553793</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>-0.07729857761553793</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>33.95999908447266</v>
       </c>
       <c r="F232">
-        <v>26.27459716796875</v>
+        <v>26.16091728210449</v>
       </c>
       <c r="G232">
         <v>149600</v>
@@ -7750,13 +8440,16 @@
         <v>-0.001763708773769967</v>
       </c>
       <c r="I232">
-        <v>-0.08191409722909027</v>
+        <v>0.07433889885209816</v>
       </c>
       <c r="J232">
         <v>-0.08191409722909027</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>-0.08191409722909027</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>31.77000045776367</v>
       </c>
       <c r="F233">
-        <v>25.44233703613281</v>
+        <v>25.33226013183594</v>
       </c>
       <c r="G233">
         <v>209900</v>
@@ -7782,13 +8475,16 @@
         <v>-0.06448759380886748</v>
       </c>
       <c r="I233">
-        <v>-0.09948975178516595</v>
+        <v>0.07460923279135855</v>
       </c>
       <c r="J233">
         <v>-0.09948975178516595</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>-0.09948975178516595</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>32.04000091552734</v>
       </c>
       <c r="F234">
-        <v>25.65856170654297</v>
+        <v>25.54754638671875</v>
       </c>
       <c r="G234">
         <v>207800</v>
@@ -7814,13 +8510,16 @@
         <v>0.008498597855628676</v>
       </c>
       <c r="I234">
-        <v>-0.0606860057984292</v>
+        <v>0.07445392190590687</v>
       </c>
       <c r="J234">
         <v>-0.0606860057984292</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>-0.0606860057984292</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7837,7 +8536,7 @@
         <v>30.34000015258789</v>
       </c>
       <c r="F235">
-        <v>24.29715347290039</v>
+        <v>24.19202995300293</v>
       </c>
       <c r="G235">
         <v>788500</v>
@@ -7846,13 +8545,16 @@
         <v>-0.0530586989501487</v>
       </c>
       <c r="I235">
-        <v>-0.1089573911189589</v>
+        <v>0.07463819250908109</v>
       </c>
       <c r="J235">
         <v>-0.1089573911189589</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.1089573911189589</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7869,7 +8571,7 @@
         <v>29.03000068664551</v>
       </c>
       <c r="F236">
-        <v>23.24806594848633</v>
+        <v>23.14748382568359</v>
       </c>
       <c r="G236">
         <v>507800</v>
@@ -7878,13 +8580,16 @@
         <v>-0.04317730584555202</v>
       </c>
       <c r="I236">
-        <v>-0.1226956617473711</v>
+        <v>0.0747281943019282</v>
       </c>
       <c r="J236">
         <v>-0.1226956617473711</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.1226956617473711</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7901,7 +8606,7 @@
         <v>30.14999961853027</v>
       </c>
       <c r="F237">
-        <v>24.14499282836914</v>
+        <v>24.04052925109863</v>
       </c>
       <c r="G237">
         <v>246300</v>
@@ -7910,13 +8615,16 @@
         <v>0.03858074079894847</v>
       </c>
       <c r="I237">
-        <v>-0.08414333853238443</v>
+        <v>0.07459444163829235</v>
       </c>
       <c r="J237">
         <v>-0.08414333853238443</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>-0.08414333853238443</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>30.27000045776367</v>
       </c>
       <c r="F238">
-        <v>24.24109268188477</v>
+        <v>24.13621139526367</v>
       </c>
       <c r="G238">
         <v>229900</v>
@@ -7942,13 +8650,16 @@
         <v>0.003980127388115928</v>
       </c>
       <c r="I238">
-        <v>-0.09722631793073888</v>
+        <v>0.07459430888556008</v>
       </c>
       <c r="J238">
         <v>-0.09722631793073888</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.09722631793073888</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7965,7 +8676,7 @@
         <v>29.18000030517578</v>
       </c>
       <c r="F239">
-        <v>23.38955116271973</v>
+        <v>23.28835678100586</v>
       </c>
       <c r="G239">
         <v>210000</v>
@@ -7974,13 +8685,16 @@
         <v>-0.03600925457892834</v>
       </c>
       <c r="I239">
-        <v>-0.07862329539373802</v>
+        <v>0.07454367205038681</v>
       </c>
       <c r="J239">
         <v>-0.07862329539373802</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>-0.07862329539373802</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -7997,7 +8711,7 @@
         <v>27.3700008392334</v>
       </c>
       <c r="F240">
-        <v>21.9387264251709</v>
+        <v>21.84380912780762</v>
       </c>
       <c r="G240">
         <v>338000</v>
@@ -8006,13 +8720,16 @@
         <v>-0.06202876788940048</v>
       </c>
       <c r="I240">
-        <v>-0.1562884710883212</v>
+        <v>0.07463478229542651</v>
       </c>
       <c r="J240">
         <v>-0.1562884710883212</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.1562884710883212</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8029,7 +8746,7 @@
         <v>27.44000053405762</v>
       </c>
       <c r="F241">
-        <v>21.99483299255371</v>
+        <v>21.8996753692627</v>
       </c>
       <c r="G241">
         <v>176700</v>
@@ -8038,13 +8755,16 @@
         <v>0.002557533528602551</v>
       </c>
       <c r="I241">
-        <v>-0.209677431759551</v>
+        <v>0.07462581229864726</v>
       </c>
       <c r="J241">
         <v>-0.209677431759551</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.209677431759551</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>29.45000076293945</v>
       </c>
       <c r="F242">
-        <v>23.60597229003906</v>
+        <v>23.50384140014648</v>
       </c>
       <c r="G242">
         <v>200300</v>
@@ -8070,13 +8790,16 @@
         <v>0.0732507357784884</v>
       </c>
       <c r="I242">
-        <v>-0.120370335555497</v>
+        <v>0.07454605243507707</v>
       </c>
       <c r="J242">
         <v>-0.120370335555497</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.120370335555497</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>30.22999954223633</v>
       </c>
       <c r="F243">
-        <v>24.23118591308594</v>
+        <v>24.12635040283203</v>
       </c>
       <c r="G243">
         <v>264700</v>
@@ -8102,13 +8825,16 @@
         <v>0.02648552662444903</v>
       </c>
       <c r="I243">
-        <v>-0.1114050812619091</v>
+        <v>0.07441027537156419</v>
       </c>
       <c r="J243">
         <v>-0.1114050812619091</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.1114050812619091</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>29.54999923706055</v>
       </c>
       <c r="F244">
-        <v>23.68612670898438</v>
+        <v>23.58364868164062</v>
       </c>
       <c r="G244">
         <v>263900</v>
@@ -8134,13 +8860,16 @@
         <v>-0.02249422148438041</v>
       </c>
       <c r="I244">
-        <v>-0.1298586562515094</v>
+        <v>0.07413714073777261</v>
       </c>
       <c r="J244">
         <v>-0.1298586562515094</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.1298586562515094</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8157,7 +8886,7 @@
         <v>27.35000038146973</v>
       </c>
       <c r="F245">
-        <v>22.79072570800781</v>
+        <v>22.69212341308594</v>
       </c>
       <c r="G245">
         <v>444100</v>
@@ -8166,13 +8895,16 @@
         <v>-0.07445004779667341</v>
       </c>
       <c r="I245">
-        <v>-0.1391249610515453</v>
+        <v>0.07448153495805052</v>
       </c>
       <c r="J245">
         <v>-0.1391249610515453</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.1391249610515453</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>28.03000068664551</v>
       </c>
       <c r="F246">
-        <v>23.35737037658691</v>
+        <v>23.25631523132324</v>
       </c>
       <c r="G246">
         <v>382700</v>
@@ -8198,13 +8930,16 @@
         <v>0.02486289929401608</v>
       </c>
       <c r="I246">
-        <v>-0.1251560584986905</v>
+        <v>0.07449492726446365</v>
       </c>
       <c r="J246">
         <v>-0.1251560584986905</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.1251560584986905</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>28.55999946594238</v>
       </c>
       <c r="F247">
-        <v>23.79901885986328</v>
+        <v>23.69604873657227</v>
       </c>
       <c r="G247">
         <v>139500</v>
@@ -8230,13 +8965,16 @@
         <v>0.01890826850922567</v>
       </c>
       <c r="I247">
-        <v>-0.05866844685871497</v>
+        <v>0.0744520509664811</v>
       </c>
       <c r="J247">
         <v>-0.05866844685871497</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>-0.05866844685871497</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>29.06999969482422</v>
       </c>
       <c r="F248">
-        <v>24.22400093078613</v>
+        <v>24.11919593811035</v>
       </c>
       <c r="G248">
         <v>370900</v>
@@ -8262,13 +9000,16 @@
         <v>0.01785715120513243</v>
       </c>
       <c r="I248">
-        <v>0.001377850748626175</v>
+        <v>0.07434850497247111</v>
       </c>
       <c r="J248">
         <v>0.001377850748626175</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0.001377850748626175</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>27.54000091552734</v>
       </c>
       <c r="F249">
-        <v>22.94905471801758</v>
+        <v>22.84976577758789</v>
       </c>
       <c r="G249">
         <v>319300</v>
@@ -8294,13 +9035,16 @@
         <v>-0.05263153750804084</v>
       </c>
       <c r="I249">
-        <v>-0.08656712225624097</v>
+        <v>0.07432353412879905</v>
       </c>
       <c r="J249">
         <v>-0.08656712225624097</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>-0.08656712225624097</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8317,7 +9061,7 @@
         <v>27.48999977111816</v>
       </c>
       <c r="F250">
-        <v>22.90738868713379</v>
+        <v>22.80827331542969</v>
       </c>
       <c r="G250">
         <v>362600</v>
@@ -8326,13 +9070,16 @@
         <v>-0.001815582525307335</v>
       </c>
       <c r="I250">
-        <v>-0.09184012701038768</v>
+        <v>0.07423200899857481</v>
       </c>
       <c r="J250">
         <v>-0.09184012701038768</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>-0.09184012701038768</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8349,7 +9096,7 @@
         <v>28.72999954223633</v>
       </c>
       <c r="F251">
-        <v>23.94492340087891</v>
+        <v>23.84132957458496</v>
       </c>
       <c r="G251">
         <v>383900</v>
@@ -8358,13 +9105,16 @@
         <v>0.04510730379928729</v>
       </c>
       <c r="I251">
-        <v>-0.0154215475748174</v>
+        <v>0.07405022891786639</v>
       </c>
       <c r="J251">
         <v>-0.0154215475748174</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>-0.0154215475748174</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8381,7 +9131,7 @@
         <v>30.5</v>
       </c>
       <c r="F252">
-        <v>25.42012596130371</v>
+        <v>25.31014633178711</v>
       </c>
       <c r="G252">
         <v>315300</v>
@@ -8390,13 +9140,16 @@
         <v>0.06160809209765472</v>
       </c>
       <c r="I252">
-        <v>0.1143587528240013</v>
+        <v>0.07424088393014586</v>
       </c>
       <c r="J252">
         <v>0.1143587528240013</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.1143587528240013</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>30.30999946594238</v>
       </c>
       <c r="F253">
-        <v>25.26177215576172</v>
+        <v>25.1524772644043</v>
       </c>
       <c r="G253">
         <v>370900</v>
@@ -8422,13 +9175,16 @@
         <v>-0.006229525706807126</v>
       </c>
       <c r="I253">
-        <v>0.1045917957735685</v>
+        <v>0.07413639612347157</v>
       </c>
       <c r="J253">
         <v>0.1045917957735685</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.1045917957735685</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8445,7 +9201,7 @@
         <v>31.56999969482422</v>
       </c>
       <c r="F254">
-        <v>26.31191635131836</v>
+        <v>26.19807624816895</v>
       </c>
       <c r="G254">
         <v>304700</v>
@@ -8454,13 +9210,16 @@
         <v>0.04157044708290503</v>
       </c>
       <c r="I254">
-        <v>0.07198637952337927</v>
+        <v>0.07398559154732059</v>
       </c>
       <c r="J254">
         <v>0.07198637952337927</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.07198637952337927</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8477,7 +9236,7 @@
         <v>33.11000061035156</v>
       </c>
       <c r="F255">
-        <v>27.59542083740234</v>
+        <v>27.47603225708008</v>
       </c>
       <c r="G255">
         <v>260300</v>
@@ -8486,13 +9245,16 @@
         <v>0.04878051727633759</v>
       </c>
       <c r="I255">
-        <v>0.09526963651095643</v>
+        <v>0.0734994901027461</v>
       </c>
       <c r="J255">
         <v>0.09526963651095643</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.09526963651095643</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>34.04999923706055</v>
       </c>
       <c r="F256">
-        <v>28.37886238098145</v>
+        <v>28.25608062744141</v>
       </c>
       <c r="G256">
         <v>383800</v>
@@ -8518,13 +9280,16 @@
         <v>0.02839017243675612</v>
       </c>
       <c r="I256">
-        <v>0.1522842678911565</v>
+        <v>0.07352721672122586</v>
       </c>
       <c r="J256">
         <v>0.1522842678911565</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.1522842678911565</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>33.91999816894531</v>
       </c>
       <c r="F257">
-        <v>28.90596008300781</v>
+        <v>28.78089714050293</v>
       </c>
       <c r="G257">
         <v>469500</v>
@@ -8550,13 +9315,16 @@
         <v>-0.003817946285700313</v>
       </c>
       <c r="I257">
-        <v>0.2402192941805923</v>
+        <v>0.07351290745691338</v>
       </c>
       <c r="J257">
         <v>0.2402192941805923</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.2402192941805923</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8573,7 +9341,7 @@
         <v>34.15000152587891</v>
       </c>
       <c r="F258">
-        <v>29.10196304321289</v>
+        <v>28.97605133056641</v>
       </c>
       <c r="G258">
         <v>299000</v>
@@ -8582,13 +9350,16 @@
         <v>0.006780759709597239</v>
       </c>
       <c r="I258">
-        <v>0.2183375201324624</v>
+        <v>0.07350731118348133</v>
       </c>
       <c r="J258">
         <v>0.2183375201324624</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.2183375201324624</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8605,7 +9376,7 @@
         <v>34.72000122070312</v>
       </c>
       <c r="F259">
-        <v>29.58770370483398</v>
+        <v>29.45969772338867</v>
       </c>
       <c r="G259">
         <v>158100</v>
@@ -8614,13 +9385,16 @@
         <v>0.01669105913193802</v>
       </c>
       <c r="I259">
-        <v>0.2156863399842324</v>
+        <v>0.07344876608168954</v>
       </c>
       <c r="J259">
         <v>0.2156863399842324</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.2156863399842324</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>35.88000106811523</v>
       </c>
       <c r="F260">
-        <v>30.57623481750488</v>
+        <v>30.44394493103027</v>
       </c>
       <c r="G260">
         <v>253500</v>
@@ -8646,13 +9420,16 @@
         <v>0.0334101326793852</v>
       </c>
       <c r="I260">
-        <v>0.2342621756031014</v>
+        <v>0.07325222412584513</v>
       </c>
       <c r="J260">
         <v>0.2342621756031014</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.2342621756031014</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>35.58000183105469</v>
       </c>
       <c r="F261">
-        <v>30.32058334350586</v>
+        <v>30.18939971923828</v>
       </c>
       <c r="G261">
         <v>133100</v>
@@ -8678,13 +9455,16 @@
         <v>-0.008361182500831621</v>
       </c>
       <c r="I261">
-        <v>0.2919390213598108</v>
+        <v>0.07321334391693655</v>
       </c>
       <c r="J261">
         <v>0.2919390213598108</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.2919390213598108</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8701,7 +9481,7 @@
         <v>34.27999877929688</v>
       </c>
       <c r="F262">
-        <v>29.21274566650391</v>
+        <v>29.08635520935059</v>
       </c>
       <c r="G262">
         <v>389800</v>
@@ -8710,13 +9490,16 @@
         <v>-0.03653746444226302</v>
       </c>
       <c r="I262">
-        <v>0.2469988746712357</v>
+        <v>0.0728763174797066</v>
       </c>
       <c r="J262">
         <v>0.2469988746712357</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.2469988746712357</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8733,7 +9516,7 @@
         <v>33.90000152587891</v>
       </c>
       <c r="F263">
-        <v>29.17848205566406</v>
+        <v>29.0522403717041</v>
       </c>
       <c r="G263">
         <v>224800</v>
@@ -8742,13 +9525,16 @@
         <v>-0.01108510113621897</v>
       </c>
       <c r="I263">
-        <v>0.1799513423605208</v>
+        <v>0.07257884672452218</v>
       </c>
       <c r="J263">
         <v>0.1799513423605208</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.1799513423605208</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>36.02000045776367</v>
       </c>
       <c r="F264">
-        <v>31.00321197509766</v>
+        <v>30.86907577514648</v>
       </c>
       <c r="G264">
         <v>400500</v>
@@ -8774,13 +9560,16 @@
         <v>0.06253683883366135</v>
       </c>
       <c r="I264">
-        <v>0.1809836215660221</v>
+        <v>0.07222080233508631</v>
       </c>
       <c r="J264">
         <v>0.1809836215660221</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.1809836215660221</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8797,7 +9586,7 @@
         <v>33.91999816894531</v>
       </c>
       <c r="F265">
-        <v>29.19569396972656</v>
+        <v>29.06937980651855</v>
       </c>
       <c r="G265">
         <v>185500</v>
@@ -8806,13 +9595,16 @@
         <v>-0.05830100672210647</v>
       </c>
       <c r="I265">
-        <v>0.1191025657080358</v>
+        <v>0.07237129629229527</v>
       </c>
       <c r="J265">
         <v>0.1191025657080358</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.1191025657080358</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8829,7 +9621,7 @@
         <v>33.47999954223633</v>
       </c>
       <c r="F266">
-        <v>28.81697845458984</v>
+        <v>28.69230079650879</v>
       </c>
       <c r="G266">
         <v>240500</v>
@@ -8838,13 +9630,16 @@
         <v>-0.0129716583272641</v>
       </c>
       <c r="I266">
-        <v>0.0605004708861383</v>
+        <v>0.07231953612958816</v>
       </c>
       <c r="J266">
         <v>0.0605004708861383</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.0605004708861383</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8861,7 +9656,7 @@
         <v>32.84999847412109</v>
       </c>
       <c r="F267">
-        <v>28.27472305297852</v>
+        <v>28.15238952636719</v>
       </c>
       <c r="G267">
         <v>728000</v>
@@ -8870,13 +9665,16 @@
         <v>-0.01881723646144207</v>
       </c>
       <c r="I267">
-        <v>-0.007852676878211229</v>
+        <v>0.07225201675309718</v>
       </c>
       <c r="J267">
         <v>-0.007852676878211229</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>-0.007852676878211229</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8893,7 +9691,7 @@
         <v>32.40999984741211</v>
       </c>
       <c r="F268">
-        <v>27.89600563049316</v>
+        <v>27.77530860900879</v>
       </c>
       <c r="G268">
         <v>514800</v>
@@ -8902,13 +9700,16 @@
         <v>-0.01339417495119855</v>
       </c>
       <c r="I268">
-        <v>-0.04816444717753288</v>
+        <v>0.07225207711283931</v>
       </c>
       <c r="J268">
         <v>-0.04816444717753288</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>-0.04816444717753288</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>30.51000022888184</v>
       </c>
       <c r="F269">
-        <v>27.47735214233398</v>
+        <v>27.35847473144531</v>
       </c>
       <c r="G269">
         <v>245100</v>
@@ -8934,13 +9735,16 @@
         <v>-0.05862387002392988</v>
       </c>
       <c r="I269">
-        <v>-0.1005306050748972</v>
+        <v>0.07006004242812691</v>
       </c>
       <c r="J269">
         <v>-0.1005306050748972</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>-0.1005306050748972</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>32.33000183105469</v>
       </c>
       <c r="F270">
-        <v>29.116455078125</v>
+        <v>28.990478515625</v>
       </c>
       <c r="G270">
         <v>278300</v>
@@ -8966,13 +9770,16 @@
         <v>0.05965262499244339</v>
       </c>
       <c r="I270">
-        <v>-0.05329427857990054</v>
+        <v>0.07023191751319295</v>
       </c>
       <c r="J270">
         <v>-0.05329427857990054</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>-0.05329427857990054</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8989,7 +9796,7 @@
         <v>31.8700008392334</v>
       </c>
       <c r="F271">
-        <v>28.70217132568359</v>
+        <v>28.57799530029297</v>
       </c>
       <c r="G271">
         <v>147300</v>
@@ -8998,13 +9805,16 @@
         <v>-0.01422830082797688</v>
       </c>
       <c r="I271">
-        <v>-0.08208526155725782</v>
+        <v>0.07012212241339717</v>
       </c>
       <c r="J271">
         <v>-0.08208526155725782</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>-0.08208526155725782</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>32.81999969482422</v>
       </c>
       <c r="F272">
-        <v>29.55774688720703</v>
+        <v>29.42986297607422</v>
       </c>
       <c r="G272">
         <v>350800</v>
@@ -9030,13 +9840,16 @@
         <v>0.02980856073343219</v>
       </c>
       <c r="I272">
-        <v>-0.08528431667217218</v>
+        <v>0.06851226763328394</v>
       </c>
       <c r="J272">
         <v>-0.08528431667217218</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.08528431667217218</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9053,7 +9866,7 @@
         <v>29.36000061035156</v>
       </c>
       <c r="F273">
-        <v>26.44165992736816</v>
+        <v>26.32726097106934</v>
       </c>
       <c r="G273">
         <v>238100</v>
@@ -9062,13 +9875,16 @@
         <v>-0.1054234953274026</v>
       </c>
       <c r="I273">
-        <v>-0.1748173384093035</v>
+        <v>0.06497123391853581</v>
       </c>
       <c r="J273">
         <v>-0.1748173384093035</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.1748173384093035</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9085,7 +9901,7 @@
         <v>29.15999984741211</v>
       </c>
       <c r="F274">
-        <v>26.26154136657715</v>
+        <v>26.14792251586914</v>
       </c>
       <c r="G274">
         <v>337600</v>
@@ -9094,13 +9910,16 @@
         <v>-0.006812014944881817</v>
       </c>
       <c r="I274">
-        <v>-0.1493582005311198</v>
+        <v>0.06466523017619374</v>
       </c>
       <c r="J274">
         <v>-0.1493582005311198</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.1493582005311198</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>28.23999977111816</v>
       </c>
       <c r="F275">
-        <v>25.44845581054688</v>
+        <v>25.33835220336914</v>
       </c>
       <c r="G275">
         <v>506800</v>
@@ -9126,13 +9945,16 @@
         <v>-0.03155007136859067</v>
       </c>
       <c r="I275">
-        <v>-0.1669616961651154</v>
+        <v>0.06430853610247558</v>
       </c>
       <c r="J275">
         <v>-0.1669616961651154</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.1669616961651154</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9149,7 +9971,7 @@
         <v>29.81999969482422</v>
       </c>
       <c r="F276">
-        <v>26.87227058410645</v>
+        <v>26.75600814819336</v>
       </c>
       <c r="G276">
         <v>683600</v>
@@ -9158,13 +9980,16 @@
         <v>0.05594900625041666</v>
       </c>
       <c r="I276">
-        <v>-0.1721266153288767</v>
+        <v>0.06268072864780422</v>
       </c>
       <c r="J276">
         <v>-0.1721266153288767</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.1721266153288767</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9181,7 +10006,7 @@
         <v>30.15999984741211</v>
       </c>
       <c r="F277">
-        <v>27.17866325378418</v>
+        <v>27.06107330322266</v>
       </c>
       <c r="G277">
         <v>390000</v>
@@ -9190,13 +10015,16 @@
         <v>0.01140174902975954</v>
       </c>
       <c r="I277">
-        <v>-0.1108490131044755</v>
+        <v>0.06252276598974363</v>
       </c>
       <c r="J277">
         <v>-0.1108490131044755</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.1108490131044755</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9213,7 +10041,7 @@
         <v>30.21999931335449</v>
       </c>
       <c r="F278">
-        <v>27.23273086547852</v>
+        <v>27.11491012573242</v>
       </c>
       <c r="G278">
         <v>575800</v>
@@ -9222,13 +10050,16 @@
         <v>0.001989372223008434</v>
       </c>
       <c r="I278">
-        <v>-0.09737157328121282</v>
+        <v>0.06186223156712577</v>
       </c>
       <c r="J278">
         <v>-0.09737157328121282</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.09737157328121282</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>32.20999908447266</v>
       </c>
       <c r="F279">
-        <v>29.0260181427002</v>
+        <v>28.90043640136719</v>
       </c>
       <c r="G279">
         <v>808300</v>
@@ -9254,13 +10085,16 @@
         <v>0.0658504241010609</v>
       </c>
       <c r="I279">
-        <v>-0.01948247851982776</v>
+        <v>0.05851870749194584</v>
       </c>
       <c r="J279">
         <v>-0.01948247851982776</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.01948247851982776</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9277,7 +10111,7 @@
         <v>29.18000030517578</v>
       </c>
       <c r="F280">
-        <v>26.29553604125977</v>
+        <v>26.18177032470703</v>
       </c>
       <c r="G280">
         <v>514700</v>
@@ -9286,13 +10120,16 @@
         <v>-0.094070129320728</v>
       </c>
       <c r="I280">
-        <v>-0.09966058492574292</v>
+        <v>0.05851942820516325</v>
       </c>
       <c r="J280">
         <v>-0.09966058492574292</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.09966058492574292</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9309,7 +10146,7 @@
         <v>30.84000015258789</v>
       </c>
       <c r="F281">
-        <v>28.6788330078125</v>
+        <v>28.55475425720215</v>
       </c>
       <c r="G281">
         <v>446300</v>
@@ -9318,13 +10155,16 @@
         <v>0.0568882738194374</v>
       </c>
       <c r="I281">
-        <v>0.0108161232786117</v>
+        <v>0.05862319404139248</v>
       </c>
       <c r="J281">
         <v>0.0108161232786117</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>0.0108161232786117</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>29.20999908447266</v>
       </c>
       <c r="F282">
-        <v>27.16305541992188</v>
+        <v>27.04553604125977</v>
       </c>
       <c r="G282">
         <v>903200</v>
@@ -9350,13 +10190,16 @@
         <v>-0.05285347146726438</v>
       </c>
       <c r="I282">
-        <v>-0.09650487379759753</v>
+        <v>0.05642197759065424</v>
       </c>
       <c r="J282">
         <v>-0.09650487379759753</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.09650487379759753</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9373,7 +10216,7 @@
         <v>28.31999969482422</v>
       </c>
       <c r="F283">
-        <v>26.33542633056641</v>
+        <v>26.22148513793945</v>
       </c>
       <c r="G283">
         <v>659500</v>
@@ -9382,13 +10225,16 @@
         <v>-0.03046899751946719</v>
       </c>
       <c r="I283">
-        <v>-0.1113900549396588</v>
+        <v>0.05639741301124334</v>
       </c>
       <c r="J283">
         <v>-0.1113900549396588</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.1113900549396588</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9405,7 +10251,7 @@
         <v>29.45000076293945</v>
       </c>
       <c r="F284">
-        <v>27.38624000549316</v>
+        <v>27.26775360107422</v>
       </c>
       <c r="G284">
         <v>330500</v>
@@ -9414,13 +10260,16 @@
         <v>0.03990116808941058</v>
       </c>
       <c r="I284">
-        <v>-0.1026812603053199</v>
+        <v>0.05649263367538108</v>
       </c>
       <c r="J284">
         <v>-0.1026812603053199</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>-0.1026812603053199</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9437,7 +10286,7 @@
         <v>31.52000045776367</v>
       </c>
       <c r="F285">
-        <v>29.31117820739746</v>
+        <v>29.18436431884766</v>
       </c>
       <c r="G285">
         <v>634500</v>
@@ -9446,13 +10295,16 @@
         <v>0.07028861260435537</v>
       </c>
       <c r="I285">
-        <v>0.0735694755622911</v>
+        <v>0.05681357121791391</v>
       </c>
       <c r="J285">
         <v>0.0735694755622911</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.0735694755622911</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9469,7 +10321,7 @@
         <v>31.71999931335449</v>
       </c>
       <c r="F286">
-        <v>29.49716186523438</v>
+        <v>29.36954307556152</v>
       </c>
       <c r="G286">
         <v>229800</v>
@@ -9478,13 +10330,16 @@
         <v>0.006345141265426513</v>
       </c>
       <c r="I286">
-        <v>0.08779147734356307</v>
+        <v>0.05675599820827763</v>
       </c>
       <c r="J286">
         <v>0.08779147734356307</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.08779147734356307</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9501,7 +10356,7 @@
         <v>32.90000152587891</v>
       </c>
       <c r="F287">
-        <v>30.98245429992676</v>
+        <v>30.84840774536133</v>
       </c>
       <c r="G287">
         <v>183500</v>
@@ -9510,13 +10365,16 @@
         <v>0.03720057497061857</v>
       </c>
       <c r="I287">
-        <v>0.1650142277807898</v>
+        <v>0.05675019266189352</v>
       </c>
       <c r="J287">
         <v>0.1650142277807898</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.1650142277807898</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>32.0099983215332</v>
       </c>
       <c r="F288">
-        <v>30.14432716369629</v>
+        <v>30.0139045715332</v>
       </c>
       <c r="G288">
         <v>531000</v>
@@ -9542,13 +10400,16 @@
         <v>-0.02705176787440677</v>
       </c>
       <c r="I288">
-        <v>0.07344059856208163</v>
+        <v>0.05671877601191975</v>
       </c>
       <c r="J288">
         <v>0.07344059856208163</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.07344059856208163</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9565,7 +10426,7 @@
         <v>30.3799991607666</v>
       </c>
       <c r="F289">
-        <v>28.60932922363281</v>
+        <v>28.48554992675781</v>
       </c>
       <c r="G289">
         <v>894000</v>
@@ -9574,13 +10435,16 @@
         <v>-0.05092156345631849</v>
       </c>
       <c r="I289">
-        <v>0.007294406978366474</v>
+        <v>0.05679657140914325</v>
       </c>
       <c r="J289">
         <v>0.007294406978366474</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>0.007294406978366474</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9597,7 +10461,7 @@
         <v>25.59000015258789</v>
       </c>
       <c r="F290">
-        <v>24.09851264953613</v>
+        <v>23.9942455291748</v>
       </c>
       <c r="G290">
         <v>484000</v>
@@ -9606,13 +10470,16 @@
         <v>-0.1576694911290393</v>
       </c>
       <c r="I290">
-        <v>-0.1532097705482264</v>
+        <v>0.0583811672915588</v>
       </c>
       <c r="J290">
         <v>-0.1532097705482264</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.1532097705482264</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9629,7 +10496,7 @@
         <v>27.44000053405762</v>
       </c>
       <c r="F291">
-        <v>25.8406867980957</v>
+        <v>25.72888374328613</v>
       </c>
       <c r="G291">
         <v>327500</v>
@@ -9638,13 +10505,16 @@
         <v>0.07229387926684461</v>
       </c>
       <c r="I291">
-        <v>-0.1480906142811563</v>
+        <v>0.05860440683920401</v>
       </c>
       <c r="J291">
         <v>-0.1480906142811563</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.1480906142811563</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9661,7 +10531,7 @@
         <v>30.19000053405762</v>
       </c>
       <c r="F292">
-        <v>28.43040466308594</v>
+        <v>28.30739974975586</v>
       </c>
       <c r="G292">
         <v>172800</v>
@@ -9670,13 +10540,16 @@
         <v>0.1002186569415986</v>
       </c>
       <c r="I292">
-        <v>0.03461275593964563</v>
+        <v>0.05782213352641564</v>
       </c>
       <c r="J292">
         <v>0.03461275593964563</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>0.03461275593964563</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9693,7 +10566,7 @@
         <v>31.06999969482422</v>
       </c>
       <c r="F293">
-        <v>29.35138320922852</v>
+        <v>29.22439384460449</v>
       </c>
       <c r="G293">
         <v>290100</v>
@@ -9702,13 +10575,16 @@
         <v>0.02914869642926532</v>
       </c>
       <c r="I293">
-        <v>0.007457832071930959</v>
+        <v>0.05786646062968348</v>
       </c>
       <c r="J293">
         <v>0.007457832071930959</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>0.007457832071930959</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9725,7 +10601,7 @@
         <v>33.86000061035156</v>
       </c>
       <c r="F294">
-        <v>31.98705673217773</v>
+        <v>31.84866333007812</v>
       </c>
       <c r="G294">
         <v>404800</v>
@@ -9734,13 +10610,16 @@
         <v>0.08979726240525565</v>
       </c>
       <c r="I294">
-        <v>0.1591921147423363</v>
+        <v>0.0570046674265786</v>
       </c>
       <c r="J294">
         <v>0.1591921147423363</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>0.1591921147423363</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9757,7 +10636,7 @@
         <v>35.68999862670898</v>
       </c>
       <c r="F295">
-        <v>33.71582794189453</v>
+        <v>33.5699577331543</v>
       </c>
       <c r="G295">
         <v>260600</v>
@@ -9766,13 +10645,16 @@
         <v>0.05404601250355445</v>
       </c>
       <c r="I295">
-        <v>0.260240078082759</v>
+        <v>0.05678197246787876</v>
       </c>
       <c r="J295">
         <v>0.260240078082759</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>0.260240078082759</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9789,7 +10671,7 @@
         <v>35.31000137329102</v>
       </c>
       <c r="F296">
-        <v>33.35684967041016</v>
+        <v>33.2125358581543</v>
       </c>
       <c r="G296">
         <v>66400</v>
@@ -9798,13 +10680,16 @@
         <v>-0.01064716357634132</v>
       </c>
       <c r="I296">
-        <v>0.1989813398485856</v>
+        <v>0.05405605499283967</v>
       </c>
       <c r="J296">
         <v>0.1989813398485856</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>0.1989813398485856</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9821,7 +10706,7 @@
         <v>33.77999877929688</v>
       </c>
       <c r="F297">
-        <v>31.91147994995117</v>
+        <v>31.77341461181641</v>
       </c>
       <c r="G297">
         <v>423300</v>
@@ -9830,13 +10715,16 @@
         <v>-0.04333057305263821</v>
       </c>
       <c r="I297">
-        <v>0.07170045332206021</v>
+        <v>0.05421997152000669</v>
       </c>
       <c r="J297">
         <v>0.07170045332206021</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>0.07170045332206021</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9853,7 +10741,7 @@
         <v>38.90999984741211</v>
       </c>
       <c r="F298">
-        <v>36.75771713256836</v>
+        <v>36.59868621826172</v>
       </c>
       <c r="G298">
         <v>201300</v>
@@ -9862,13 +10750,16 @@
         <v>0.151865045988673</v>
       </c>
       <c r="I298">
-        <v>0.2266708918568778</v>
+        <v>0.05582473706502789</v>
       </c>
       <c r="J298">
         <v>0.2266708918568778</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>0.2266708918568778</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9885,7 +10776,7 @@
         <v>39.79999923706055</v>
       </c>
       <c r="F299">
-        <v>37.88125610351562</v>
+        <v>37.71736145019531</v>
       </c>
       <c r="G299">
         <v>295700</v>
@@ -9894,13 +10785,16 @@
         <v>0.02287328175632553</v>
       </c>
       <c r="I299">
-        <v>0.2097263644730882</v>
+        <v>0.05514036411723057</v>
       </c>
       <c r="J299">
         <v>0.2097263644730882</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>0.2097263644730882</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9917,7 +10811,7 @@
         <v>40.68999862670898</v>
       </c>
       <c r="F300">
-        <v>38.72834777832031</v>
+        <v>38.56078720092773</v>
       </c>
       <c r="G300">
         <v>263100</v>
@@ -9926,13 +10820,16 @@
         <v>0.02236179413842043</v>
       </c>
       <c r="I300">
-        <v>0.2711652846084882</v>
+        <v>0.05510548121998578</v>
       </c>
       <c r="J300">
         <v>0.2711652846084882</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>0.2711652846084882</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9949,7 +10846,7 @@
         <v>42.02000045776367</v>
       </c>
       <c r="F301">
-        <v>39.99423217773438</v>
+        <v>39.82119750976562</v>
       </c>
       <c r="G301">
         <v>350100</v>
@@ -9958,13 +10855,16 @@
         <v>0.03268620977985659</v>
       </c>
       <c r="I301">
-        <v>0.3831468603866595</v>
+        <v>0.05515939427368156</v>
       </c>
       <c r="J301">
         <v>0.3831468603866595</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.3831468603866595</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9981,7 +10881,7 @@
         <v>44.56000137329102</v>
       </c>
       <c r="F302">
-        <v>42.41178131103516</v>
+        <v>42.22828674316406</v>
       </c>
       <c r="G302">
         <v>242600</v>
@@ -9990,13 +10890,16 @@
         <v>0.06044742712652806</v>
       </c>
       <c r="I302">
-        <v>0.7413052406248113</v>
+        <v>0.05536630853675185</v>
       </c>
       <c r="J302">
         <v>0.7413052406248113</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.7413052406248113</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10013,7 +10916,7 @@
         <v>46.41999816894531</v>
       </c>
       <c r="F303">
-        <v>44.18210601806641</v>
+        <v>43.99095153808594</v>
       </c>
       <c r="G303">
         <v>281600</v>
@@ -10022,13 +10925,16 @@
         <v>0.04174139897511697</v>
       </c>
       <c r="I303">
-        <v>0.6916908624447857</v>
+        <v>0.05492290044946854</v>
       </c>
       <c r="J303">
         <v>0.6916908624447857</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.6916908624447857</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10045,7 +10951,7 @@
         <v>48.47000122070312</v>
       </c>
       <c r="F304">
-        <v>46.13327789306641</v>
+        <v>45.93368148803711</v>
       </c>
       <c r="G304">
         <v>185600</v>
@@ -10054,13 +10960,16 @@
         <v>0.04416206662259747</v>
       </c>
       <c r="I304">
-        <v>0.6054985214731503</v>
+        <v>0.05498734191613024</v>
       </c>
       <c r="J304">
         <v>0.6054985214731503</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.6054985214731503</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10077,7 +10986,7 @@
         <v>46.40000152587891</v>
       </c>
       <c r="F305">
-        <v>45.19366073608398</v>
+        <v>44.99813079833984</v>
       </c>
       <c r="G305">
         <v>339600</v>
@@ -10086,13 +10995,16 @@
         <v>-0.04270682159463313</v>
       </c>
       <c r="I305">
-        <v>0.4934020592735451</v>
+        <v>0.05449696629197903</v>
       </c>
       <c r="J305">
         <v>0.4934020592735451</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.4934020592735451</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10109,7 +11021,7 @@
         <v>48.40999984741211</v>
       </c>
       <c r="F306">
-        <v>47.15140151977539</v>
+        <v>46.9473991394043</v>
       </c>
       <c r="G306">
         <v>150500</v>
@@ -10118,13 +11030,16 @@
         <v>0.04331892791883107</v>
       </c>
       <c r="I306">
-        <v>0.4297105426694048</v>
+        <v>0.05431603088974174</v>
       </c>
       <c r="J306">
         <v>0.4297105426694048</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.4297105426694048</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10141,7 +11056,7 @@
         <v>47.90999984741211</v>
       </c>
       <c r="F307">
-        <v>46.66440200805664</v>
+        <v>46.46250915527344</v>
       </c>
       <c r="G307">
         <v>395100</v>
@@ -10150,13 +11065,16 @@
         <v>-0.01032844456880799</v>
       </c>
       <c r="I307">
-        <v>0.3423928745000893</v>
+        <v>0.05332875605562972</v>
       </c>
       <c r="J307">
         <v>0.3423928745000893</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.3423928745000893</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10173,7 +11091,7 @@
         <v>44.84999847412109</v>
       </c>
       <c r="F308">
-        <v>43.68395614624023</v>
+        <v>43.49495697021484</v>
       </c>
       <c r="G308">
         <v>810400</v>
@@ -10182,13 +11100,16 @@
         <v>-0.06386978465950266</v>
       </c>
       <c r="I308">
-        <v>0.2701783270970435</v>
+        <v>0.0519970459713245</v>
       </c>
       <c r="J308">
         <v>0.2701783270970435</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.2701783270970435</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10205,7 +11126,7 @@
         <v>47.90999984741211</v>
       </c>
       <c r="F309">
-        <v>46.66440200805664</v>
+        <v>46.46250915527344</v>
       </c>
       <c r="G309">
         <v>655600</v>
@@ -10214,13 +11135,16 @@
         <v>0.06822745769003014</v>
       </c>
       <c r="I309">
-        <v>0.4182948957587069</v>
+        <v>0.05049534963708938</v>
       </c>
       <c r="J309">
         <v>0.4182948957587069</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.4182948957587069</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10237,7 +11161,7 @@
         <v>45.06000137329102</v>
       </c>
       <c r="F310">
-        <v>43.88850021362305</v>
+        <v>43.69861602783203</v>
       </c>
       <c r="G310">
         <v>1006100</v>
@@ -10246,42 +11170,83 @@
         <v>-0.05948650559795476</v>
       </c>
       <c r="I310">
-        <v>0.1580570945771398</v>
+        <v>0.05067973082434166</v>
       </c>
       <c r="J310">
         <v>0.1580570945771398</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.1580570945771398</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>46.61999893188477</v>
+        <v>46.47000122070312</v>
       </c>
       <c r="C311">
-        <v>46.71739959716797</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="D311">
-        <v>46.41999816894531</v>
+        <v>46.22000122070312</v>
       </c>
       <c r="E311">
-        <v>46.4650993347168</v>
+        <v>46.33000183105469</v>
       </c>
       <c r="F311">
-        <v>46.4650993347168</v>
+        <v>46.33000183105469</v>
       </c>
       <c r="G311">
-        <v>685287</v>
+        <v>192100</v>
       </c>
       <c r="H311">
-        <v>0.03118282109637582</v>
+        <v>0.02818465199862286</v>
       </c>
       <c r="I311">
-        <v>0.1674648297844668</v>
+        <v>0.05068417401065097</v>
       </c>
       <c r="J311">
-        <v>0.1674648297844668</v>
+        <v>0.1640704200796466</v>
+      </c>
+      <c r="K311">
+        <v>0.1640704200796466</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>46.70000076293945</v>
+      </c>
+      <c r="C312">
+        <v>46.70000076293945</v>
+      </c>
+      <c r="D312">
+        <v>46.43000030517578</v>
+      </c>
+      <c r="E312">
+        <v>46.68899917602539</v>
+      </c>
+      <c r="F312">
+        <v>46.68899917602539</v>
+      </c>
+      <c r="G312">
+        <v>203781</v>
+      </c>
+      <c r="H312">
+        <v>0.007748701290360538</v>
+      </c>
+      <c r="I312">
+        <v>0.05036595860700494</v>
+      </c>
+      <c r="J312">
+        <v>0.147431819901283</v>
+      </c>
+      <c r="K312">
+        <v>0.147431819901283</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWD.xlsx
+++ b/etf_dfs/EWD.xlsx
@@ -508,7 +508,7 @@
         <v>13.875</v>
       </c>
       <c r="F2" t="n">
-        <v>4.865953922271729</v>
+        <v>4.86595344543457</v>
       </c>
       <c r="G2" t="n">
         <v>500</v>
@@ -535,7 +535,7 @@
         <v>13.9375</v>
       </c>
       <c r="F3" t="n">
-        <v>4.887874603271484</v>
+        <v>4.887872219085693</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>14.4375</v>
       </c>
       <c r="F4" t="n">
-        <v>5.063221454620361</v>
+        <v>5.063222408294678</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>14.6875</v>
       </c>
       <c r="F5" t="n">
-        <v>5.150897026062012</v>
+        <v>5.150896072387695</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>14.1875</v>
       </c>
       <c r="F6" t="n">
-        <v>4.975547313690186</v>
+        <v>4.97554874420166</v>
       </c>
       <c r="G6" t="n">
         <v>3300</v>
@@ -657,7 +657,7 @@
         <v>14.625</v>
       </c>
       <c r="F7" t="n">
-        <v>5.276002883911133</v>
+        <v>5.276003837585449</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>15.25</v>
       </c>
       <c r="F8" t="n">
-        <v>5.501473426818848</v>
+        <v>5.501473903656006</v>
       </c>
       <c r="G8" t="n">
         <v>3000</v>
@@ -719,7 +719,7 @@
         <v>15.875</v>
       </c>
       <c r="F9" t="n">
-        <v>5.726944446563721</v>
+        <v>5.726943492889404</v>
       </c>
       <c r="G9" t="n">
         <v>700</v>
@@ -750,7 +750,7 @@
         <v>16.875</v>
       </c>
       <c r="F10" t="n">
-        <v>6.08769702911377</v>
+        <v>6.087696075439453</v>
       </c>
       <c r="G10" t="n">
         <v>400</v>
@@ -812,7 +812,7 @@
         <v>17.4375</v>
       </c>
       <c r="F12" t="n">
-        <v>6.297708511352539</v>
+        <v>6.297709941864014</v>
       </c>
       <c r="G12" t="n">
         <v>6500</v>
@@ -843,7 +843,7 @@
         <v>17.3125</v>
       </c>
       <c r="F13" t="n">
-        <v>6.252566814422607</v>
+        <v>6.252566337585449</v>
       </c>
       <c r="G13" t="n">
         <v>3300</v>
@@ -909,7 +909,7 @@
         <v>16.75</v>
       </c>
       <c r="F15" t="n">
-        <v>6.04941463470459</v>
+        <v>6.049413681030273</v>
       </c>
       <c r="G15" t="n">
         <v>700</v>
@@ -979,7 +979,7 @@
         <v>19.25</v>
       </c>
       <c r="F17" t="n">
-        <v>6.952309608459473</v>
+        <v>6.952311038970947</v>
       </c>
       <c r="G17" t="n">
         <v>26500</v>
@@ -1014,7 +1014,7 @@
         <v>20.3125</v>
       </c>
       <c r="F18" t="n">
-        <v>7.336044311523438</v>
+        <v>7.336041927337646</v>
       </c>
       <c r="G18" t="n">
         <v>3900</v>
@@ -1049,7 +1049,7 @@
         <v>18.1875</v>
       </c>
       <c r="F19" t="n">
-        <v>6.830884456634521</v>
+        <v>6.830885887145996</v>
       </c>
       <c r="G19" t="n">
         <v>6400</v>
@@ -1084,7 +1084,7 @@
         <v>20.5</v>
       </c>
       <c r="F20" t="n">
-        <v>7.699417591094971</v>
+        <v>7.699418067932129</v>
       </c>
       <c r="G20" t="n">
         <v>300</v>
@@ -1119,7 +1119,7 @@
         <v>18.625</v>
       </c>
       <c r="F21" t="n">
-        <v>6.995203971862793</v>
+        <v>6.99520206451416</v>
       </c>
       <c r="G21" t="n">
         <v>13900</v>
@@ -1154,7 +1154,7 @@
         <v>18.75</v>
       </c>
       <c r="F22" t="n">
-        <v>7.042150497436523</v>
+        <v>7.042150020599365</v>
       </c>
       <c r="G22" t="n">
         <v>100</v>
@@ -1224,7 +1224,7 @@
         <v>18.5625</v>
       </c>
       <c r="F24" t="n">
-        <v>6.988090991973877</v>
+        <v>6.988090515136719</v>
       </c>
       <c r="G24" t="n">
         <v>15500</v>
@@ -1259,7 +1259,7 @@
         <v>20.25</v>
       </c>
       <c r="F25" t="n">
-        <v>7.62337064743042</v>
+        <v>7.623371124267578</v>
       </c>
       <c r="G25" t="n">
         <v>8400</v>
@@ -1294,7 +1294,7 @@
         <v>21.75</v>
       </c>
       <c r="F26" t="n">
-        <v>8.188067436218262</v>
+        <v>8.188066482543945</v>
       </c>
       <c r="G26" t="n">
         <v>1900</v>
@@ -1364,7 +1364,7 @@
         <v>23.75</v>
       </c>
       <c r="F28" t="n">
-        <v>8.940993309020996</v>
+        <v>8.94099235534668</v>
       </c>
       <c r="G28" t="n">
         <v>1200</v>
@@ -1399,7 +1399,7 @@
         <v>23.375</v>
       </c>
       <c r="F29" t="n">
-        <v>8.799817085266113</v>
+        <v>8.799816131591797</v>
       </c>
       <c r="G29" t="n">
         <v>77900</v>
@@ -1469,7 +1469,7 @@
         <v>18.1875</v>
       </c>
       <c r="F31" t="n">
-        <v>7.175645351409912</v>
+        <v>7.17564582824707</v>
       </c>
       <c r="G31" t="n">
         <v>12000</v>
@@ -1504,7 +1504,7 @@
         <v>16.8125</v>
       </c>
       <c r="F32" t="n">
-        <v>6.633154392242432</v>
+        <v>6.633157730102539</v>
       </c>
       <c r="G32" t="n">
         <v>800</v>
@@ -1574,7 +1574,7 @@
         <v>19.3125</v>
       </c>
       <c r="F34" t="n">
-        <v>7.619501113891602</v>
+        <v>7.619498729705811</v>
       </c>
       <c r="G34" t="n">
         <v>2000</v>
@@ -1609,7 +1609,7 @@
         <v>19.3125</v>
       </c>
       <c r="F35" t="n">
-        <v>7.646275997161865</v>
+        <v>7.646274089813232</v>
       </c>
       <c r="G35" t="n">
         <v>9000</v>
@@ -1644,7 +1644,7 @@
         <v>20.3125</v>
       </c>
       <c r="F36" t="n">
-        <v>8.042196273803711</v>
+        <v>8.042195320129395</v>
       </c>
       <c r="G36" t="n">
         <v>2500</v>
@@ -1679,7 +1679,7 @@
         <v>20</v>
       </c>
       <c r="F37" t="n">
-        <v>7.918472766876221</v>
+        <v>7.91847038269043</v>
       </c>
       <c r="G37" t="n">
         <v>800</v>
@@ -1714,7 +1714,7 @@
         <v>20</v>
       </c>
       <c r="F38" t="n">
-        <v>7.918472766876221</v>
+        <v>7.91847038269043</v>
       </c>
       <c r="G38" t="n">
         <v>600</v>
@@ -1749,7 +1749,7 @@
         <v>20.6875</v>
       </c>
       <c r="F39" t="n">
-        <v>8.190669059753418</v>
+        <v>8.190670013427734</v>
       </c>
       <c r="G39" t="n">
         <v>900</v>
@@ -1784,7 +1784,7 @@
         <v>20.125</v>
       </c>
       <c r="F40" t="n">
-        <v>7.967962741851807</v>
+        <v>7.967962265014648</v>
       </c>
       <c r="G40" t="n">
         <v>800</v>
@@ -1819,7 +1819,7 @@
         <v>22.5</v>
       </c>
       <c r="F41" t="n">
-        <v>8.908281326293945</v>
+        <v>8.908280372619629</v>
       </c>
       <c r="G41" t="n">
         <v>4700</v>
@@ -1854,7 +1854,7 @@
         <v>23</v>
       </c>
       <c r="F42" t="n">
-        <v>9.106241226196289</v>
+        <v>9.106240272521973</v>
       </c>
       <c r="G42" t="n">
         <v>2600</v>
@@ -1889,7 +1889,7 @@
         <v>22.125</v>
       </c>
       <c r="F43" t="n">
-        <v>9.022274017333984</v>
+        <v>9.022273063659668</v>
       </c>
       <c r="G43" t="n">
         <v>73000</v>
@@ -1924,7 +1924,7 @@
         <v>22.375</v>
       </c>
       <c r="F44" t="n">
-        <v>9.124221801757812</v>
+        <v>9.124222755432129</v>
       </c>
       <c r="G44" t="n">
         <v>800</v>
@@ -1959,7 +1959,7 @@
         <v>24.125</v>
       </c>
       <c r="F45" t="n">
-        <v>9.837846755981445</v>
+        <v>9.837847709655762</v>
       </c>
       <c r="G45" t="n">
         <v>1700</v>
@@ -1994,7 +1994,7 @@
         <v>26.125</v>
       </c>
       <c r="F46" t="n">
-        <v>10.65342044830322</v>
+        <v>10.65341854095459</v>
       </c>
       <c r="G46" t="n">
         <v>9600</v>
@@ -2029,7 +2029,7 @@
         <v>29.5</v>
       </c>
       <c r="F47" t="n">
-        <v>12.46475601196289</v>
+        <v>12.46475505828857</v>
       </c>
       <c r="G47" t="n">
         <v>200</v>
@@ -2064,7 +2064,7 @@
         <v>28.5625</v>
       </c>
       <c r="F48" t="n">
-        <v>12.06863021850586</v>
+        <v>12.06862545013428</v>
       </c>
       <c r="G48" t="n">
         <v>7000</v>
@@ -2099,7 +2099,7 @@
         <v>34.75</v>
       </c>
       <c r="F49" t="n">
-        <v>14.68305397033691</v>
+        <v>14.68306350708008</v>
       </c>
       <c r="G49" t="n">
         <v>11000</v>
@@ -2169,7 +2169,7 @@
         <v>33.125</v>
       </c>
       <c r="F51" t="n">
-        <v>13.99643707275391</v>
+        <v>13.99643993377686</v>
       </c>
       <c r="G51" t="n">
         <v>1500</v>
@@ -2204,7 +2204,7 @@
         <v>32.4375</v>
       </c>
       <c r="F52" t="n">
-        <v>13.70595073699951</v>
+        <v>13.70594882965088</v>
       </c>
       <c r="G52" t="n">
         <v>2100</v>
@@ -2239,7 +2239,7 @@
         <v>31.125</v>
       </c>
       <c r="F53" t="n">
-        <v>13.15137004852295</v>
+        <v>13.15137100219727</v>
       </c>
       <c r="G53" t="n">
         <v>2200</v>
@@ -2274,7 +2274,7 @@
         <v>29.875</v>
       </c>
       <c r="F54" t="n">
-        <v>12.62320232391357</v>
+        <v>12.62320613861084</v>
       </c>
       <c r="G54" t="n">
         <v>1400</v>
@@ -2309,7 +2309,7 @@
         <v>24.625</v>
       </c>
       <c r="F55" t="n">
-        <v>12.71358203887939</v>
+        <v>12.71357822418213</v>
       </c>
       <c r="G55" t="n">
         <v>2500</v>
@@ -2344,7 +2344,7 @@
         <v>21.875</v>
       </c>
       <c r="F56" t="n">
-        <v>11.29378795623779</v>
+        <v>11.29378700256348</v>
       </c>
       <c r="G56" t="n">
         <v>3200</v>
@@ -2379,7 +2379,7 @@
         <v>20.8125</v>
       </c>
       <c r="F57" t="n">
-        <v>10.74523639678955</v>
+        <v>10.74523448944092</v>
       </c>
       <c r="G57" t="n">
         <v>7600</v>
@@ -2414,7 +2414,7 @@
         <v>17.1875</v>
       </c>
       <c r="F58" t="n">
-        <v>8.873692512512207</v>
+        <v>8.873691558837891</v>
       </c>
       <c r="G58" t="n">
         <v>2400</v>
@@ -2484,7 +2484,7 @@
         <v>19.54000091552734</v>
       </c>
       <c r="F60" t="n">
-        <v>10.54910850524902</v>
+        <v>10.54910564422607</v>
       </c>
       <c r="G60" t="n">
         <v>59300</v>
@@ -2519,7 +2519,7 @@
         <v>16.95000076293945</v>
       </c>
       <c r="F61" t="n">
-        <v>9.150837898254395</v>
+        <v>9.150835990905762</v>
       </c>
       <c r="G61" t="n">
         <v>79000</v>
@@ -2554,7 +2554,7 @@
         <v>13.35000038146973</v>
       </c>
       <c r="F62" t="n">
-        <v>7.207297325134277</v>
+        <v>7.207295894622803</v>
       </c>
       <c r="G62" t="n">
         <v>27300</v>
@@ -2589,7 +2589,7 @@
         <v>15.14999961853027</v>
       </c>
       <c r="F63" t="n">
-        <v>8.179065704345703</v>
+        <v>8.17906665802002</v>
       </c>
       <c r="G63" t="n">
         <v>300</v>
@@ -2624,7 +2624,7 @@
         <v>14.39999961853027</v>
       </c>
       <c r="F64" t="n">
-        <v>7.774163722991943</v>
+        <v>7.774160385131836</v>
       </c>
       <c r="G64" t="n">
         <v>4600</v>
@@ -2659,7 +2659,7 @@
         <v>13.55000019073486</v>
       </c>
       <c r="F65" t="n">
-        <v>7.315270900726318</v>
+        <v>7.31527042388916</v>
       </c>
       <c r="G65" t="n">
         <v>4500</v>
@@ -2694,7 +2694,7 @@
         <v>13.89999961853027</v>
       </c>
       <c r="F66" t="n">
-        <v>7.504227161407471</v>
+        <v>7.504226207733154</v>
       </c>
       <c r="G66" t="n">
         <v>300</v>
@@ -2729,7 +2729,7 @@
         <v>12.77999973297119</v>
       </c>
       <c r="F67" t="n">
-        <v>6.923917293548584</v>
+        <v>6.923916816711426</v>
       </c>
       <c r="G67" t="n">
         <v>12300</v>
@@ -2764,7 +2764,7 @@
         <v>10.94999980926514</v>
       </c>
       <c r="F68" t="n">
-        <v>5.932465076446533</v>
+        <v>5.932462692260742</v>
       </c>
       <c r="G68" t="n">
         <v>11300</v>
@@ -2799,7 +2799,7 @@
         <v>11.46000003814697</v>
       </c>
       <c r="F69" t="n">
-        <v>6.208771228790283</v>
+        <v>6.208771705627441</v>
       </c>
       <c r="G69" t="n">
         <v>1000</v>
@@ -2834,7 +2834,7 @@
         <v>13.3100004196167</v>
       </c>
       <c r="F70" t="n">
-        <v>7.211058616638184</v>
+        <v>7.211058139801025</v>
       </c>
       <c r="G70" t="n">
         <v>800</v>
@@ -2869,7 +2869,7 @@
         <v>13.71000003814697</v>
       </c>
       <c r="F71" t="n">
-        <v>7.427769184112549</v>
+        <v>7.427768230438232</v>
       </c>
       <c r="G71" t="n">
         <v>3400</v>
@@ -2904,7 +2904,7 @@
         <v>12.64000034332275</v>
       </c>
       <c r="F72" t="n">
-        <v>6.848068714141846</v>
+        <v>6.848068237304688</v>
       </c>
       <c r="G72" t="n">
         <v>600</v>
@@ -2939,7 +2939,7 @@
         <v>12.84000015258789</v>
       </c>
       <c r="F73" t="n">
-        <v>6.956422805786133</v>
+        <v>6.956425189971924</v>
       </c>
       <c r="G73" t="n">
         <v>6800</v>
@@ -2974,7 +2974,7 @@
         <v>13.27000045776367</v>
       </c>
       <c r="F74" t="n">
-        <v>7.189389228820801</v>
+        <v>7.189388275146484</v>
       </c>
       <c r="G74" t="n">
         <v>100</v>
@@ -3009,7 +3009,7 @@
         <v>12.07999992370605</v>
       </c>
       <c r="F75" t="n">
-        <v>6.54467248916626</v>
+        <v>6.544671535491943</v>
       </c>
       <c r="G75" t="n">
         <v>22200</v>
@@ -3044,7 +3044,7 @@
         <v>12.09000015258789</v>
       </c>
       <c r="F76" t="n">
-        <v>6.550090789794922</v>
+        <v>6.550089836120605</v>
       </c>
       <c r="G76" t="n">
         <v>6600</v>
@@ -3079,7 +3079,7 @@
         <v>11.72999954223633</v>
       </c>
       <c r="F77" t="n">
-        <v>6.355051517486572</v>
+        <v>6.355051040649414</v>
       </c>
       <c r="G77" t="n">
         <v>5300</v>
@@ -3114,7 +3114,7 @@
         <v>9.859999656677246</v>
       </c>
       <c r="F78" t="n">
-        <v>5.341926097869873</v>
+        <v>5.341925621032715</v>
       </c>
       <c r="G78" t="n">
         <v>94000</v>
@@ -3184,7 +3184,7 @@
         <v>8.220000267028809</v>
       </c>
       <c r="F80" t="n">
-        <v>4.45341157913208</v>
+        <v>4.453411102294922</v>
       </c>
       <c r="G80" t="n">
         <v>1100</v>
@@ -3219,7 +3219,7 @@
         <v>9.430000305175781</v>
       </c>
       <c r="F81" t="n">
-        <v>5.108962535858154</v>
+        <v>5.10896110534668</v>
       </c>
       <c r="G81" t="n">
         <v>28300</v>
@@ -3254,7 +3254,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="F82" t="n">
-        <v>6.062491416931152</v>
+        <v>6.062490463256836</v>
       </c>
       <c r="G82" t="n">
         <v>9100</v>
@@ -3289,7 +3289,7 @@
         <v>9.550000190734863</v>
       </c>
       <c r="F83" t="n">
-        <v>5.238138198852539</v>
+        <v>5.238137722015381</v>
       </c>
       <c r="G83" t="n">
         <v>5200</v>
@@ -3324,7 +3324,7 @@
         <v>9.479999542236328</v>
       </c>
       <c r="F84" t="n">
-        <v>5.199742794036865</v>
+        <v>5.199741840362549</v>
       </c>
       <c r="G84" t="n">
         <v>400</v>
@@ -3359,7 +3359,7 @@
         <v>9.449999809265137</v>
       </c>
       <c r="F85" t="n">
-        <v>5.183286666870117</v>
+        <v>5.18328857421875</v>
       </c>
       <c r="G85" t="n">
         <v>14500</v>
@@ -3429,7 +3429,7 @@
         <v>11.11999988555908</v>
       </c>
       <c r="F87" t="n">
-        <v>6.099276542663574</v>
+        <v>6.099276065826416</v>
       </c>
       <c r="G87" t="n">
         <v>3500</v>
@@ -3464,7 +3464,7 @@
         <v>11.72999954223633</v>
       </c>
       <c r="F88" t="n">
-        <v>6.433859825134277</v>
+        <v>6.433857440948486</v>
       </c>
       <c r="G88" t="n">
         <v>8900</v>
@@ -3499,7 +3499,7 @@
         <v>11.61999988555908</v>
       </c>
       <c r="F89" t="n">
-        <v>6.373522758483887</v>
+        <v>6.373523712158203</v>
       </c>
       <c r="G89" t="n">
         <v>1400</v>
@@ -3534,7 +3534,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="F90" t="n">
-        <v>6.686166763305664</v>
+        <v>6.686166286468506</v>
       </c>
       <c r="G90" t="n">
         <v>14100</v>
@@ -3569,7 +3569,7 @@
         <v>12.5</v>
       </c>
       <c r="F91" t="n">
-        <v>6.856200695037842</v>
+        <v>6.856200218200684</v>
       </c>
       <c r="G91" t="n">
         <v>7300</v>
@@ -3604,7 +3604,7 @@
         <v>12.92000007629395</v>
       </c>
       <c r="F92" t="n">
-        <v>7.086571216583252</v>
+        <v>7.086570262908936</v>
       </c>
       <c r="G92" t="n">
         <v>5200</v>
@@ -3639,7 +3639,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="F93" t="n">
-        <v>7.711853981018066</v>
+        <v>7.711853504180908</v>
       </c>
       <c r="G93" t="n">
         <v>17100</v>
@@ -3674,7 +3674,7 @@
         <v>14.5</v>
       </c>
       <c r="F94" t="n">
-        <v>7.953193664550781</v>
+        <v>7.953191757202148</v>
       </c>
       <c r="G94" t="n">
         <v>9800</v>
@@ -3709,7 +3709,7 @@
         <v>15.60000038146973</v>
       </c>
       <c r="F95" t="n">
-        <v>8.767496109008789</v>
+        <v>8.767497062683105</v>
       </c>
       <c r="G95" t="n">
         <v>14400</v>
@@ -3744,7 +3744,7 @@
         <v>16.23999977111816</v>
       </c>
       <c r="F96" t="n">
-        <v>9.127190589904785</v>
+        <v>9.127187728881836</v>
       </c>
       <c r="G96" t="n">
         <v>54100</v>
@@ -3779,7 +3779,7 @@
         <v>17.03000068664551</v>
       </c>
       <c r="F97" t="n">
-        <v>9.571183204650879</v>
+        <v>9.571184158325195</v>
       </c>
       <c r="G97" t="n">
         <v>99100</v>
@@ -3849,7 +3849,7 @@
         <v>16.57999992370605</v>
       </c>
       <c r="F99" t="n">
-        <v>9.318273544311523</v>
+        <v>9.31827449798584</v>
       </c>
       <c r="G99" t="n">
         <v>27100</v>
@@ -3884,7 +3884,7 @@
         <v>16.93000030517578</v>
       </c>
       <c r="F100" t="n">
-        <v>9.514981269836426</v>
+        <v>9.514979362487793</v>
       </c>
       <c r="G100" t="n">
         <v>7000</v>
@@ -3919,7 +3919,7 @@
         <v>17.57999992370605</v>
       </c>
       <c r="F101" t="n">
-        <v>9.880294799804688</v>
+        <v>9.880291938781738</v>
       </c>
       <c r="G101" t="n">
         <v>13000</v>
@@ -3954,7 +3954,7 @@
         <v>16.47999954223633</v>
       </c>
       <c r="F102" t="n">
-        <v>9.262072563171387</v>
+        <v>9.262075424194336</v>
       </c>
       <c r="G102" t="n">
         <v>97500</v>
@@ -3989,7 +3989,7 @@
         <v>16.89999961853027</v>
       </c>
       <c r="F103" t="n">
-        <v>9.498120307922363</v>
+        <v>9.498119354248047</v>
       </c>
       <c r="G103" t="n">
         <v>7600</v>
@@ -4059,7 +4059,7 @@
         <v>18.56999969482422</v>
       </c>
       <c r="F105" t="n">
-        <v>10.43669128417969</v>
+        <v>10.436692237854</v>
       </c>
       <c r="G105" t="n">
         <v>6000</v>
@@ -4094,7 +4094,7 @@
         <v>21.14999961853027</v>
       </c>
       <c r="F106" t="n">
-        <v>11.88670253753662</v>
+        <v>11.88669872283936</v>
       </c>
       <c r="G106" t="n">
         <v>47400</v>
@@ -4199,7 +4199,7 @@
         <v>21.04999923706055</v>
       </c>
       <c r="F109" t="n">
-        <v>11.91483116149902</v>
+        <v>11.91483306884766</v>
       </c>
       <c r="G109" t="n">
         <v>43800</v>
@@ -4234,7 +4234,7 @@
         <v>20.35000038146973</v>
       </c>
       <c r="F110" t="n">
-        <v>11.51861476898193</v>
+        <v>11.5186128616333</v>
       </c>
       <c r="G110" t="n">
         <v>26900</v>
@@ -4269,7 +4269,7 @@
         <v>20.06999969482422</v>
       </c>
       <c r="F111" t="n">
-        <v>11.36012363433838</v>
+        <v>11.36012840270996</v>
       </c>
       <c r="G111" t="n">
         <v>11500</v>
@@ -4339,7 +4339,7 @@
         <v>20.20000076293945</v>
       </c>
       <c r="F113" t="n">
-        <v>11.43371200561523</v>
+        <v>11.43371105194092</v>
       </c>
       <c r="G113" t="n">
         <v>9400</v>
@@ -4374,7 +4374,7 @@
         <v>21.38999938964844</v>
       </c>
       <c r="F114" t="n">
-        <v>12.10727691650391</v>
+        <v>12.10728073120117</v>
       </c>
       <c r="G114" t="n">
         <v>20600</v>
@@ -4409,7 +4409,7 @@
         <v>21.81999969482422</v>
       </c>
       <c r="F115" t="n">
-        <v>12.35067176818848</v>
+        <v>12.35067081451416</v>
       </c>
       <c r="G115" t="n">
         <v>36200</v>
@@ -4444,7 +4444,7 @@
         <v>22.53000068664551</v>
       </c>
       <c r="F116" t="n">
-        <v>12.75254917144775</v>
+        <v>12.7525520324707</v>
       </c>
       <c r="G116" t="n">
         <v>11800</v>
@@ -4479,7 +4479,7 @@
         <v>21.31999969482422</v>
       </c>
       <c r="F117" t="n">
-        <v>12.06765365600586</v>
+        <v>12.06766033172607</v>
       </c>
       <c r="G117" t="n">
         <v>10400</v>
@@ -4514,7 +4514,7 @@
         <v>21.48999977111816</v>
       </c>
       <c r="F118" t="n">
-        <v>12.16388130187988</v>
+        <v>12.16388511657715</v>
       </c>
       <c r="G118" t="n">
         <v>28200</v>
@@ -4584,7 +4584,7 @@
         <v>24</v>
       </c>
       <c r="F120" t="n">
-        <v>13.83954429626465</v>
+        <v>13.8395471572876</v>
       </c>
       <c r="G120" t="n">
         <v>120100</v>
@@ -4619,7 +4619,7 @@
         <v>23.79000091552734</v>
       </c>
       <c r="F121" t="n">
-        <v>13.71845149993896</v>
+        <v>13.71844863891602</v>
       </c>
       <c r="G121" t="n">
         <v>84400</v>
@@ -4654,7 +4654,7 @@
         <v>25.76000022888184</v>
       </c>
       <c r="F122" t="n">
-        <v>14.85444355010986</v>
+        <v>14.85444641113281</v>
       </c>
       <c r="G122" t="n">
         <v>99700</v>
@@ -4689,7 +4689,7 @@
         <v>27.25</v>
       </c>
       <c r="F123" t="n">
-        <v>15.71364974975586</v>
+        <v>15.71364784240723</v>
       </c>
       <c r="G123" t="n">
         <v>73500</v>
@@ -4724,7 +4724,7 @@
         <v>25.32999992370605</v>
       </c>
       <c r="F124" t="n">
-        <v>14.60648918151855</v>
+        <v>14.60648822784424</v>
       </c>
       <c r="G124" t="n">
         <v>53500</v>
@@ -4759,7 +4759,7 @@
         <v>25.29999923706055</v>
       </c>
       <c r="F125" t="n">
-        <v>14.58918476104736</v>
+        <v>14.58918762207031</v>
       </c>
       <c r="G125" t="n">
         <v>121500</v>
@@ -4794,7 +4794,7 @@
         <v>25.02000045776367</v>
       </c>
       <c r="F126" t="n">
-        <v>14.42772769927979</v>
+        <v>14.42772674560547</v>
       </c>
       <c r="G126" t="n">
         <v>38900</v>
@@ -4864,7 +4864,7 @@
         <v>27.15999984741211</v>
       </c>
       <c r="F128" t="n">
-        <v>15.6617546081543</v>
+        <v>15.66175365447998</v>
       </c>
       <c r="G128" t="n">
         <v>83800</v>
@@ -4934,7 +4934,7 @@
         <v>30.07999992370605</v>
       </c>
       <c r="F130" t="n">
-        <v>17.34556198120117</v>
+        <v>17.3455638885498</v>
       </c>
       <c r="G130" t="n">
         <v>126000</v>
@@ -5004,7 +5004,7 @@
         <v>32.79000091552734</v>
       </c>
       <c r="F132" t="n">
-        <v>19.11140441894531</v>
+        <v>19.11140251159668</v>
       </c>
       <c r="G132" t="n">
         <v>478400</v>
@@ -5039,7 +5039,7 @@
         <v>31.43000030517578</v>
       </c>
       <c r="F133" t="n">
-        <v>18.31873321533203</v>
+        <v>18.3187370300293</v>
       </c>
       <c r="G133" t="n">
         <v>419300</v>
@@ -5074,7 +5074,7 @@
         <v>33.54000091552734</v>
       </c>
       <c r="F134" t="n">
-        <v>19.54853820800781</v>
+        <v>19.54853439331055</v>
       </c>
       <c r="G134" t="n">
         <v>110300</v>
@@ -5144,7 +5144,7 @@
         <v>36.61000061035156</v>
       </c>
       <c r="F136" t="n">
-        <v>21.33786010742188</v>
+        <v>21.33786201477051</v>
       </c>
       <c r="G136" t="n">
         <v>261200</v>
@@ -5214,7 +5214,7 @@
         <v>35.7599983215332</v>
       </c>
       <c r="F138" t="n">
-        <v>20.84244537353516</v>
+        <v>20.84243774414062</v>
       </c>
       <c r="G138" t="n">
         <v>212500</v>
@@ -5249,7 +5249,7 @@
         <v>34.59999847412109</v>
       </c>
       <c r="F139" t="n">
-        <v>20.16634750366211</v>
+        <v>20.16634559631348</v>
       </c>
       <c r="G139" t="n">
         <v>252600</v>
@@ -5284,7 +5284,7 @@
         <v>36.97999954223633</v>
       </c>
       <c r="F140" t="n">
-        <v>21.55351066589355</v>
+        <v>21.55351448059082</v>
       </c>
       <c r="G140" t="n">
         <v>179700</v>
@@ -5319,7 +5319,7 @@
         <v>36.02999877929688</v>
       </c>
       <c r="F141" t="n">
-        <v>20.99981117248535</v>
+        <v>20.99980735778809</v>
       </c>
       <c r="G141" t="n">
         <v>219800</v>
@@ -5354,7 +5354,7 @@
         <v>33.02999877929688</v>
       </c>
       <c r="F142" t="n">
-        <v>19.25128555297852</v>
+        <v>19.25128364562988</v>
       </c>
       <c r="G142" t="n">
         <v>165400</v>
@@ -5389,7 +5389,7 @@
         <v>30.71999931335449</v>
       </c>
       <c r="F143" t="n">
-        <v>18.56841468811035</v>
+        <v>18.56841659545898</v>
       </c>
       <c r="G143" t="n">
         <v>188900</v>
@@ -5424,7 +5424,7 @@
         <v>27.84000015258789</v>
       </c>
       <c r="F144" t="n">
-        <v>16.82762908935547</v>
+        <v>16.82762718200684</v>
       </c>
       <c r="G144" t="n">
         <v>353100</v>
@@ -5529,7 +5529,7 @@
         <v>31.39999961853027</v>
       </c>
       <c r="F147" t="n">
-        <v>18.97944259643555</v>
+        <v>18.97943496704102</v>
       </c>
       <c r="G147" t="n">
         <v>505600</v>
@@ -5564,7 +5564,7 @@
         <v>32</v>
       </c>
       <c r="F148" t="n">
-        <v>19.34210395812988</v>
+        <v>19.34210205078125</v>
       </c>
       <c r="G148" t="n">
         <v>103200</v>
@@ -5599,7 +5599,7 @@
         <v>25.6299991607666</v>
       </c>
       <c r="F149" t="n">
-        <v>16.21940803527832</v>
+        <v>16.21940612792969</v>
       </c>
       <c r="G149" t="n">
         <v>347300</v>
@@ -5669,7 +5669,7 @@
         <v>24.29999923706055</v>
       </c>
       <c r="F151" t="n">
-        <v>15.37774276733398</v>
+        <v>15.37774562835693</v>
       </c>
       <c r="G151" t="n">
         <v>57200</v>
@@ -5704,7 +5704,7 @@
         <v>20.43000030517578</v>
       </c>
       <c r="F152" t="n">
-        <v>12.9286994934082</v>
+        <v>12.92869853973389</v>
       </c>
       <c r="G152" t="n">
         <v>137500</v>
@@ -5739,7 +5739,7 @@
         <v>15.21000003814697</v>
       </c>
       <c r="F153" t="n">
-        <v>9.62532901763916</v>
+        <v>9.625330924987793</v>
       </c>
       <c r="G153" t="n">
         <v>186900</v>
@@ -5774,7 +5774,7 @@
         <v>14.26000022888184</v>
       </c>
       <c r="F154" t="n">
-        <v>9.024143218994141</v>
+        <v>9.024142265319824</v>
       </c>
       <c r="G154" t="n">
         <v>184600</v>
@@ -5809,7 +5809,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="F155" t="n">
-        <v>9.859515190124512</v>
+        <v>9.859512329101562</v>
       </c>
       <c r="G155" t="n">
         <v>147500</v>
@@ -5844,7 +5844,7 @@
         <v>13.13000011444092</v>
       </c>
       <c r="F156" t="n">
-        <v>8.319758415222168</v>
+        <v>8.319755554199219</v>
       </c>
       <c r="G156" t="n">
         <v>218000</v>
@@ -5879,7 +5879,7 @@
         <v>12.60999965667725</v>
       </c>
       <c r="F157" t="n">
-        <v>7.990260124206543</v>
+        <v>7.990259647369385</v>
       </c>
       <c r="G157" t="n">
         <v>115200</v>
@@ -5914,7 +5914,7 @@
         <v>13.97000026702881</v>
       </c>
       <c r="F158" t="n">
-        <v>8.852019309997559</v>
+        <v>8.852018356323242</v>
       </c>
       <c r="G158" t="n">
         <v>50400</v>
@@ -5984,7 +5984,7 @@
         <v>19.06999969482422</v>
       </c>
       <c r="F160" t="n">
-        <v>12.0836067199707</v>
+        <v>12.08360576629639</v>
       </c>
       <c r="G160" t="n">
         <v>178700</v>
@@ -6019,7 +6019,7 @@
         <v>18.52000045776367</v>
       </c>
       <c r="F161" t="n">
-        <v>12.04661464691162</v>
+        <v>12.0466136932373</v>
       </c>
       <c r="G161" t="n">
         <v>175500</v>
@@ -6054,7 +6054,7 @@
         <v>22</v>
       </c>
       <c r="F162" t="n">
-        <v>14.31023406982422</v>
+        <v>14.31023693084717</v>
       </c>
       <c r="G162" t="n">
         <v>166300</v>
@@ -6089,7 +6089,7 @@
         <v>22.93000030517578</v>
       </c>
       <c r="F163" t="n">
-        <v>14.91516876220703</v>
+        <v>14.91516494750977</v>
       </c>
       <c r="G163" t="n">
         <v>146700</v>
@@ -6124,7 +6124,7 @@
         <v>23.17000007629395</v>
       </c>
       <c r="F164" t="n">
-        <v>15.07127666473389</v>
+        <v>15.07128047943115</v>
       </c>
       <c r="G164" t="n">
         <v>167300</v>
@@ -6159,7 +6159,7 @@
         <v>23.47999954223633</v>
       </c>
       <c r="F165" t="n">
-        <v>15.27292346954346</v>
+        <v>15.27292251586914</v>
       </c>
       <c r="G165" t="n">
         <v>656000</v>
@@ -6229,7 +6229,7 @@
         <v>23.5</v>
       </c>
       <c r="F167" t="n">
-        <v>15.32327556610107</v>
+        <v>15.32327461242676</v>
       </c>
       <c r="G167" t="n">
         <v>83600</v>
@@ -6369,7 +6369,7 @@
         <v>26.53000068664551</v>
       </c>
       <c r="F171" t="n">
-        <v>17.29899406433105</v>
+        <v>17.29899787902832</v>
       </c>
       <c r="G171" t="n">
         <v>294000</v>
@@ -6439,7 +6439,7 @@
         <v>22.82999992370605</v>
       </c>
       <c r="F173" t="n">
-        <v>15.22410202026367</v>
+        <v>15.22409820556641</v>
       </c>
       <c r="G173" t="n">
         <v>523000</v>
@@ -6509,7 +6509,7 @@
         <v>24.26000022888184</v>
       </c>
       <c r="F175" t="n">
-        <v>16.17768859863281</v>
+        <v>16.17769050598145</v>
       </c>
       <c r="G175" t="n">
         <v>141400</v>
@@ -6579,7 +6579,7 @@
         <v>29.20000076293945</v>
       </c>
       <c r="F177" t="n">
-        <v>19.47190856933594</v>
+        <v>19.47191047668457</v>
       </c>
       <c r="G177" t="n">
         <v>190000</v>
@@ -6614,7 +6614,7 @@
         <v>28.3700008392334</v>
       </c>
       <c r="F178" t="n">
-        <v>18.91842651367188</v>
+        <v>18.91842460632324</v>
       </c>
       <c r="G178" t="n">
         <v>156300</v>
@@ -6684,7 +6684,7 @@
         <v>32.22999954223633</v>
       </c>
       <c r="F180" t="n">
-        <v>21.49245452880859</v>
+        <v>21.49245262145996</v>
       </c>
       <c r="G180" t="n">
         <v>176400</v>
@@ -6719,7 +6719,7 @@
         <v>31.96999931335449</v>
       </c>
       <c r="F181" t="n">
-        <v>21.3190746307373</v>
+        <v>21.31907081604004</v>
       </c>
       <c r="G181" t="n">
         <v>542500</v>
@@ -6754,7 +6754,7 @@
         <v>32.79000091552734</v>
       </c>
       <c r="F182" t="n">
-        <v>21.86588478088379</v>
+        <v>21.86588287353516</v>
       </c>
       <c r="G182" t="n">
         <v>170200</v>
@@ -6789,7 +6789,7 @@
         <v>35.70999908447266</v>
       </c>
       <c r="F183" t="n">
-        <v>23.81307411193848</v>
+        <v>23.81307601928711</v>
       </c>
       <c r="G183" t="n">
         <v>264000</v>
@@ -6859,7 +6859,7 @@
         <v>31.78000068664551</v>
       </c>
       <c r="F185" t="n">
-        <v>21.90468978881836</v>
+        <v>21.90468406677246</v>
       </c>
       <c r="G185" t="n">
         <v>230100</v>
@@ -6894,7 +6894,7 @@
         <v>29.97999954223633</v>
       </c>
       <c r="F186" t="n">
-        <v>20.66401672363281</v>
+        <v>20.66401481628418</v>
       </c>
       <c r="G186" t="n">
         <v>399200</v>
@@ -6964,7 +6964,7 @@
         <v>22.98999977111816</v>
       </c>
       <c r="F188" t="n">
-        <v>15.84608936309814</v>
+        <v>15.84609317779541</v>
       </c>
       <c r="G188" t="n">
         <v>121100</v>
@@ -6999,7 +6999,7 @@
         <v>26.55999946594238</v>
       </c>
       <c r="F189" t="n">
-        <v>18.30674743652344</v>
+        <v>18.3067512512207</v>
       </c>
       <c r="G189" t="n">
         <v>148300</v>
@@ -7069,7 +7069,7 @@
         <v>25.13999938964844</v>
       </c>
       <c r="F191" t="n">
-        <v>17.32800102233887</v>
+        <v>17.3279972076416</v>
       </c>
       <c r="G191" t="n">
         <v>129600</v>
@@ -7104,7 +7104,7 @@
         <v>26.85000038146973</v>
       </c>
       <c r="F192" t="n">
-        <v>18.50663375854492</v>
+        <v>18.50662994384766</v>
       </c>
       <c r="G192" t="n">
         <v>146800</v>
@@ -7209,7 +7209,7 @@
         <v>28.32999992370605</v>
       </c>
       <c r="F195" t="n">
-        <v>19.5267391204834</v>
+        <v>19.52674102783203</v>
       </c>
       <c r="G195" t="n">
         <v>258000</v>
@@ -7244,7 +7244,7 @@
         <v>24.54000091552734</v>
       </c>
       <c r="F196" t="n">
-        <v>16.91444396972656</v>
+        <v>16.91443824768066</v>
       </c>
       <c r="G196" t="n">
         <v>188300</v>
@@ -7314,7 +7314,7 @@
         <v>27.23999977111816</v>
       </c>
       <c r="F198" t="n">
-        <v>19.45037460327148</v>
+        <v>19.45037269592285</v>
       </c>
       <c r="G198" t="n">
         <v>827800</v>
@@ -7349,7 +7349,7 @@
         <v>27.20999908447266</v>
       </c>
       <c r="F199" t="n">
-        <v>19.42895317077637</v>
+        <v>19.42895126342773</v>
       </c>
       <c r="G199" t="n">
         <v>220100</v>
@@ -7384,7 +7384,7 @@
         <v>28.26000022888184</v>
       </c>
       <c r="F200" t="n">
-        <v>20.17868995666504</v>
+        <v>20.17869186401367</v>
       </c>
       <c r="G200" t="n">
         <v>175300</v>
@@ -7489,7 +7489,7 @@
         <v>30.20000076293945</v>
       </c>
       <c r="F203" t="n">
-        <v>21.56392288208008</v>
+        <v>21.56392860412598</v>
       </c>
       <c r="G203" t="n">
         <v>349500</v>
@@ -7524,7 +7524,7 @@
         <v>32.06000137329102</v>
       </c>
       <c r="F204" t="n">
-        <v>22.89203453063965</v>
+        <v>22.89203643798828</v>
       </c>
       <c r="G204" t="n">
         <v>331300</v>
@@ -7559,7 +7559,7 @@
         <v>32.34000015258789</v>
       </c>
       <c r="F205" t="n">
-        <v>23.09195899963379</v>
+        <v>23.09196472167969</v>
       </c>
       <c r="G205" t="n">
         <v>209300</v>
@@ -7594,7 +7594,7 @@
         <v>32.5099983215332</v>
       </c>
       <c r="F206" t="n">
-        <v>23.21334838867188</v>
+        <v>23.21334457397461</v>
       </c>
       <c r="G206" t="n">
         <v>200400</v>
@@ -7664,7 +7664,7 @@
         <v>32.75</v>
       </c>
       <c r="F208" t="n">
-        <v>23.38472175598145</v>
+        <v>23.38471984863281</v>
       </c>
       <c r="G208" t="n">
         <v>280600</v>
@@ -7699,7 +7699,7 @@
         <v>29.80999946594238</v>
       </c>
       <c r="F209" t="n">
-        <v>22.0174503326416</v>
+        <v>22.01744842529297</v>
       </c>
       <c r="G209" t="n">
         <v>521600</v>
@@ -7734,7 +7734,7 @@
         <v>33.09999847412109</v>
       </c>
       <c r="F210" t="n">
-        <v>24.44742393493652</v>
+        <v>24.44742202758789</v>
       </c>
       <c r="G210" t="n">
         <v>184800</v>
@@ -7769,7 +7769,7 @@
         <v>31.95000076293945</v>
       </c>
       <c r="F211" t="n">
-        <v>23.59804153442383</v>
+        <v>23.59804344177246</v>
       </c>
       <c r="G211" t="n">
         <v>125400</v>
@@ -7804,7 +7804,7 @@
         <v>34.25</v>
       </c>
       <c r="F212" t="n">
-        <v>25.29680061340332</v>
+        <v>25.29680252075195</v>
       </c>
       <c r="G212" t="n">
         <v>134400</v>
@@ -7839,7 +7839,7 @@
         <v>34.18999862670898</v>
       </c>
       <c r="F213" t="n">
-        <v>25.25248908996582</v>
+        <v>25.25248718261719</v>
       </c>
       <c r="G213" t="n">
         <v>258100</v>
@@ -7909,7 +7909,7 @@
         <v>35.83000183105469</v>
       </c>
       <c r="F215" t="n">
-        <v>26.64128875732422</v>
+        <v>26.64128303527832</v>
       </c>
       <c r="G215" t="n">
         <v>66800</v>
@@ -7979,7 +7979,7 @@
         <v>36.4900016784668</v>
       </c>
       <c r="F217" t="n">
-        <v>27.13202476501465</v>
+        <v>27.13202285766602</v>
       </c>
       <c r="G217" t="n">
         <v>173300</v>
@@ -8014,7 +8014,7 @@
         <v>36.61999893188477</v>
       </c>
       <c r="F218" t="n">
-        <v>27.22868537902832</v>
+        <v>27.22868347167969</v>
       </c>
       <c r="G218" t="n">
         <v>37300</v>
@@ -8049,7 +8049,7 @@
         <v>36.86999893188477</v>
       </c>
       <c r="F219" t="n">
-        <v>27.41456985473633</v>
+        <v>27.41457176208496</v>
       </c>
       <c r="G219" t="n">
         <v>177700</v>
@@ -8084,7 +8084,7 @@
         <v>36.9900016784668</v>
       </c>
       <c r="F220" t="n">
-        <v>27.50379180908203</v>
+        <v>27.50379753112793</v>
       </c>
       <c r="G220" t="n">
         <v>188600</v>
@@ -8119,7 +8119,7 @@
         <v>35.27999877929688</v>
       </c>
       <c r="F221" t="n">
-        <v>26.9778995513916</v>
+        <v>26.97790336608887</v>
       </c>
       <c r="G221" t="n">
         <v>154200</v>
@@ -8154,7 +8154,7 @@
         <v>34.11000061035156</v>
       </c>
       <c r="F222" t="n">
-        <v>26.08322715759277</v>
+        <v>26.08322525024414</v>
       </c>
       <c r="G222" t="n">
         <v>323100</v>
@@ -8189,7 +8189,7 @@
         <v>34.04999923706055</v>
       </c>
       <c r="F223" t="n">
-        <v>26.03734588623047</v>
+        <v>26.03734397888184</v>
       </c>
       <c r="G223" t="n">
         <v>147900</v>
@@ -8224,7 +8224,7 @@
         <v>33.09000015258789</v>
       </c>
       <c r="F224" t="n">
-        <v>25.30324745178223</v>
+        <v>25.30325126647949</v>
       </c>
       <c r="G224" t="n">
         <v>228700</v>
@@ -8259,7 +8259,7 @@
         <v>32.91999816894531</v>
       </c>
       <c r="F225" t="n">
-        <v>25.17325592041016</v>
+        <v>25.17325782775879</v>
       </c>
       <c r="G225" t="n">
         <v>329600</v>
@@ -8294,7 +8294,7 @@
         <v>33.52999877929688</v>
       </c>
       <c r="F226" t="n">
-        <v>25.63971138000488</v>
+        <v>25.63970947265625</v>
       </c>
       <c r="G226" t="n">
         <v>25800</v>
@@ -8329,7 +8329,7 @@
         <v>31.67000007629395</v>
       </c>
       <c r="F227" t="n">
-        <v>24.39682960510254</v>
+        <v>24.39682769775391</v>
       </c>
       <c r="G227" t="n">
         <v>383200</v>
@@ -8364,7 +8364,7 @@
         <v>32.43999862670898</v>
       </c>
       <c r="F228" t="n">
-        <v>24.9899959564209</v>
+        <v>24.98999214172363</v>
       </c>
       <c r="G228" t="n">
         <v>218700</v>
@@ -8399,7 +8399,7 @@
         <v>34.72000122070312</v>
       </c>
       <c r="F229" t="n">
-        <v>26.74637985229492</v>
+        <v>26.74638366699219</v>
       </c>
       <c r="G229" t="n">
         <v>128700</v>
@@ -8434,7 +8434,7 @@
         <v>33.47999954223633</v>
       </c>
       <c r="F230" t="n">
-        <v>25.7911548614502</v>
+        <v>25.79115104675293</v>
       </c>
       <c r="G230" t="n">
         <v>207300</v>
@@ -8539,7 +8539,7 @@
         <v>31.77000045776367</v>
       </c>
       <c r="F233" t="n">
-        <v>25.33226203918457</v>
+        <v>25.3322582244873</v>
       </c>
       <c r="G233" t="n">
         <v>209900</v>
@@ -8574,7 +8574,7 @@
         <v>32.04000091552734</v>
       </c>
       <c r="F234" t="n">
-        <v>25.54754638671875</v>
+        <v>25.54754447937012</v>
       </c>
       <c r="G234" t="n">
         <v>207800</v>
@@ -8609,7 +8609,7 @@
         <v>30.34000015258789</v>
       </c>
       <c r="F235" t="n">
-        <v>24.19203186035156</v>
+        <v>24.1920280456543</v>
       </c>
       <c r="G235" t="n">
         <v>788500</v>
@@ -8644,7 +8644,7 @@
         <v>29.03000068664551</v>
       </c>
       <c r="F236" t="n">
-        <v>23.14748382568359</v>
+        <v>23.14748001098633</v>
       </c>
       <c r="G236" t="n">
         <v>507800</v>
@@ -8679,7 +8679,7 @@
         <v>30.14999961853027</v>
       </c>
       <c r="F237" t="n">
-        <v>24.0405330657959</v>
+        <v>24.04052543640137</v>
       </c>
       <c r="G237" t="n">
         <v>246300</v>
@@ -8714,7 +8714,7 @@
         <v>30.27000045776367</v>
       </c>
       <c r="F238" t="n">
-        <v>24.13621520996094</v>
+        <v>24.13621139526367</v>
       </c>
       <c r="G238" t="n">
         <v>229900</v>
@@ -8784,7 +8784,7 @@
         <v>27.3700008392334</v>
       </c>
       <c r="F240" t="n">
-        <v>21.84380912780762</v>
+        <v>21.84380531311035</v>
       </c>
       <c r="G240" t="n">
         <v>338000</v>
@@ -8889,7 +8889,7 @@
         <v>30.22999954223633</v>
       </c>
       <c r="F243" t="n">
-        <v>24.1263484954834</v>
+        <v>24.12635040283203</v>
       </c>
       <c r="G243" t="n">
         <v>264700</v>
@@ -8924,7 +8924,7 @@
         <v>29.54999923706055</v>
       </c>
       <c r="F244" t="n">
-        <v>23.58365249633789</v>
+        <v>23.58365058898926</v>
       </c>
       <c r="G244" t="n">
         <v>263900</v>
@@ -8959,7 +8959,7 @@
         <v>27.35000038146973</v>
       </c>
       <c r="F245" t="n">
-        <v>22.69212532043457</v>
+        <v>22.69211959838867</v>
       </c>
       <c r="G245" t="n">
         <v>444100</v>
@@ -9029,7 +9029,7 @@
         <v>28.55999946594238</v>
       </c>
       <c r="F247" t="n">
-        <v>23.69605255126953</v>
+        <v>23.6960506439209</v>
       </c>
       <c r="G247" t="n">
         <v>139500</v>
@@ -9064,7 +9064,7 @@
         <v>29.06999969482422</v>
       </c>
       <c r="F248" t="n">
-        <v>24.11919403076172</v>
+        <v>24.11919212341309</v>
       </c>
       <c r="G248" t="n">
         <v>370900</v>
@@ -9134,7 +9134,7 @@
         <v>27.48999977111816</v>
       </c>
       <c r="F250" t="n">
-        <v>22.80827522277832</v>
+        <v>22.80827713012695</v>
       </c>
       <c r="G250" t="n">
         <v>362600</v>
@@ -9204,7 +9204,7 @@
         <v>30.5</v>
       </c>
       <c r="F252" t="n">
-        <v>25.31014633178711</v>
+        <v>25.31015014648438</v>
       </c>
       <c r="G252" t="n">
         <v>315300</v>
@@ -9309,7 +9309,7 @@
         <v>33.11000061035156</v>
       </c>
       <c r="F255" t="n">
-        <v>27.47603416442871</v>
+        <v>27.47603607177734</v>
       </c>
       <c r="G255" t="n">
         <v>260300</v>
@@ -9344,7 +9344,7 @@
         <v>34.04999923706055</v>
       </c>
       <c r="F256" t="n">
-        <v>28.25608444213867</v>
+        <v>28.25608253479004</v>
       </c>
       <c r="G256" t="n">
         <v>383800</v>
@@ -9379,7 +9379,7 @@
         <v>33.91999816894531</v>
       </c>
       <c r="F257" t="n">
-        <v>28.7808952331543</v>
+        <v>28.78089714050293</v>
       </c>
       <c r="G257" t="n">
         <v>469500</v>
@@ -9414,7 +9414,7 @@
         <v>34.15000152587891</v>
       </c>
       <c r="F258" t="n">
-        <v>28.97605323791504</v>
+        <v>28.97604942321777</v>
       </c>
       <c r="G258" t="n">
         <v>299000</v>
@@ -9449,7 +9449,7 @@
         <v>34.72000122070312</v>
       </c>
       <c r="F259" t="n">
-        <v>29.45969009399414</v>
+        <v>29.45969581604004</v>
       </c>
       <c r="G259" t="n">
         <v>158100</v>
@@ -9484,7 +9484,7 @@
         <v>35.88000106811523</v>
       </c>
       <c r="F260" t="n">
-        <v>30.44394683837891</v>
+        <v>30.44394874572754</v>
       </c>
       <c r="G260" t="n">
         <v>253500</v>
@@ -9519,7 +9519,7 @@
         <v>35.58000183105469</v>
       </c>
       <c r="F261" t="n">
-        <v>30.18939971923828</v>
+        <v>30.18939590454102</v>
       </c>
       <c r="G261" t="n">
         <v>133100</v>
@@ -9554,7 +9554,7 @@
         <v>34.27999877929688</v>
       </c>
       <c r="F262" t="n">
-        <v>29.08635711669922</v>
+        <v>29.08635902404785</v>
       </c>
       <c r="G262" t="n">
         <v>389800</v>
@@ -9589,7 +9589,7 @@
         <v>33.90000152587891</v>
       </c>
       <c r="F263" t="n">
-        <v>29.05224227905273</v>
+        <v>29.05223846435547</v>
       </c>
       <c r="G263" t="n">
         <v>224800</v>
@@ -9624,7 +9624,7 @@
         <v>36.02000045776367</v>
       </c>
       <c r="F264" t="n">
-        <v>30.86907577514648</v>
+        <v>30.86907768249512</v>
       </c>
       <c r="G264" t="n">
         <v>400500</v>
@@ -9659,7 +9659,7 @@
         <v>33.91999816894531</v>
       </c>
       <c r="F265" t="n">
-        <v>29.06937408447266</v>
+        <v>29.06937789916992</v>
       </c>
       <c r="G265" t="n">
         <v>185500</v>
@@ -9729,7 +9729,7 @@
         <v>32.84999847412109</v>
       </c>
       <c r="F267" t="n">
-        <v>28.15238952636719</v>
+        <v>28.15239143371582</v>
       </c>
       <c r="G267" t="n">
         <v>728000</v>
@@ -9764,7 +9764,7 @@
         <v>32.40999984741211</v>
       </c>
       <c r="F268" t="n">
-        <v>27.77531433105469</v>
+        <v>27.77531242370605</v>
       </c>
       <c r="G268" t="n">
         <v>514800</v>
@@ -9799,7 +9799,7 @@
         <v>30.51000022888184</v>
       </c>
       <c r="F269" t="n">
-        <v>27.35847282409668</v>
+        <v>27.35847473144531</v>
       </c>
       <c r="G269" t="n">
         <v>245100</v>
@@ -9834,7 +9834,7 @@
         <v>32.33000183105469</v>
       </c>
       <c r="F270" t="n">
-        <v>28.99048042297363</v>
+        <v>28.99047660827637</v>
       </c>
       <c r="G270" t="n">
         <v>278300</v>
@@ -9904,7 +9904,7 @@
         <v>32.81999969482422</v>
       </c>
       <c r="F272" t="n">
-        <v>29.42986106872559</v>
+        <v>29.42985916137695</v>
       </c>
       <c r="G272" t="n">
         <v>350800</v>
@@ -10009,7 +10009,7 @@
         <v>28.23999977111816</v>
       </c>
       <c r="F275" t="n">
-        <v>25.33835220336914</v>
+        <v>25.33835411071777</v>
       </c>
       <c r="G275" t="n">
         <v>506800</v>
@@ -10149,7 +10149,7 @@
         <v>32.20999908447266</v>
       </c>
       <c r="F279" t="n">
-        <v>28.90043449401855</v>
+        <v>28.90043640136719</v>
       </c>
       <c r="G279" t="n">
         <v>808300</v>
@@ -10254,7 +10254,7 @@
         <v>29.20999908447266</v>
       </c>
       <c r="F282" t="n">
-        <v>27.0455322265625</v>
+        <v>27.04553604125977</v>
       </c>
       <c r="G282" t="n">
         <v>903200</v>
@@ -10324,7 +10324,7 @@
         <v>29.45000076293945</v>
       </c>
       <c r="F284" t="n">
-        <v>27.26775169372559</v>
+        <v>27.26775360107422</v>
       </c>
       <c r="G284" t="n">
         <v>330500</v>
@@ -10394,7 +10394,7 @@
         <v>31.71999931335449</v>
       </c>
       <c r="F286" t="n">
-        <v>29.36954116821289</v>
+        <v>29.36954307556152</v>
       </c>
       <c r="G286" t="n">
         <v>229800</v>
@@ -10429,7 +10429,7 @@
         <v>32.90000152587891</v>
       </c>
       <c r="F287" t="n">
-        <v>30.84840774536133</v>
+        <v>30.8484058380127</v>
       </c>
       <c r="G287" t="n">
         <v>183500</v>
@@ -10464,7 +10464,7 @@
         <v>32.0099983215332</v>
       </c>
       <c r="F288" t="n">
-        <v>30.01390647888184</v>
+        <v>30.0139045715332</v>
       </c>
       <c r="G288" t="n">
         <v>531000</v>
@@ -10499,7 +10499,7 @@
         <v>30.3799991607666</v>
       </c>
       <c r="F289" t="n">
-        <v>28.48555183410645</v>
+        <v>28.48554992675781</v>
       </c>
       <c r="G289" t="n">
         <v>894000</v>
@@ -10534,7 +10534,7 @@
         <v>25.59000015258789</v>
       </c>
       <c r="F290" t="n">
-        <v>23.99424934387207</v>
+        <v>23.99424743652344</v>
       </c>
       <c r="G290" t="n">
         <v>484000</v>
@@ -10569,7 +10569,7 @@
         <v>27.44000053405762</v>
       </c>
       <c r="F291" t="n">
-        <v>25.7288875579834</v>
+        <v>25.72888374328613</v>
       </c>
       <c r="G291" t="n">
         <v>327500</v>
@@ -10604,7 +10604,7 @@
         <v>30.19000053405762</v>
       </c>
       <c r="F292" t="n">
-        <v>28.30740165710449</v>
+        <v>28.30739974975586</v>
       </c>
       <c r="G292" t="n">
         <v>172800</v>
@@ -10674,7 +10674,7 @@
         <v>33.86000061035156</v>
       </c>
       <c r="F294" t="n">
-        <v>31.84866523742676</v>
+        <v>31.84866333007812</v>
       </c>
       <c r="G294" t="n">
         <v>404800</v>
@@ -10849,7 +10849,7 @@
         <v>39.79999923706055</v>
       </c>
       <c r="F299" t="n">
-        <v>37.71736145019531</v>
+        <v>37.71736526489258</v>
       </c>
       <c r="G299" t="n">
         <v>295700</v>
@@ -10884,7 +10884,7 @@
         <v>40.68999862670898</v>
       </c>
       <c r="F300" t="n">
-        <v>38.560791015625</v>
+        <v>38.56078720092773</v>
       </c>
       <c r="G300" t="n">
         <v>263100</v>
@@ -10954,7 +10954,7 @@
         <v>44.56000137329102</v>
       </c>
       <c r="F302" t="n">
-        <v>42.22828674316406</v>
+        <v>42.2282829284668</v>
       </c>
       <c r="G302" t="n">
         <v>242600</v>
@@ -10989,7 +10989,7 @@
         <v>46.41999816894531</v>
       </c>
       <c r="F303" t="n">
-        <v>43.99095153808594</v>
+        <v>43.9909553527832</v>
       </c>
       <c r="G303" t="n">
         <v>281600</v>
@@ -11059,7 +11059,7 @@
         <v>46.40000152587891</v>
       </c>
       <c r="F305" t="n">
-        <v>44.99812698364258</v>
+        <v>44.99813079833984</v>
       </c>
       <c r="G305" t="n">
         <v>339600</v>
@@ -11094,7 +11094,7 @@
         <v>48.40999984741211</v>
       </c>
       <c r="F306" t="n">
-        <v>46.94740295410156</v>
+        <v>46.9473991394043</v>
       </c>
       <c r="G306" t="n">
         <v>150500</v>
@@ -11234,7 +11234,7 @@
         <v>45.06000137329102</v>
       </c>
       <c r="F310" t="n">
-        <v>43.69861221313477</v>
+        <v>43.69861602783203</v>
       </c>
       <c r="G310" t="n">
         <v>1006100</v>
@@ -11301,25 +11301,25 @@
         <v>46.88000106811523</v>
       </c>
       <c r="E312" t="n">
-        <v>47.13000106811523</v>
+        <v>47</v>
       </c>
       <c r="F312" t="n">
-        <v>47.13000106811523</v>
+        <v>47</v>
       </c>
       <c r="G312" t="n">
-        <v>50869</v>
+        <v>85547</v>
       </c>
       <c r="H312" t="n">
-        <v>0.01726741216151462</v>
+        <v>0.01446143195479466</v>
       </c>
       <c r="I312" t="n">
-        <v>0.05037640803858641</v>
+        <v>0.05037176988030779</v>
       </c>
       <c r="J312" t="n">
-        <v>0.1582699105125804</v>
+        <v>0.1550749959757709</v>
       </c>
       <c r="K312" t="n">
-        <v>0.1582699105125804</v>
+        <v>0.1550749959757709</v>
       </c>
     </row>
   </sheetData>
